--- a/spreadsheet/macrofree/network_appdelivery_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/network_appdelivery_checklist.ja.xlsx
@@ -941,7 +941,7 @@
     <row r="4" ht="17.25" customFormat="1" customHeight="1" s="5">
       <c r="A4" s="13" t="inlineStr">
         <is>
-          <t>Azure Application Delivery</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B4" s="4" t="n"/>
@@ -6823,7 +6823,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -6899,7 +6899,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Azure 課金と Microsoft Entra ID テナント</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -6934,11 +6934,6 @@
           <t>開ける</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>IDおよびアクセス管理</t>
-        </is>
-      </c>
       <c r="H3" t="inlineStr">
         <is>
           <t>このチェックにはアクションアイテムが関連付けられています</t>
@@ -6961,11 +6956,6 @@
           <t>達成</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>ネットワークトポロジと接続性</t>
-        </is>
-      </c>
       <c r="H4" t="inlineStr">
         <is>
           <t>このチェックは検証済みで、これ以上のアクションアイテムは関連付けられていません</t>
@@ -6983,11 +6973,6 @@
           <t>必要なし</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>安全</t>
-        </is>
-      </c>
       <c r="H5" t="inlineStr">
         <is>
           <t>推奨事項は理解されているが、現在の要件では不要</t>
@@ -7005,11 +6990,6 @@
           <t>該当なし</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>管理</t>
-        </is>
-      </c>
       <c r="H6" t="inlineStr">
         <is>
           <t>現在のデザインには適用されません</t>
@@ -7018,27 +6998,6 @@
       <c r="K6" t="inlineStr">
         <is>
           <t>es</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>リソース編成</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>プラットフォームの自動化とDevOps</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>統治</t>
         </is>
       </c>
     </row>

--- a/spreadsheet/macrofree/network_appdelivery_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/network_appdelivery_checklist.ja.xlsx
@@ -1064,7 +1064,7 @@
       </c>
       <c r="B8" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>アプリの配信 - Front Door</t>
         </is>
       </c>
       <c r="C8" s="21" t="inlineStr">
@@ -1160,7 +1160,7 @@
       </c>
       <c r="B10" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>アプリケーション配信 - アプリケーション・ゲートウェイ</t>
         </is>
       </c>
       <c r="C10" s="21" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="B11" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>アプリ配信 - Load Balancer</t>
         </is>
       </c>
       <c r="C11" s="21" t="inlineStr">
@@ -1256,12 +1256,12 @@
       </c>
       <c r="B12" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>アプリケーション配信 - アプリケーション・ゲートウェイ</t>
         </is>
       </c>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>アプリケーション ゲートウェイは、IP プレフィックスが /26 以上のサブネットにデプロイする必要があります</t>
+          <t>Application Gateway v2 は、IP プレフィックスが /24 以上のサブネットにデプロイする必要があります</t>
         </is>
       </c>
       <c r="D12" s="21" t="n"/>
@@ -1306,7 +1306,7 @@
       </c>
       <c r="B13" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>アプリケーション配信 - アプリケーション・ゲートウェイ</t>
         </is>
       </c>
       <c r="C13" s="21" t="inlineStr">
@@ -1360,7 +1360,7 @@
       </c>
       <c r="B14" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>アプリケーション配信 - アプリケーション・ゲートウェイ</t>
         </is>
       </c>
       <c r="C14" s="21" t="inlineStr">
@@ -1410,12 +1410,12 @@
       </c>
       <c r="B15" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>アプリケーション配信 - アプリケーション・ゲートウェイ</t>
         </is>
       </c>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door と WAF ポリシーを使用して、複数の Azure リージョンにまたがるグローバル HTTP/S アプリを配信し、保護します。</t>
+          <t>最小数のインスタンスが 2 つになる自動スケーリングを構成します。</t>
         </is>
       </c>
       <c r="D15" s="21" t="n"/>
@@ -1432,19 +1432,19 @@
       <c r="G15" s="21" t="n"/>
       <c r="H15" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/application-gateway/application-gateway-autoscaling-zone-redundant</t>
         </is>
       </c>
       <c r="I15" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J15" s="22" t="n"/>
       <c r="K15" s="22" t="n"/>
       <c r="L15" s="25" t="inlineStr">
         <is>
-          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
+          <t>135bf4ac-f9db-461f-b76b-2ee9e30b12c0</t>
         </is>
       </c>
       <c r="M15" s="25" t="n"/>
@@ -1460,12 +1460,12 @@
       </c>
       <c r="B16" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>アプリケーション配信 - アプリケーション・ゲートウェイ</t>
         </is>
       </c>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>Front Door と Application Gateway を使用して HTTP/S アプリを保護する場合は、Front Door で WAF ポリシーを使用します。Application Gateway をロックダウンして、Front Door からのトラフィックのみを受信します。</t>
+          <t>Application Gateway を複数の可用性ゾーンにデプロイする</t>
         </is>
       </c>
       <c r="D16" s="21" t="n"/>
@@ -1482,19 +1482,19 @@
       <c r="G16" s="21" t="n"/>
       <c r="H16" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://learn.microsoft.com/azure/reliability/migrate-app-gateway-v2</t>
         </is>
       </c>
       <c r="I16" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J16" s="22" t="n"/>
       <c r="K16" s="22" t="n"/>
       <c r="L16" s="25" t="inlineStr">
         <is>
-          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
+          <t>060c6964-52b5-48db-af8b-83e4b2d85349</t>
         </is>
       </c>
       <c r="M16" s="25" t="n"/>
@@ -1510,18 +1510,18 @@
       </c>
       <c r="B17" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>アプリの配信 - Front Door</t>
         </is>
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>Traffic Manager を使用して、HTTP/S 以外のプロトコルにまたがるグローバル アプリを配信します。</t>
+          <t>Azure Front Door と WAF ポリシーを使用して、複数の Azure リージョンにまたがるグローバル HTTP/S アプリを配信し、保護します。</t>
         </is>
       </c>
       <c r="D17" s="21" t="n"/>
       <c r="E17" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1544,7 +1544,7 @@
       <c r="K17" s="22" t="n"/>
       <c r="L17" s="25" t="inlineStr">
         <is>
-          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
+          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
         </is>
       </c>
       <c r="M17" s="25" t="n"/>
@@ -1565,13 +1565,13 @@
       </c>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>ユーザーが内部アプリケーションへのアクセスのみを必要とする場合、Microsoft Entra ID アプリケーション プロキシは Azure Virtual Desktop (AVD) の代替として検討されていますか?</t>
+          <t>Front Door と Application Gateway を使用して HTTP/S アプリを保護する場合は、Front Door で WAF ポリシーを使用します。Application Gateway をロックダウンして、Front Door からのトラフィックのみを受信します。</t>
         </is>
       </c>
       <c r="D18" s="21" t="n"/>
       <c r="E18" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1582,19 +1582,19 @@
       <c r="G18" s="21" t="n"/>
       <c r="H18" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I18" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J18" s="22" t="n"/>
       <c r="K18" s="22" t="n"/>
       <c r="L18" s="25" t="inlineStr">
         <is>
-          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
+          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
         </is>
       </c>
       <c r="M18" s="25" t="n"/>
@@ -1610,18 +1610,18 @@
       </c>
       <c r="B19" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>アプリの配信 - Traffic Manager</t>
         </is>
       </c>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク内の着信接続用に開かれているファイアウォール ポートの数を減らすには、Microsoft Entra ID アプリケーション プロキシを使用して、リモート ユーザーに内部アプリケーションへの安全で認証されたアクセスを提供することを検討してください。</t>
+          <t>Traffic Manager を使用して、HTTP/S 以外のプロトコルにまたがるグローバル アプリを配信します。</t>
         </is>
       </c>
       <c r="D19" s="21" t="n"/>
       <c r="E19" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1632,19 +1632,19 @@
       <c r="G19" s="21" t="n"/>
       <c r="H19" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I19" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J19" s="22" t="n"/>
       <c r="K19" s="22" t="n"/>
       <c r="L19" s="25" t="inlineStr">
         <is>
-          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
+          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
         </is>
       </c>
       <c r="M19" s="25" t="n"/>
@@ -1665,13 +1665,13 @@
       </c>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>Front Door の WAF プロファイルを "防止" モードでデプロイします。</t>
+          <t>ユーザーが内部アプリケーションへのアクセスのみを必要とする場合、Microsoft Entra ID アプリケーション プロキシは Azure Virtual Desktop (AVD) の代替として検討されていますか?</t>
         </is>
       </c>
       <c r="D20" s="21" t="n"/>
       <c r="E20" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1682,15 +1682,19 @@
       <c r="G20" s="21" t="n"/>
       <c r="H20" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-policy-settings</t>
-        </is>
-      </c>
-      <c r="I20" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+        </is>
+      </c>
+      <c r="I20" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
+        </is>
+      </c>
       <c r="J20" s="22" t="n"/>
       <c r="K20" s="22" t="n"/>
       <c r="L20" s="25" t="inlineStr">
         <is>
-          <t>ae248989-b306-4591-9186-de482e3f0f0e</t>
+          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
         </is>
       </c>
       <c r="M20" s="25" t="n"/>
@@ -1711,13 +1715,13 @@
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>Azure Traffic Manager と Azure Front Door の組み合わせは避けてください。</t>
+          <t>ネットワーク内の着信接続用に開かれているファイアウォール ポートの数を減らすには、Microsoft Entra ID アプリケーション プロキシを使用して、リモート ユーザーに内部アプリケーションへの安全で認証されたアクセスを提供することを検討してください。</t>
         </is>
       </c>
       <c r="D21" s="21" t="n"/>
       <c r="E21" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1728,15 +1732,19 @@
       <c r="G21" s="21" t="n"/>
       <c r="H21" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
-        </is>
-      </c>
-      <c r="I21" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+        </is>
+      </c>
+      <c r="I21" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+        </is>
+      </c>
       <c r="J21" s="22" t="n"/>
       <c r="K21" s="22" t="n"/>
       <c r="L21" s="25" t="inlineStr">
         <is>
-          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
         </is>
       </c>
       <c r="M21" s="25" t="n"/>
@@ -1752,12 +1760,12 @@
       </c>
       <c r="B22" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>アプリの配信 - Front Door</t>
         </is>
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door と配信元で同じドメイン名を使用します。ホスト名が一致しないと、微妙なバグが発生する可能性があります。</t>
+          <t>Front Door の WAF プロファイルを "防止" モードでデプロイします。</t>
         </is>
       </c>
       <c r="D22" s="21" t="n"/>
@@ -1774,7 +1782,7 @@
       <c r="G22" s="21" t="n"/>
       <c r="H22" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-policy-settings</t>
         </is>
       </c>
       <c r="I22" s="15" t="n"/>
@@ -1782,7 +1790,7 @@
       <c r="K22" s="22" t="n"/>
       <c r="L22" s="25" t="inlineStr">
         <is>
-          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+          <t>ae248989-b306-4591-9186-de482e3f0f0e</t>
         </is>
       </c>
       <c r="M22" s="25" t="n"/>
@@ -1798,18 +1806,18 @@
       </c>
       <c r="B23" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>アプリの配信 - Front Door</t>
         </is>
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door 配信元グループに配信元が 1 つしかない場合は、正常性プローブを無効にします。</t>
+          <t>Azure Traffic Manager と Azure Front Door の組み合わせは避けてください。</t>
         </is>
       </c>
       <c r="D23" s="21" t="n"/>
       <c r="E23" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1820,7 +1828,7 @@
       <c r="G23" s="21" t="n"/>
       <c r="H23" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
         </is>
       </c>
       <c r="I23" s="15" t="n"/>
@@ -1828,7 +1836,7 @@
       <c r="K23" s="22" t="n"/>
       <c r="L23" s="25" t="inlineStr">
         <is>
-          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
         </is>
       </c>
       <c r="M23" s="25" t="n"/>
@@ -1844,18 +1852,18 @@
       </c>
       <c r="B24" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>アプリの配信 - Front Door</t>
         </is>
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door に適した正常性プローブ エンドポイントを選択します。アプリケーションのすべての依存関係をチェックする正常性エンドポイントを構築することを検討してください。</t>
+          <t>Azure Front Door と配信元で同じドメイン名を使用します。ホスト名が一致しないと、微妙なバグが発生する可能性があります。</t>
         </is>
       </c>
       <c r="D24" s="21" t="n"/>
       <c r="E24" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1866,7 +1874,7 @@
       <c r="G24" s="21" t="n"/>
       <c r="H24" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
         </is>
       </c>
       <c r="I24" s="15" t="n"/>
@@ -1874,7 +1882,7 @@
       <c r="K24" s="22" t="n"/>
       <c r="L24" s="25" t="inlineStr">
         <is>
-          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
         </is>
       </c>
       <c r="M24" s="25" t="n"/>
@@ -1890,12 +1898,12 @@
       </c>
       <c r="B25" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>アプリの配信 - Front Door</t>
         </is>
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door で HEAD 正常性プローブを使用して、Front Door がアプリケーションに送信するトラフィックを減らします。</t>
+          <t>Azure Front Door 配信元グループに配信元が 1 つしかない場合は、正常性プローブを無効にします。</t>
         </is>
       </c>
       <c r="D25" s="21" t="n"/>
@@ -1912,7 +1920,7 @@
       <c r="G25" s="21" t="n"/>
       <c r="H25" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
         </is>
       </c>
       <c r="I25" s="15" t="n"/>
@@ -1920,7 +1928,7 @@
       <c r="K25" s="22" t="n"/>
       <c r="L25" s="25" t="inlineStr">
         <is>
-          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
         </is>
       </c>
       <c r="M25" s="25" t="n"/>
@@ -1936,18 +1944,18 @@
       </c>
       <c r="B26" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>アプリの配信 - Front Door</t>
         </is>
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>Load Balancer の送信規則の代わりに Azure NAT Gateway を使用して、SNAT のスケーラビリティを向上させる</t>
+          <t>Azure Front Door に適した正常性プローブ エンドポイントを選択します。アプリケーションのすべての依存関係をチェックする正常性エンドポイントを構築することを検討してください。</t>
         </is>
       </c>
       <c r="D26" s="21" t="n"/>
       <c r="E26" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1958,7 +1966,7 @@
       <c r="G26" s="21" t="n"/>
       <c r="H26" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/nat-gateway/nat-overview#outbound-connectivity</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
         </is>
       </c>
       <c r="I26" s="15" t="n"/>
@@ -1966,7 +1974,7 @@
       <c r="K26" s="22" t="n"/>
       <c r="L26" s="25" t="inlineStr">
         <is>
-          <t>97a2fd46-64b0-1dfa-b72d-9c8869496d75</t>
+          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
         </is>
       </c>
       <c r="M26" s="25" t="n"/>
@@ -1982,18 +1990,18 @@
       </c>
       <c r="B27" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>アプリの配信 - Front Door</t>
         </is>
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door でマネージド TLS 証明書を使用します。運用コストと、証明書の更新による停止のリスクを軽減します。</t>
+          <t>Azure Front Door で HEAD 正常性プローブを使用して、Front Door がアプリケーションに送信するトラフィックを減らします。</t>
         </is>
       </c>
       <c r="D27" s="21" t="n"/>
       <c r="E27" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2004,14 +2012,14 @@
       <c r="G27" s="21" t="n"/>
       <c r="H27" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
         </is>
       </c>
       <c r="J27" s="22" t="n"/>
       <c r="K27" s="22" t="n"/>
       <c r="L27" s="25" t="inlineStr">
         <is>
-          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
         </is>
       </c>
       <c r="M27" s="25" t="n"/>
@@ -2027,18 +2035,18 @@
       </c>
       <c r="B28" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>アプリ配信 - Load Balancer</t>
         </is>
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF の構成をコードとして定義します。コードを使用することで、新しいルールセット・バージョンをより簡単に採用し、保護を強化できます。</t>
+          <t>Load Balancer の送信規則の代わりに Azure NAT Gateway を使用して、SNAT のスケーラビリティを向上させる</t>
         </is>
       </c>
       <c r="D28" s="21" t="n"/>
       <c r="E28" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2049,14 +2057,14 @@
       <c r="G28" s="21" t="n"/>
       <c r="H28" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
+          <t>https://learn.microsoft.com/azure/nat-gateway/nat-overview#outbound-connectivity</t>
         </is>
       </c>
       <c r="J28" s="22" t="n"/>
       <c r="K28" s="22" t="n"/>
       <c r="L28" s="25" t="inlineStr">
         <is>
-          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+          <t>97a2fd46-64b0-1dfa-b72d-9c8869496d75</t>
         </is>
       </c>
       <c r="M28" s="25" t="n"/>
@@ -2072,12 +2080,12 @@
       </c>
       <c r="B29" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>アプリの配信 - Front Door</t>
         </is>
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door でエンド ツー エンドの TLS を使用します。クライアントから Front Door への接続、および Front Door から配信元への接続には TLS を使用します。</t>
+          <t>Azure Front Door でマネージド TLS 証明書を使用します。運用コストと、証明書の更新による停止のリスクを軽減します。</t>
         </is>
       </c>
       <c r="D29" s="21" t="n"/>
@@ -2094,14 +2102,14 @@
       <c r="G29" s="21" t="n"/>
       <c r="H29" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
         </is>
       </c>
       <c r="J29" s="22" t="n"/>
       <c r="K29" s="22" t="n"/>
       <c r="L29" s="25" t="inlineStr">
         <is>
-          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
         </is>
       </c>
       <c r="M29" s="25" t="n"/>
@@ -2117,12 +2125,12 @@
       </c>
       <c r="B30" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>アプリの配信 - Front Door</t>
         </is>
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door で HTTP から HTTPS へのリダイレクトを使用します。古いクライアントをHTTPSリクエストに自動的にリダイレクトすることでサポートします。</t>
+          <t>Azure Front Door WAF の構成をコードとして定義します。コードを使用することで、新しいルールセット・バージョンをより簡単に採用し、保護を強化できます。</t>
         </is>
       </c>
       <c r="D30" s="21" t="n"/>
@@ -2139,14 +2147,14 @@
       <c r="G30" s="21" t="n"/>
       <c r="H30" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
         </is>
       </c>
       <c r="J30" s="22" t="n"/>
       <c r="K30" s="22" t="n"/>
       <c r="L30" s="25" t="inlineStr">
         <is>
-          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
         </is>
       </c>
       <c r="M30" s="25" t="n"/>
@@ -2162,12 +2170,12 @@
       </c>
       <c r="B31" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>アプリの配信 - Front Door</t>
         </is>
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF を有効にします。さまざまな攻撃からアプリケーションを保護します。</t>
+          <t>Azure Front Door でエンド ツー エンドの TLS を使用します。クライアントから Front Door への接続、および Front Door から配信元への接続には TLS を使用します。</t>
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
@@ -2184,14 +2192,14 @@
       <c r="G31" s="21" t="n"/>
       <c r="H31" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
         </is>
       </c>
       <c r="J31" s="22" t="n"/>
       <c r="K31" s="22" t="n"/>
       <c r="L31" s="25" t="inlineStr">
         <is>
-          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
         </is>
       </c>
       <c r="M31" s="25" t="n"/>
@@ -2207,18 +2215,18 @@
       </c>
       <c r="B32" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>アプリの配信 - Front Door</t>
         </is>
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>ワークロードに合わせて Azure Front Door WAF を調整します。誤検知を減らします。</t>
+          <t>Azure Front Door で HTTP から HTTPS へのリダイレクトを使用します。古いクライアントをHTTPSリクエストに自動的にリダイレクトすることでサポートします。</t>
         </is>
       </c>
       <c r="D32" s="21" t="n"/>
       <c r="E32" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2229,7 +2237,7 @@
       <c r="G32" s="21" t="n"/>
       <c r="H32" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
         </is>
       </c>
       <c r="I32" s="15" t="n"/>
@@ -2237,7 +2245,7 @@
       <c r="K32" s="22" t="n"/>
       <c r="L32" s="25" t="inlineStr">
         <is>
-          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
         </is>
       </c>
       <c r="M32" s="25" t="n"/>
@@ -2253,12 +2261,12 @@
       </c>
       <c r="B33" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>アプリの配信 - Front Door</t>
         </is>
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF で防止モードを使用します。防止モードにより、WAF は悪意のある要求を確実にブロックします。</t>
+          <t>Azure Front Door WAF を有効にします。さまざまな攻撃からアプリケーションを保護します。</t>
         </is>
       </c>
       <c r="D33" s="21" t="n"/>
@@ -2275,7 +2283,7 @@
       <c r="G33" s="21" t="n"/>
       <c r="H33" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
         </is>
       </c>
       <c r="I33" s="15" t="n"/>
@@ -2283,7 +2291,7 @@
       <c r="K33" s="23" t="n"/>
       <c r="L33" s="25" t="inlineStr">
         <is>
-          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
         </is>
       </c>
       <c r="M33" s="25" t="n"/>
@@ -2299,12 +2307,12 @@
       </c>
       <c r="B34" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>アプリの配信 - Front Door</t>
         </is>
       </c>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF の既定のルール セットを有効にします。既定のルール セットは、一般的な攻撃を検出してブロックします。</t>
+          <t>ワークロードに合わせて Azure Front Door WAF を調整します。誤検知を減らします。</t>
         </is>
       </c>
       <c r="D34" s="21" t="n"/>
@@ -2321,7 +2329,7 @@
       <c r="G34" s="21" t="n"/>
       <c r="H34" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
         </is>
       </c>
       <c r="I34" s="15" t="n"/>
@@ -2329,7 +2337,7 @@
       <c r="K34" s="22" t="n"/>
       <c r="L34" s="25" t="inlineStr">
         <is>
-          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
         </is>
       </c>
       <c r="M34" s="25" t="n"/>
@@ -2345,12 +2353,12 @@
       </c>
       <c r="B35" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>アプリの配信 - Front Door</t>
         </is>
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF ボット管理ルールを有効にします。ボットルールは、良いボットと悪いボットを検出します。</t>
+          <t>Azure Front Door WAF で防止モードを使用します。防止モードにより、WAF は悪意のある要求を確実にブロックします。</t>
         </is>
       </c>
       <c r="D35" s="21" t="n"/>
@@ -2367,7 +2375,7 @@
       <c r="G35" s="21" t="n"/>
       <c r="H35" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
         </is>
       </c>
       <c r="I35" s="15" t="n"/>
@@ -2375,7 +2383,7 @@
       <c r="K35" s="22" t="n"/>
       <c r="L35" s="25" t="inlineStr">
         <is>
-          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
         </is>
       </c>
       <c r="M35" s="25" t="n"/>
@@ -2391,18 +2399,18 @@
       </c>
       <c r="B36" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>アプリの配信 - Front Door</t>
         </is>
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>最新バージョンの Azure Front Door WAF ルールセットを使用します。ルールセットの更新は、現在の脅威の状況を考慮して定期的に更新されます。</t>
+          <t>Azure Front Door WAF の既定のルール セットを有効にします。既定のルール セットは、一般的な攻撃を検出してブロックします。</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
       <c r="E36" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2413,7 +2421,7 @@
       <c r="G36" s="21" t="n"/>
       <c r="H36" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
         </is>
       </c>
       <c r="I36" s="15" t="n"/>
@@ -2421,7 +2429,7 @@
       <c r="K36" s="22" t="n"/>
       <c r="L36" s="25" t="inlineStr">
         <is>
-          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
         </is>
       </c>
       <c r="M36" s="25" t="n"/>
@@ -2437,18 +2445,18 @@
       </c>
       <c r="B37" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>アプリの配信 - Front Door</t>
         </is>
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF にレート制限を追加します。レート制限は、クライアントが短期間に大量のトラフィックを誤ってまたは意図的に送信することをブロックします。</t>
+          <t>Azure Front Door WAF ボット管理ルールを有効にします。ボットルールは、良いボットと悪いボットを検出します。</t>
         </is>
       </c>
       <c r="D37" s="21" t="n"/>
       <c r="E37" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2459,7 +2467,7 @@
       <c r="G37" s="21" t="n"/>
       <c r="H37" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
         </is>
       </c>
       <c r="I37" s="15" t="n"/>
@@ -2467,7 +2475,7 @@
       <c r="K37" s="22" t="n"/>
       <c r="L37" s="25" t="inlineStr">
         <is>
-          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
         </is>
       </c>
       <c r="M37" s="25" t="n"/>
@@ -2483,12 +2491,12 @@
       </c>
       <c r="B38" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>アプリの配信 - Front Door</t>
         </is>
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF のレート制限には、高いしきい値を使用します。高いレート制限しきい値は、正当なトラフィックのブロックを回避しながら、インフラストラクチャを圧倒する可能性のある非常に多数の要求に対する保護を提供します。</t>
+          <t>最新バージョンの Azure Front Door WAF ルールセットを使用します。ルールセットの更新は、現在の脅威の状況を考慮して定期的に更新されます。</t>
         </is>
       </c>
       <c r="D38" s="21" t="n"/>
@@ -2505,7 +2513,7 @@
       <c r="G38" s="21" t="n"/>
       <c r="H38" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
         </is>
       </c>
       <c r="I38" s="15" t="n"/>
@@ -2513,7 +2521,7 @@
       <c r="K38" s="22" t="n"/>
       <c r="L38" s="25" t="inlineStr">
         <is>
-          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
         </is>
       </c>
       <c r="M38" s="25" t="n"/>
@@ -2529,18 +2537,18 @@
       </c>
       <c r="B39" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>アプリの配信 - Front Door</t>
         </is>
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF を使用してトラフィックを geo フィルター処理します。想定されるリージョンからのトラフィックのみを許可し、他のリージョンからのトラフィックをブロックします。</t>
+          <t>Azure Front Door WAF にレート制限を追加します。レート制限は、クライアントが短期間に大量のトラフィックを誤ってまたは意図的に送信することをブロックします。</t>
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
       <c r="E39" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2551,7 +2559,7 @@
       <c r="G39" s="21" t="n"/>
       <c r="H39" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
         </is>
       </c>
       <c r="I39" s="15" t="n"/>
@@ -2559,7 +2567,7 @@
       <c r="K39" s="22" t="n"/>
       <c r="L39" s="25" t="inlineStr">
         <is>
-          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
         </is>
       </c>
       <c r="M39" s="25" t="n"/>
@@ -2575,12 +2583,12 @@
       </c>
       <c r="B40" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>アプリの配信 - Front Door</t>
         </is>
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF を使用してトラフィックをジオフィルター処理するときに、不明な (ZZ) 場所を指定します。IP アドレスを地理的に一致させることができない場合に、正当な要求を誤ってブロックしないようにします。</t>
+          <t>Azure Front Door WAF のレート制限には、高いしきい値を使用します。高いレート制限しきい値は、正当なトラフィックのブロックを回避しながら、インフラストラクチャを圧倒する可能性のある非常に多数の要求に対する保護を提供します。</t>
         </is>
       </c>
       <c r="D40" s="21" t="n"/>
@@ -2597,7 +2605,7 @@
       <c r="G40" s="21" t="n"/>
       <c r="H40" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
         </is>
       </c>
       <c r="I40" s="15" t="n"/>
@@ -2605,7 +2613,7 @@
       <c r="K40" s="22" t="n"/>
       <c r="L40" s="25" t="inlineStr">
         <is>
-          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
         </is>
       </c>
       <c r="M40" s="25" t="n"/>
@@ -2614,34 +2622,92 @@
       <c r="P40" s="25" t="n"/>
     </row>
     <row r="41" ht="16.5" customHeight="1">
-      <c r="A41" s="21" t="n"/>
-      <c r="B41" s="21" t="n"/>
-      <c r="C41" s="21" t="n"/>
+      <c r="A41" s="21" t="inlineStr">
+        <is>
+          <t>ネットワークトポロジと接続性</t>
+        </is>
+      </c>
+      <c r="B41" s="21" t="inlineStr">
+        <is>
+          <t>アプリの配信 - Front Door</t>
+        </is>
+      </c>
+      <c r="C41" s="21" t="inlineStr">
+        <is>
+          <t>Azure Front Door WAF を使用してトラフィックを geo フィルター処理します。想定されるリージョンからのトラフィックのみを許可し、他のリージョンからのトラフィックをブロックします。</t>
+        </is>
+      </c>
       <c r="D41" s="21" t="n"/>
-      <c r="E41" s="21" t="n"/>
+      <c r="E41" s="21" t="inlineStr">
+        <is>
+          <t>低い</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G41" s="21" t="n"/>
-      <c r="H41" s="15" t="n"/>
+      <c r="H41" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+        </is>
+      </c>
       <c r="I41" s="15" t="n"/>
       <c r="J41" s="22" t="n"/>
       <c r="K41" s="22" t="n"/>
-      <c r="L41" s="25" t="n"/>
+      <c r="L41" s="25" t="inlineStr">
+        <is>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+        </is>
+      </c>
       <c r="M41" s="25" t="n"/>
       <c r="N41" s="25" t="n"/>
       <c r="O41" s="25" t="n"/>
       <c r="P41" s="25" t="n"/>
     </row>
     <row r="42" ht="16.5" customHeight="1">
-      <c r="A42" s="21" t="n"/>
-      <c r="B42" s="21" t="n"/>
-      <c r="C42" s="21" t="n"/>
+      <c r="A42" s="21" t="inlineStr">
+        <is>
+          <t>ネットワークトポロジと接続性</t>
+        </is>
+      </c>
+      <c r="B42" s="21" t="inlineStr">
+        <is>
+          <t>アプリの配信 - Front Door</t>
+        </is>
+      </c>
+      <c r="C42" s="21" t="inlineStr">
+        <is>
+          <t>Azure Front Door WAF を使用してトラフィックをジオフィルター処理するときに、不明な (ZZ) 場所を指定します。IP アドレスを地理的に一致させることができない場合に、正当な要求を誤ってブロックしないようにします。</t>
+        </is>
+      </c>
       <c r="D42" s="21" t="n"/>
-      <c r="E42" s="21" t="n"/>
+      <c r="E42" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G42" s="21" t="n"/>
-      <c r="H42" s="15" t="n"/>
+      <c r="H42" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+        </is>
+      </c>
       <c r="I42" s="15" t="n"/>
       <c r="J42" s="22" t="n"/>
       <c r="K42" s="22" t="n"/>
-      <c r="L42" s="25" t="n"/>
+      <c r="L42" s="25" t="inlineStr">
+        <is>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+        </is>
+      </c>
       <c r="M42" s="25" t="n"/>
       <c r="N42" s="25" t="n"/>
       <c r="O42" s="25" t="n"/>
@@ -6808,7 +6874,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F41" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F43" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/network_appdelivery_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/network_appdelivery_checklist.ja.xlsx
@@ -1144,7 +1144,7 @@
       <c r="K9" s="22" t="n"/>
       <c r="L9" s="25" t="inlineStr">
         <is>
-          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
+          <t>b71ca41b-3a80-48f3-a6cd-22cdf197c1cf</t>
         </is>
       </c>
       <c r="M9" s="25" t="n"/>
@@ -1256,12 +1256,12 @@
       </c>
       <c r="B12" s="21" t="inlineStr">
         <is>
-          <t>アプリケーション配信 - アプリケーション・ゲートウェイ</t>
+          <t>アプリ配信 - Load Balancer</t>
         </is>
       </c>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>Application Gateway v2 は、IP プレフィックスが /24 以上のサブネットにデプロイする必要があります</t>
+          <t>Load Balancer フロントエンドの IP アドレスがゾーン冗長であることを確認します (ゾーン フロントエンドが必要な場合を除く)。</t>
         </is>
       </c>
       <c r="D12" s="21" t="n"/>
@@ -1278,19 +1278,15 @@
       <c r="G12" s="21" t="n"/>
       <c r="H12" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/application-gateway/configuration-infrastructure#size-of-the-subnet</t>
-        </is>
-      </c>
-      <c r="I12" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-standard-availability-zones</t>
+        </is>
+      </c>
+      <c r="I12" s="15" t="n"/>
       <c r="J12" s="22" t="n"/>
       <c r="K12" s="22" t="n"/>
       <c r="L12" s="25" t="inlineStr">
         <is>
-          <t>dfc50f87-3800-424c-937b-ed5f186e7c15</t>
+          <t>9432621a-8397-4654-a882-5bc856b7ef83</t>
         </is>
       </c>
       <c r="M12" s="25" t="n"/>
@@ -1311,14 +1307,10 @@
       </c>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>ランディング ゾーン仮想ネットワーク内およびそれらがセキュリティで保護しているアプリと共に、受信 HTTP(S) 接続のプロキシに使用される Azure Application Gateway v2 またはパートナーの NVA をデプロイします。</t>
-        </is>
-      </c>
-      <c r="D13" s="21" t="inlineStr">
-        <is>
-          <t>リバースプロキシ全般、特にWAFの管理は、ネットワークよりもアプリケーションに近いため、アプリと同じサブスクリプションに属します。Application Gateway と WAF を接続サブスクリプションに一元化することは、1 つのチームによって管理されている場合は問題ない可能性があります。</t>
-        </is>
-      </c>
+          <t>Application Gateway v2 は、IP プレフィックスが /24 以上のサブネットにデプロイする必要があります</t>
+        </is>
+      </c>
+      <c r="D13" s="21" t="n"/>
       <c r="E13" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -1332,7 +1324,7 @@
       <c r="G13" s="21" t="n"/>
       <c r="H13" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/application-gateway/configuration-infrastructure#size-of-the-subnet</t>
         </is>
       </c>
       <c r="I13" s="15" t="inlineStr">
@@ -1344,7 +1336,7 @@
       <c r="K13" s="22" t="n"/>
       <c r="L13" s="25" t="inlineStr">
         <is>
-          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
+          <t>dfc50f87-3800-424c-937b-ed5f186e7c15</t>
         </is>
       </c>
       <c r="M13" s="25" t="n"/>
@@ -1365,10 +1357,14 @@
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>アプリケーション ランディング ゾーン内のすべてのパブリック IP アドレスに対して DDoS ネットワークまたは IP 保護プランを使用します。</t>
-        </is>
-      </c>
-      <c r="D14" s="21" t="n"/>
+          <t>ランディング ゾーン仮想ネットワーク内およびそれらがセキュリティで保護しているアプリと共に、受信 HTTP(S) 接続のプロキシに使用される Azure Application Gateway v2 またはパートナーの NVA をデプロイします。</t>
+        </is>
+      </c>
+      <c r="D14" s="21" t="inlineStr">
+        <is>
+          <t>リバースプロキシ全般、特にWAFの管理は、ネットワークよりもアプリケーションに近いため、アプリと同じサブスクリプションに属します。Application Gateway と WAF を接続サブスクリプションに一元化することは、1 つのチームによって管理されている場合は問題ない場合があります。</t>
+        </is>
+      </c>
       <c r="E14" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -1387,14 +1383,14 @@
       </c>
       <c r="I14" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J14" s="22" t="n"/>
       <c r="K14" s="22" t="n"/>
       <c r="L14" s="25" t="inlineStr">
         <is>
-          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
+          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
         </is>
       </c>
       <c r="M14" s="25" t="n"/>
@@ -1415,7 +1411,7 @@
       </c>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>最小数のインスタンスが 2 つになる自動スケーリングを構成します。</t>
+          <t>アプリケーション ランディング ゾーン内のすべてのパブリック IP アドレスに対して DDoS ネットワークまたは IP 保護プランを使用します。</t>
         </is>
       </c>
       <c r="D15" s="21" t="n"/>
@@ -1432,19 +1428,19 @@
       <c r="G15" s="21" t="n"/>
       <c r="H15" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/application-gateway/application-gateway-autoscaling-zone-redundant</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I15" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J15" s="22" t="n"/>
       <c r="K15" s="22" t="n"/>
       <c r="L15" s="25" t="inlineStr">
         <is>
-          <t>135bf4ac-f9db-461f-b76b-2ee9e30b12c0</t>
+          <t>f109e1f3-c79b-4f14-82de-6b5c22314d08</t>
         </is>
       </c>
       <c r="M15" s="25" t="n"/>
@@ -1465,7 +1461,7 @@
       </c>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>Application Gateway を複数の可用性ゾーンにデプロイする</t>
+          <t>最小数のインスタンスが 2 つになる自動スケーリングを構成します。</t>
         </is>
       </c>
       <c r="D16" s="21" t="n"/>
@@ -1482,7 +1478,7 @@
       <c r="G16" s="21" t="n"/>
       <c r="H16" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/migrate-app-gateway-v2</t>
+          <t>https://learn.microsoft.com/azure/application-gateway/application-gateway-autoscaling-zone-redundant</t>
         </is>
       </c>
       <c r="I16" s="15" t="inlineStr">
@@ -1494,7 +1490,7 @@
       <c r="K16" s="22" t="n"/>
       <c r="L16" s="25" t="inlineStr">
         <is>
-          <t>060c6964-52b5-48db-af8b-83e4b2d85349</t>
+          <t>135bf4ac-f9db-461f-b76b-2ee9e30b12c0</t>
         </is>
       </c>
       <c r="M16" s="25" t="n"/>
@@ -1510,12 +1506,12 @@
       </c>
       <c r="B17" s="21" t="inlineStr">
         <is>
-          <t>アプリの配信 - Front Door</t>
+          <t>アプリケーション配信 - アプリケーション・ゲートウェイ</t>
         </is>
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door と WAF ポリシーを使用して、複数の Azure リージョンにまたがるグローバル HTTP/S アプリを配信し、保護します。</t>
+          <t>Application Gateway を複数の可用性ゾーンにデプロイする</t>
         </is>
       </c>
       <c r="D17" s="21" t="n"/>
@@ -1532,19 +1528,19 @@
       <c r="G17" s="21" t="n"/>
       <c r="H17" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/reliability/migrate-app-gateway-v2</t>
         </is>
       </c>
       <c r="I17" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J17" s="22" t="n"/>
       <c r="K17" s="22" t="n"/>
       <c r="L17" s="25" t="inlineStr">
         <is>
-          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
+          <t>060c6964-52b5-48db-af8b-83e4b2d85349</t>
         </is>
       </c>
       <c r="M17" s="25" t="n"/>
@@ -1560,12 +1556,12 @@
       </c>
       <c r="B18" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>アプリの配信 - Front Door</t>
         </is>
       </c>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>Front Door と Application Gateway を使用して HTTP/S アプリを保護する場合は、Front Door で WAF ポリシーを使用します。Application Gateway をロックダウンして、Front Door からのトラフィックのみを受信します。</t>
+          <t>Azure Front Door と WAF ポリシーを使用して、複数の Azure リージョンにまたがるグローバル HTTP/S アプリを配信し、保護します。</t>
         </is>
       </c>
       <c r="D18" s="21" t="n"/>
@@ -1582,7 +1578,7 @@
       <c r="G18" s="21" t="n"/>
       <c r="H18" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I18" s="15" t="inlineStr">
@@ -1594,7 +1590,7 @@
       <c r="K18" s="22" t="n"/>
       <c r="L18" s="25" t="inlineStr">
         <is>
-          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
+          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
         </is>
       </c>
       <c r="M18" s="25" t="n"/>
@@ -1610,18 +1606,18 @@
       </c>
       <c r="B19" s="21" t="inlineStr">
         <is>
-          <t>アプリの配信 - Traffic Manager</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t>Traffic Manager を使用して、HTTP/S 以外のプロトコルにまたがるグローバル アプリを配信します。</t>
+          <t>Front Door と Application Gateway を使用して HTTP/S アプリを保護する場合は、Front Door で WAF ポリシーを使用します。Application Gateway をロックダウンして、Front Door からのトラフィックのみを受信します。</t>
         </is>
       </c>
       <c r="D19" s="21" t="n"/>
       <c r="E19" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1632,7 +1628,7 @@
       <c r="G19" s="21" t="n"/>
       <c r="H19" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I19" s="15" t="inlineStr">
@@ -1644,7 +1640,7 @@
       <c r="K19" s="22" t="n"/>
       <c r="L19" s="25" t="inlineStr">
         <is>
-          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
+          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
         </is>
       </c>
       <c r="M19" s="25" t="n"/>
@@ -1660,18 +1656,18 @@
       </c>
       <c r="B20" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>アプリの配信 - Traffic Manager</t>
         </is>
       </c>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>ユーザーが内部アプリケーションへのアクセスのみを必要とする場合、Microsoft Entra ID アプリケーション プロキシは Azure Virtual Desktop (AVD) の代替として検討されていますか?</t>
+          <t>Traffic Manager を使用して、HTTP/S 以外のプロトコルにまたがるグローバル アプリを配信します。</t>
         </is>
       </c>
       <c r="D20" s="21" t="n"/>
       <c r="E20" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1682,19 +1678,19 @@
       <c r="G20" s="21" t="n"/>
       <c r="H20" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I20" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J20" s="22" t="n"/>
       <c r="K20" s="22" t="n"/>
       <c r="L20" s="25" t="inlineStr">
         <is>
-          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
+          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
         </is>
       </c>
       <c r="M20" s="25" t="n"/>
@@ -1715,13 +1711,13 @@
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク内の着信接続用に開かれているファイアウォール ポートの数を減らすには、Microsoft Entra ID アプリケーション プロキシを使用して、リモート ユーザーに内部アプリケーションへの安全で認証されたアクセスを提供することを検討してください。</t>
+          <t>ユーザーが内部アプリケーションへのアクセスのみを必要とする場合、Microsoft Entra ID アプリケーション プロキシは Azure Virtual Desktop (AVD) の代替として検討されていますか?</t>
         </is>
       </c>
       <c r="D21" s="21" t="n"/>
       <c r="E21" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1737,14 +1733,14 @@
       </c>
       <c r="I21" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
         </is>
       </c>
       <c r="J21" s="22" t="n"/>
       <c r="K21" s="22" t="n"/>
       <c r="L21" s="25" t="inlineStr">
         <is>
-          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
+          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
         </is>
       </c>
       <c r="M21" s="25" t="n"/>
@@ -1760,18 +1756,18 @@
       </c>
       <c r="B22" s="21" t="inlineStr">
         <is>
-          <t>アプリの配信 - Front Door</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>Front Door の WAF プロファイルを "防止" モードでデプロイします。</t>
+          <t>ネットワーク内の着信接続用に開かれているファイアウォール ポートの数を減らすには、Microsoft Entra ID アプリケーション プロキシを使用して、リモート ユーザーに内部アプリケーションへの安全で認証されたアクセスを提供することを検討してください。</t>
         </is>
       </c>
       <c r="D22" s="21" t="n"/>
       <c r="E22" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1782,15 +1778,19 @@
       <c r="G22" s="21" t="n"/>
       <c r="H22" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-policy-settings</t>
-        </is>
-      </c>
-      <c r="I22" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+        </is>
+      </c>
+      <c r="I22" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+        </is>
+      </c>
       <c r="J22" s="22" t="n"/>
       <c r="K22" s="22" t="n"/>
       <c r="L22" s="25" t="inlineStr">
         <is>
-          <t>ae248989-b306-4591-9186-de482e3f0f0e</t>
+          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
         </is>
       </c>
       <c r="M22" s="25" t="n"/>
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>Azure Traffic Manager と Azure Front Door の組み合わせは避けてください。</t>
+          <t>Front Door の WAF プロファイルを "防止" モードでデプロイします。</t>
         </is>
       </c>
       <c r="D23" s="21" t="n"/>
@@ -1828,7 +1828,7 @@
       <c r="G23" s="21" t="n"/>
       <c r="H23" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-policy-settings</t>
         </is>
       </c>
       <c r="I23" s="15" t="n"/>
@@ -1836,7 +1836,7 @@
       <c r="K23" s="22" t="n"/>
       <c r="L23" s="25" t="inlineStr">
         <is>
-          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+          <t>ae248989-b306-4591-9186-de482e3f0f0e</t>
         </is>
       </c>
       <c r="M23" s="25" t="n"/>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door と配信元で同じドメイン名を使用します。ホスト名が一致しないと、微妙なバグが発生する可能性があります。</t>
+          <t>Azure Traffic Manager と Azure Front Door の組み合わせは避けてください。</t>
         </is>
       </c>
       <c r="D24" s="21" t="n"/>
@@ -1874,7 +1874,7 @@
       <c r="G24" s="21" t="n"/>
       <c r="H24" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
         </is>
       </c>
       <c r="I24" s="15" t="n"/>
@@ -1882,7 +1882,7 @@
       <c r="K24" s="22" t="n"/>
       <c r="L24" s="25" t="inlineStr">
         <is>
-          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
         </is>
       </c>
       <c r="M24" s="25" t="n"/>
@@ -1903,13 +1903,13 @@
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door 配信元グループに配信元が 1 つしかない場合は、正常性プローブを無効にします。</t>
+          <t>Azure Front Door と配信元で同じドメイン名を使用します。ホスト名が一致しないと、微妙なバグが発生する可能性があります。</t>
         </is>
       </c>
       <c r="D25" s="21" t="n"/>
       <c r="E25" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1920,7 +1920,7 @@
       <c r="G25" s="21" t="n"/>
       <c r="H25" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
         </is>
       </c>
       <c r="I25" s="15" t="n"/>
@@ -1928,7 +1928,7 @@
       <c r="K25" s="22" t="n"/>
       <c r="L25" s="25" t="inlineStr">
         <is>
-          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
         </is>
       </c>
       <c r="M25" s="25" t="n"/>
@@ -1949,13 +1949,13 @@
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door に適した正常性プローブ エンドポイントを選択します。アプリケーションのすべての依存関係をチェックする正常性エンドポイントを構築することを検討してください。</t>
+          <t>Azure Front Door 配信元グループに配信元が 1 つしかない場合は、正常性プローブを無効にします。</t>
         </is>
       </c>
       <c r="D26" s="21" t="n"/>
       <c r="E26" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1966,7 +1966,7 @@
       <c r="G26" s="21" t="n"/>
       <c r="H26" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
         </is>
       </c>
       <c r="I26" s="15" t="n"/>
@@ -1974,7 +1974,7 @@
       <c r="K26" s="22" t="n"/>
       <c r="L26" s="25" t="inlineStr">
         <is>
-          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
         </is>
       </c>
       <c r="M26" s="25" t="n"/>
@@ -1995,13 +1995,13 @@
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door で HEAD 正常性プローブを使用して、Front Door がアプリケーションに送信するトラフィックを減らします。</t>
+          <t>Azure Front Door に適した正常性プローブ エンドポイントを選択します。アプリケーションのすべての依存関係をチェックする正常性エンドポイントを構築することを検討してください。</t>
         </is>
       </c>
       <c r="D27" s="21" t="n"/>
       <c r="E27" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2012,14 +2012,14 @@
       <c r="G27" s="21" t="n"/>
       <c r="H27" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
         </is>
       </c>
       <c r="J27" s="22" t="n"/>
       <c r="K27" s="22" t="n"/>
       <c r="L27" s="25" t="inlineStr">
         <is>
-          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
         </is>
       </c>
       <c r="M27" s="25" t="n"/>
@@ -2035,18 +2035,18 @@
       </c>
       <c r="B28" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信 - Load Balancer</t>
+          <t>アプリの配信 - Front Door</t>
         </is>
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>Load Balancer の送信規則の代わりに Azure NAT Gateway を使用して、SNAT のスケーラビリティを向上させる</t>
+          <t>Azure Front Door で HEAD 正常性プローブを使用して、Front Door がアプリケーションに送信するトラフィックを減らします。</t>
         </is>
       </c>
       <c r="D28" s="21" t="n"/>
       <c r="E28" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2057,14 +2057,14 @@
       <c r="G28" s="21" t="n"/>
       <c r="H28" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/nat-gateway/nat-overview#outbound-connectivity</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
         </is>
       </c>
       <c r="J28" s="22" t="n"/>
       <c r="K28" s="22" t="n"/>
       <c r="L28" s="25" t="inlineStr">
         <is>
-          <t>97a2fd46-64b0-1dfa-b72d-9c8869496d75</t>
+          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
         </is>
       </c>
       <c r="M28" s="25" t="n"/>
@@ -2080,12 +2080,12 @@
       </c>
       <c r="B29" s="21" t="inlineStr">
         <is>
-          <t>アプリの配信 - Front Door</t>
+          <t>アプリ配信 - Load Balancer</t>
         </is>
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door でマネージド TLS 証明書を使用します。運用コストと、証明書の更新による停止のリスクを軽減します。</t>
+          <t>Load Balancer の送信規則の代わりに Azure NAT Gateway を使用して、SNAT のスケーラビリティを向上させる</t>
         </is>
       </c>
       <c r="D29" s="21" t="n"/>
@@ -2102,14 +2102,14 @@
       <c r="G29" s="21" t="n"/>
       <c r="H29" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+          <t>https://learn.microsoft.com/azure/nat-gateway/nat-overview#outbound-connectivity</t>
         </is>
       </c>
       <c r="J29" s="22" t="n"/>
       <c r="K29" s="22" t="n"/>
       <c r="L29" s="25" t="inlineStr">
         <is>
-          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+          <t>97a2fd46-64b0-1dfa-b72d-9c8869496d75</t>
         </is>
       </c>
       <c r="M29" s="25" t="n"/>
@@ -2130,13 +2130,13 @@
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF の構成をコードとして定義します。コードを使用することで、新しいルールセット・バージョンをより簡単に採用し、保護を強化できます。</t>
+          <t>Azure Front Door でマネージド TLS 証明書を使用します。運用コストと、証明書の更新による停止のリスクを軽減します。</t>
         </is>
       </c>
       <c r="D30" s="21" t="n"/>
       <c r="E30" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2147,14 +2147,14 @@
       <c r="G30" s="21" t="n"/>
       <c r="H30" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
         </is>
       </c>
       <c r="J30" s="22" t="n"/>
       <c r="K30" s="22" t="n"/>
       <c r="L30" s="25" t="inlineStr">
         <is>
-          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
         </is>
       </c>
       <c r="M30" s="25" t="n"/>
@@ -2175,13 +2175,13 @@
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door でエンド ツー エンドの TLS を使用します。クライアントから Front Door への接続、および Front Door から配信元への接続には TLS を使用します。</t>
+          <t>Azure Front Door WAF の構成をコードとして定義します。コードを使用することで、新しいルールセット・バージョンをより簡単に採用し、保護を強化できます。</t>
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
       <c r="E31" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2192,14 +2192,14 @@
       <c r="G31" s="21" t="n"/>
       <c r="H31" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
         </is>
       </c>
       <c r="J31" s="22" t="n"/>
       <c r="K31" s="22" t="n"/>
       <c r="L31" s="25" t="inlineStr">
         <is>
-          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
         </is>
       </c>
       <c r="M31" s="25" t="n"/>
@@ -2220,13 +2220,13 @@
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door で HTTP から HTTPS へのリダイレクトを使用します。古いクライアントをHTTPSリクエストに自動的にリダイレクトすることでサポートします。</t>
+          <t>Azure Front Door でエンド ツー エンドの TLS を使用します。クライアントから Front Door への接続、および Front Door から配信元への接続には TLS を使用します。</t>
         </is>
       </c>
       <c r="D32" s="21" t="n"/>
       <c r="E32" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2237,7 +2237,7 @@
       <c r="G32" s="21" t="n"/>
       <c r="H32" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
         </is>
       </c>
       <c r="I32" s="15" t="n"/>
@@ -2245,7 +2245,7 @@
       <c r="K32" s="22" t="n"/>
       <c r="L32" s="25" t="inlineStr">
         <is>
-          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
         </is>
       </c>
       <c r="M32" s="25" t="n"/>
@@ -2266,13 +2266,13 @@
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF を有効にします。さまざまな攻撃からアプリケーションを保護します。</t>
+          <t>Azure Front Door で HTTP から HTTPS へのリダイレクトを使用します。古いクライアントをHTTPSリクエストに自動的にリダイレクトすることでサポートします。</t>
         </is>
       </c>
       <c r="D33" s="21" t="n"/>
       <c r="E33" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2283,7 +2283,7 @@
       <c r="G33" s="21" t="n"/>
       <c r="H33" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
         </is>
       </c>
       <c r="I33" s="15" t="n"/>
@@ -2291,7 +2291,7 @@
       <c r="K33" s="23" t="n"/>
       <c r="L33" s="25" t="inlineStr">
         <is>
-          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
         </is>
       </c>
       <c r="M33" s="25" t="n"/>
@@ -2312,7 +2312,7 @@
       </c>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>ワークロードに合わせて Azure Front Door WAF を調整します。誤検知を減らします。</t>
+          <t>Azure Front Door WAF を有効にします。さまざまな攻撃からアプリケーションを保護します。</t>
         </is>
       </c>
       <c r="D34" s="21" t="n"/>
@@ -2329,7 +2329,7 @@
       <c r="G34" s="21" t="n"/>
       <c r="H34" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
         </is>
       </c>
       <c r="I34" s="15" t="n"/>
@@ -2337,7 +2337,7 @@
       <c r="K34" s="22" t="n"/>
       <c r="L34" s="25" t="inlineStr">
         <is>
-          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
         </is>
       </c>
       <c r="M34" s="25" t="n"/>
@@ -2358,7 +2358,7 @@
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF で防止モードを使用します。防止モードにより、WAF は悪意のある要求を確実にブロックします。</t>
+          <t>ワークロードに合わせて Azure Front Door WAF を調整します。誤検知を減らします。</t>
         </is>
       </c>
       <c r="D35" s="21" t="n"/>
@@ -2375,7 +2375,7 @@
       <c r="G35" s="21" t="n"/>
       <c r="H35" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
         </is>
       </c>
       <c r="I35" s="15" t="n"/>
@@ -2383,7 +2383,7 @@
       <c r="K35" s="22" t="n"/>
       <c r="L35" s="25" t="inlineStr">
         <is>
-          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
         </is>
       </c>
       <c r="M35" s="25" t="n"/>
@@ -2404,7 +2404,7 @@
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF の既定のルール セットを有効にします。既定のルール セットは、一般的な攻撃を検出してブロックします。</t>
+          <t>Azure Front Door WAF で防止モードを使用します。防止モードにより、WAF は悪意のある要求を確実にブロックします。</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
@@ -2421,7 +2421,7 @@
       <c r="G36" s="21" t="n"/>
       <c r="H36" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
         </is>
       </c>
       <c r="I36" s="15" t="n"/>
@@ -2429,7 +2429,7 @@
       <c r="K36" s="22" t="n"/>
       <c r="L36" s="25" t="inlineStr">
         <is>
-          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
         </is>
       </c>
       <c r="M36" s="25" t="n"/>
@@ -2450,7 +2450,7 @@
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF ボット管理ルールを有効にします。ボットルールは、良いボットと悪いボットを検出します。</t>
+          <t>Azure Front Door WAF の既定の規則セットを有効にします。既定のルール セットは、一般的な攻撃を検出してブロックします。</t>
         </is>
       </c>
       <c r="D37" s="21" t="n"/>
@@ -2467,7 +2467,7 @@
       <c r="G37" s="21" t="n"/>
       <c r="H37" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
         </is>
       </c>
       <c r="I37" s="15" t="n"/>
@@ -2475,7 +2475,7 @@
       <c r="K37" s="22" t="n"/>
       <c r="L37" s="25" t="inlineStr">
         <is>
-          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
         </is>
       </c>
       <c r="M37" s="25" t="n"/>
@@ -2496,13 +2496,13 @@
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>最新バージョンの Azure Front Door WAF ルールセットを使用します。ルールセットの更新は、現在の脅威の状況を考慮して定期的に更新されます。</t>
+          <t>Azure Front Door WAF ボット管理ルールを有効にします。ボットルールは、良いボットと悪いボットを検出します。</t>
         </is>
       </c>
       <c r="D38" s="21" t="n"/>
       <c r="E38" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2513,7 +2513,7 @@
       <c r="G38" s="21" t="n"/>
       <c r="H38" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
         </is>
       </c>
       <c r="I38" s="15" t="n"/>
@@ -2521,7 +2521,7 @@
       <c r="K38" s="22" t="n"/>
       <c r="L38" s="25" t="inlineStr">
         <is>
-          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
         </is>
       </c>
       <c r="M38" s="25" t="n"/>
@@ -2542,7 +2542,7 @@
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF にレート制限を追加します。レート制限は、クライアントが短期間に大量のトラフィックを誤ってまたは意図的に送信することをブロックします。</t>
+          <t>最新バージョンの Azure Front Door WAF ルールセットを使用します。ルールセットの更新は、現在の脅威の状況を考慮して定期的に更新されます。</t>
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
@@ -2559,7 +2559,7 @@
       <c r="G39" s="21" t="n"/>
       <c r="H39" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
         </is>
       </c>
       <c r="I39" s="15" t="n"/>
@@ -2567,7 +2567,7 @@
       <c r="K39" s="22" t="n"/>
       <c r="L39" s="25" t="inlineStr">
         <is>
-          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
         </is>
       </c>
       <c r="M39" s="25" t="n"/>
@@ -2588,7 +2588,7 @@
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF のレート制限には、高いしきい値を使用します。高いレート制限しきい値は、正当なトラフィックのブロックを回避しながら、インフラストラクチャを圧倒する可能性のある非常に多数の要求に対する保護を提供します。</t>
+          <t>Azure Front Door WAF にレート制限を追加します。レート制限は、クライアントが短期間に大量のトラフィックを誤ってまたは意図的に送信することをブロックします。</t>
         </is>
       </c>
       <c r="D40" s="21" t="n"/>
@@ -2605,7 +2605,7 @@
       <c r="G40" s="21" t="n"/>
       <c r="H40" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
         </is>
       </c>
       <c r="I40" s="15" t="n"/>
@@ -2613,7 +2613,7 @@
       <c r="K40" s="22" t="n"/>
       <c r="L40" s="25" t="inlineStr">
         <is>
-          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
         </is>
       </c>
       <c r="M40" s="25" t="n"/>
@@ -2634,13 +2634,13 @@
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF を使用してトラフィックを geo フィルター処理します。想定されるリージョンからのトラフィックのみを許可し、他のリージョンからのトラフィックをブロックします。</t>
+          <t>Azure Front Door WAF のレート制限には、高いしきい値を使用します。高いレート制限しきい値は、正当なトラフィックのブロックを回避しながら、インフラストラクチャを圧倒する可能性のある非常に多数の要求に対する保護を提供します。</t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
       <c r="E41" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2651,7 +2651,7 @@
       <c r="G41" s="21" t="n"/>
       <c r="H41" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
         </is>
       </c>
       <c r="I41" s="15" t="n"/>
@@ -2659,7 +2659,7 @@
       <c r="K41" s="22" t="n"/>
       <c r="L41" s="25" t="inlineStr">
         <is>
-          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
         </is>
       </c>
       <c r="M41" s="25" t="n"/>
@@ -2680,13 +2680,13 @@
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF を使用してトラフィックをジオフィルター処理するときに、不明な (ZZ) 場所を指定します。IP アドレスを地理的に一致させることができない場合に、正当な要求を誤ってブロックしないようにします。</t>
+          <t>Azure Front Door WAF を使用してトラフィックを geo フィルター処理します。想定されるリージョンからのトラフィックのみを許可し、他のリージョンからのトラフィックをブロックします。</t>
         </is>
       </c>
       <c r="D42" s="21" t="n"/>
       <c r="E42" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2697,7 +2697,7 @@
       <c r="G42" s="21" t="n"/>
       <c r="H42" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
         </is>
       </c>
       <c r="I42" s="15" t="n"/>
@@ -2705,7 +2705,7 @@
       <c r="K42" s="22" t="n"/>
       <c r="L42" s="25" t="inlineStr">
         <is>
-          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
         </is>
       </c>
       <c r="M42" s="25" t="n"/>
@@ -2714,17 +2714,46 @@
       <c r="P42" s="25" t="n"/>
     </row>
     <row r="43" ht="16.5" customHeight="1">
-      <c r="A43" s="21" t="n"/>
-      <c r="B43" s="21" t="n"/>
-      <c r="C43" s="21" t="n"/>
+      <c r="A43" s="21" t="inlineStr">
+        <is>
+          <t>ネットワークトポロジと接続性</t>
+        </is>
+      </c>
+      <c r="B43" s="21" t="inlineStr">
+        <is>
+          <t>アプリの配信 - Front Door</t>
+        </is>
+      </c>
+      <c r="C43" s="21" t="inlineStr">
+        <is>
+          <t>Azure Front Door WAF を使用してトラフィックをジオフィルター処理するときに、不明な (ZZ) 場所を指定します。IP アドレスを地理的に一致させることができない場合に、正当な要求を誤ってブロックしないようにします。</t>
+        </is>
+      </c>
       <c r="D43" s="21" t="n"/>
-      <c r="E43" s="21" t="n"/>
+      <c r="E43" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G43" s="21" t="n"/>
-      <c r="H43" s="15" t="n"/>
+      <c r="H43" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+        </is>
+      </c>
       <c r="I43" s="15" t="n"/>
       <c r="J43" s="22" t="n"/>
       <c r="K43" s="23" t="n"/>
-      <c r="L43" s="25" t="n"/>
+      <c r="L43" s="25" t="inlineStr">
+        <is>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+        </is>
+      </c>
       <c r="M43" s="25" t="n"/>
       <c r="N43" s="25" t="n"/>
       <c r="O43" s="25" t="n"/>
@@ -6874,7 +6903,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F43" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F44" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/network_appdelivery_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/network_appdelivery_checklist.ja.xlsx
@@ -1064,7 +1064,7 @@
       </c>
       <c r="B8" s="21" t="inlineStr">
         <is>
-          <t>アプリの配信 - Front Door</t>
+          <t>フロントドア</t>
         </is>
       </c>
       <c r="C8" s="21" t="inlineStr">
@@ -1160,7 +1160,7 @@
       </c>
       <c r="B10" s="21" t="inlineStr">
         <is>
-          <t>アプリケーション配信 - アプリケーション・ゲートウェイ</t>
+          <t>アプリケーション・ゲートウェイ</t>
         </is>
       </c>
       <c r="C10" s="21" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="B11" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信 - Load Balancer</t>
+          <t>ロードバランサー</t>
         </is>
       </c>
       <c r="C11" s="21" t="inlineStr">
@@ -1256,7 +1256,7 @@
       </c>
       <c r="B12" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信 - Load Balancer</t>
+          <t>ロードバランサー</t>
         </is>
       </c>
       <c r="C12" s="21" t="inlineStr">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="B13" s="21" t="inlineStr">
         <is>
-          <t>アプリケーション配信 - アプリケーション・ゲートウェイ</t>
+          <t>アプリケーション・ゲートウェイ</t>
         </is>
       </c>
       <c r="C13" s="21" t="inlineStr">
@@ -1352,7 +1352,7 @@
       </c>
       <c r="B14" s="21" t="inlineStr">
         <is>
-          <t>アプリケーション配信 - アプリケーション・ゲートウェイ</t>
+          <t>アプリケーション・ゲートウェイ</t>
         </is>
       </c>
       <c r="C14" s="21" t="inlineStr">
@@ -1406,7 +1406,7 @@
       </c>
       <c r="B15" s="21" t="inlineStr">
         <is>
-          <t>アプリケーション配信 - アプリケーション・ゲートウェイ</t>
+          <t>アプリケーション・ゲートウェイ</t>
         </is>
       </c>
       <c r="C15" s="21" t="inlineStr">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="B16" s="21" t="inlineStr">
         <is>
-          <t>アプリケーション配信 - アプリケーション・ゲートウェイ</t>
+          <t>アプリケーション・ゲートウェイ</t>
         </is>
       </c>
       <c r="C16" s="21" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="B17" s="21" t="inlineStr">
         <is>
-          <t>アプリケーション配信 - アプリケーション・ゲートウェイ</t>
+          <t>アプリケーション・ゲートウェイ</t>
         </is>
       </c>
       <c r="C17" s="21" t="inlineStr">
@@ -1556,7 +1556,7 @@
       </c>
       <c r="B18" s="21" t="inlineStr">
         <is>
-          <t>アプリの配信 - Front Door</t>
+          <t>フロントドア</t>
         </is>
       </c>
       <c r="C18" s="21" t="inlineStr">
@@ -1656,7 +1656,7 @@
       </c>
       <c r="B20" s="21" t="inlineStr">
         <is>
-          <t>アプリの配信 - Traffic Manager</t>
+          <t>トラフィック マネージャー</t>
         </is>
       </c>
       <c r="C20" s="21" t="inlineStr">
@@ -1806,7 +1806,7 @@
       </c>
       <c r="B23" s="21" t="inlineStr">
         <is>
-          <t>アプリの配信 - Front Door</t>
+          <t>フロントドア</t>
         </is>
       </c>
       <c r="C23" s="21" t="inlineStr">
@@ -1852,7 +1852,7 @@
       </c>
       <c r="B24" s="21" t="inlineStr">
         <is>
-          <t>アプリの配信 - Front Door</t>
+          <t>フロントドア</t>
         </is>
       </c>
       <c r="C24" s="21" t="inlineStr">
@@ -1898,7 +1898,7 @@
       </c>
       <c r="B25" s="21" t="inlineStr">
         <is>
-          <t>アプリの配信 - Front Door</t>
+          <t>フロントドア</t>
         </is>
       </c>
       <c r="C25" s="21" t="inlineStr">
@@ -1944,7 +1944,7 @@
       </c>
       <c r="B26" s="21" t="inlineStr">
         <is>
-          <t>アプリの配信 - Front Door</t>
+          <t>フロントドア</t>
         </is>
       </c>
       <c r="C26" s="21" t="inlineStr">
@@ -1990,7 +1990,7 @@
       </c>
       <c r="B27" s="21" t="inlineStr">
         <is>
-          <t>アプリの配信 - Front Door</t>
+          <t>フロントドア</t>
         </is>
       </c>
       <c r="C27" s="21" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="B28" s="21" t="inlineStr">
         <is>
-          <t>アプリの配信 - Front Door</t>
+          <t>フロントドア</t>
         </is>
       </c>
       <c r="C28" s="21" t="inlineStr">
@@ -2080,7 +2080,7 @@
       </c>
       <c r="B29" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信 - Load Balancer</t>
+          <t>ロードバランサー</t>
         </is>
       </c>
       <c r="C29" s="21" t="inlineStr">
@@ -2125,7 +2125,7 @@
       </c>
       <c r="B30" s="21" t="inlineStr">
         <is>
-          <t>アプリの配信 - Front Door</t>
+          <t>フロントドア</t>
         </is>
       </c>
       <c r="C30" s="21" t="inlineStr">
@@ -2170,7 +2170,7 @@
       </c>
       <c r="B31" s="21" t="inlineStr">
         <is>
-          <t>アプリの配信 - Front Door</t>
+          <t>フロントドア</t>
         </is>
       </c>
       <c r="C31" s="21" t="inlineStr">
@@ -2215,7 +2215,7 @@
       </c>
       <c r="B32" s="21" t="inlineStr">
         <is>
-          <t>アプリの配信 - Front Door</t>
+          <t>フロントドア</t>
         </is>
       </c>
       <c r="C32" s="21" t="inlineStr">
@@ -2261,7 +2261,7 @@
       </c>
       <c r="B33" s="21" t="inlineStr">
         <is>
-          <t>アプリの配信 - Front Door</t>
+          <t>フロントドア</t>
         </is>
       </c>
       <c r="C33" s="21" t="inlineStr">
@@ -2307,7 +2307,7 @@
       </c>
       <c r="B34" s="21" t="inlineStr">
         <is>
-          <t>アプリの配信 - Front Door</t>
+          <t>フロントドア</t>
         </is>
       </c>
       <c r="C34" s="21" t="inlineStr">
@@ -2353,7 +2353,7 @@
       </c>
       <c r="B35" s="21" t="inlineStr">
         <is>
-          <t>アプリの配信 - Front Door</t>
+          <t>フロントドア</t>
         </is>
       </c>
       <c r="C35" s="21" t="inlineStr">
@@ -2399,7 +2399,7 @@
       </c>
       <c r="B36" s="21" t="inlineStr">
         <is>
-          <t>アプリの配信 - Front Door</t>
+          <t>フロントドア</t>
         </is>
       </c>
       <c r="C36" s="21" t="inlineStr">
@@ -2445,7 +2445,7 @@
       </c>
       <c r="B37" s="21" t="inlineStr">
         <is>
-          <t>アプリの配信 - Front Door</t>
+          <t>フロントドア</t>
         </is>
       </c>
       <c r="C37" s="21" t="inlineStr">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="B38" s="21" t="inlineStr">
         <is>
-          <t>アプリの配信 - Front Door</t>
+          <t>フロントドア</t>
         </is>
       </c>
       <c r="C38" s="21" t="inlineStr">
@@ -2537,7 +2537,7 @@
       </c>
       <c r="B39" s="21" t="inlineStr">
         <is>
-          <t>アプリの配信 - Front Door</t>
+          <t>フロントドア</t>
         </is>
       </c>
       <c r="C39" s="21" t="inlineStr">
@@ -2583,7 +2583,7 @@
       </c>
       <c r="B40" s="21" t="inlineStr">
         <is>
-          <t>アプリの配信 - Front Door</t>
+          <t>フロントドア</t>
         </is>
       </c>
       <c r="C40" s="21" t="inlineStr">
@@ -2629,7 +2629,7 @@
       </c>
       <c r="B41" s="21" t="inlineStr">
         <is>
-          <t>アプリの配信 - Front Door</t>
+          <t>フロントドア</t>
         </is>
       </c>
       <c r="C41" s="21" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="B42" s="21" t="inlineStr">
         <is>
-          <t>アプリの配信 - Front Door</t>
+          <t>フロントドア</t>
         </is>
       </c>
       <c r="C42" s="21" t="inlineStr">
@@ -2721,7 +2721,7 @@
       </c>
       <c r="B43" s="21" t="inlineStr">
         <is>
-          <t>アプリの配信 - Front Door</t>
+          <t>フロントドア</t>
         </is>
       </c>
       <c r="C43" s="21" t="inlineStr">

--- a/spreadsheet/macrofree/network_appdelivery_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/network_appdelivery_checklist.ja.xlsx
@@ -1069,7 +1069,7 @@
       </c>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door でカスタマー マネージド TLS 証明書を使用する場合は、"最新" の証明書バージョンを使用します。証明書の手動更新によって引き起こされる停止のリスクを軽減します。</t>
+          <t>Azure Front Door でカスタマー マネージド TLS 証明書を使用する場合は、"最新" の証明書バージョンを使用します。証明書の手動更新によって引き起こされる停止のリスクを軽減</t>
         </is>
       </c>
       <c r="D8" s="21" t="n"/>

--- a/spreadsheet/macrofree/network_appdelivery_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/network_appdelivery_checklist.ja.xlsx
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>Front Door の WAF プロファイルを "防止" モードでデプロイします。</t>
+          <t>Front Door の WAF ポリシーを "防止" モードでデプロイします。</t>
         </is>
       </c>
       <c r="D23" s="21" t="n"/>
@@ -2175,7 +2175,7 @@
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF の構成をコードとして定義します。コードを使用することで、新しいルールセット・バージョンをより簡単に採用し、保護を強化できます。</t>
+          <t>Azure Front Door WAF の構成をコードとして定義します。コードを使用すると、新しいルール セット バージョンをより簡単に採用し、追加の保護を得ることができます。</t>
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
@@ -2404,7 +2404,7 @@
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF で防止モードを使用します。防止モードにより、WAF は悪意のある要求を確実にブロックします。</t>
+          <t>Azure Front Door WAF ポリシーで要求本文検査機能を有効にします。</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
@@ -2421,7 +2421,7 @@
       <c r="G36" s="21" t="n"/>
       <c r="H36" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/application-gateway-waf-request-size-limits#request-body-inspection</t>
         </is>
       </c>
       <c r="I36" s="15" t="n"/>
@@ -2496,7 +2496,7 @@
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF ボット管理ルールを有効にします。ボットルールは、良いボットと悪いボットを検出します。</t>
+          <t>Azure Front Door WAF ボット保護ルール セットを有効にします。ボットルールは、良いボットと悪いボットを検出します。</t>
         </is>
       </c>
       <c r="D38" s="21" t="n"/>
@@ -2542,7 +2542,7 @@
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>最新バージョンの Azure Front Door WAF ルールセットを使用します。ルールセットの更新は、現在の脅威の状況を考慮して定期的に更新されます。</t>
+          <t>最新の Azure Front Door WAF ルール セット バージョンを使用します。ルール セットの更新は、現在の脅威の状況を考慮して定期的に更新されます。</t>
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
@@ -2680,7 +2680,7 @@
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF を使用してトラフィックを geo フィルター処理します。想定されるリージョンからのトラフィックのみを許可し、他のリージョンからのトラフィックをブロックします。</t>
+          <t>すべての地域からのトラフィックが想定されていない場合は、地域フィルタを使用して、想定外の国からのトラフィックをブロックします。</t>
         </is>
       </c>
       <c r="D42" s="21" t="n"/>
@@ -2760,263 +2760,727 @@
       <c r="P43" s="25" t="n"/>
     </row>
     <row r="44" ht="16.5" customHeight="1">
-      <c r="A44" s="21" t="n"/>
-      <c r="B44" s="21" t="n"/>
-      <c r="C44" s="21" t="n"/>
+      <c r="A44" s="21" t="inlineStr">
+        <is>
+          <t>ネットワークトポロジと接続性</t>
+        </is>
+      </c>
+      <c r="B44" s="21" t="inlineStr">
+        <is>
+          <t>アプリケーション・ゲートウェイ</t>
+        </is>
+      </c>
+      <c r="C44" s="21" t="inlineStr">
+        <is>
+          <t>Azure Application Gateway WAF ボット保護ルール セットを有効にする ボット ルールは、良いボットと悪いボットを検出します。</t>
+        </is>
+      </c>
       <c r="D44" s="21" t="n"/>
-      <c r="E44" s="21" t="n"/>
+      <c r="E44" s="21" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G44" s="21" t="n"/>
-      <c r="H44" s="15" t="n"/>
+      <c r="H44" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/bot-protection</t>
+        </is>
+      </c>
       <c r="I44" s="15" t="n"/>
       <c r="J44" s="22" t="n"/>
       <c r="K44" s="22" t="n"/>
-      <c r="L44" s="25" t="n"/>
+      <c r="L44" s="25" t="inlineStr">
+        <is>
+          <t>2f8e81eb-8e68-4026-8b1f-70f9b05f7cf9</t>
+        </is>
+      </c>
       <c r="M44" s="25" t="n"/>
       <c r="N44" s="25" t="n"/>
       <c r="O44" s="25" t="n"/>
       <c r="P44" s="25" t="n"/>
     </row>
     <row r="45" ht="16.5" customHeight="1">
-      <c r="A45" s="21" t="n"/>
-      <c r="B45" s="21" t="n"/>
-      <c r="C45" s="21" t="n"/>
+      <c r="A45" s="21" t="inlineStr">
+        <is>
+          <t>ネットワークトポロジと接続性</t>
+        </is>
+      </c>
+      <c r="B45" s="21" t="inlineStr">
+        <is>
+          <t>アプリケーション・ゲートウェイ</t>
+        </is>
+      </c>
+      <c r="C45" s="21" t="inlineStr">
+        <is>
+          <t>Azure Application Gateway WAF ポリシーで有効になっている要求本文検査機能を有効にします。</t>
+        </is>
+      </c>
       <c r="D45" s="21" t="n"/>
-      <c r="E45" s="21" t="n"/>
+      <c r="E45" s="21" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G45" s="21" t="n"/>
-      <c r="H45" s="15" t="n"/>
+      <c r="H45" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/application-gateway-waf-request-size-limits#request-body-inspection</t>
+        </is>
+      </c>
       <c r="J45" s="22" t="n"/>
       <c r="K45" s="22" t="n"/>
-      <c r="L45" s="25" t="n"/>
+      <c r="L45" s="25" t="inlineStr">
+        <is>
+          <t>8ea8e0d4-84e8-4b33-aeab-493f6391b4d6</t>
+        </is>
+      </c>
       <c r="M45" s="25" t="n"/>
       <c r="N45" s="25" t="n"/>
       <c r="O45" s="25" t="n"/>
       <c r="P45" s="25" t="n"/>
     </row>
     <row r="46" ht="16.5" customHeight="1">
-      <c r="A46" s="21" t="n"/>
-      <c r="B46" s="21" t="n"/>
-      <c r="C46" s="21" t="n"/>
+      <c r="A46" s="21" t="inlineStr">
+        <is>
+          <t>ネットワークトポロジと接続性</t>
+        </is>
+      </c>
+      <c r="B46" s="21" t="inlineStr">
+        <is>
+          <t>アプリケーション・ゲートウェイ</t>
+        </is>
+      </c>
+      <c r="C46" s="21" t="inlineStr">
+        <is>
+          <t>ワークロードに合わせて Azure Application Gateway WAF を調整します。誤検知を減らします。</t>
+        </is>
+      </c>
       <c r="D46" s="21" t="n"/>
-      <c r="E46" s="21" t="n"/>
+      <c r="E46" s="21" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G46" s="21" t="n"/>
-      <c r="H46" s="15" t="n"/>
+      <c r="H46" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/best-practices#tune-your-waf</t>
+        </is>
+      </c>
       <c r="I46" s="15" t="n"/>
       <c r="J46" s="22" t="n"/>
       <c r="K46" s="22" t="n"/>
-      <c r="L46" s="25" t="n"/>
+      <c r="L46" s="25" t="inlineStr">
+        <is>
+          <t>a4dd86d3-5ffa-408c-b660-cce073d085b8</t>
+        </is>
+      </c>
       <c r="M46" s="25" t="n"/>
       <c r="N46" s="25" t="n"/>
       <c r="O46" s="25" t="n"/>
       <c r="P46" s="25" t="n"/>
     </row>
     <row r="47" ht="16.5" customHeight="1">
-      <c r="A47" s="21" t="n"/>
-      <c r="B47" s="21" t="n"/>
-      <c r="C47" s="21" t="n"/>
+      <c r="A47" s="21" t="inlineStr">
+        <is>
+          <t>ネットワークトポロジと接続性</t>
+        </is>
+      </c>
+      <c r="B47" s="21" t="inlineStr">
+        <is>
+          <t>アプリケーション・ゲートウェイ</t>
+        </is>
+      </c>
+      <c r="C47" s="21" t="inlineStr">
+        <is>
+          <t>Application Gateway の WAF ポリシーを "防止" モードでデプロイします。</t>
+        </is>
+      </c>
       <c r="D47" s="21" t="n"/>
-      <c r="E47" s="21" t="n"/>
+      <c r="E47" s="21" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G47" s="21" t="n"/>
-      <c r="H47" s="15" t="n"/>
+      <c r="H47" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-policy-settings</t>
+        </is>
+      </c>
       <c r="I47" s="15" t="n"/>
       <c r="J47" s="22" t="n"/>
       <c r="K47" s="22" t="n"/>
-      <c r="L47" s="25" t="n"/>
+      <c r="L47" s="25" t="inlineStr">
+        <is>
+          <t>baf8e317-2397-4d49-b3d1-0dcc16d8778d</t>
+        </is>
+      </c>
       <c r="M47" s="25" t="n"/>
       <c r="N47" s="25" t="n"/>
       <c r="O47" s="25" t="n"/>
       <c r="P47" s="25" t="n"/>
     </row>
     <row r="48" ht="16.5" customHeight="1">
-      <c r="A48" s="21" t="n"/>
-      <c r="B48" s="21" t="n"/>
-      <c r="C48" s="21" t="n"/>
+      <c r="A48" s="21" t="inlineStr">
+        <is>
+          <t>ネットワークトポロジと接続性</t>
+        </is>
+      </c>
+      <c r="B48" s="21" t="inlineStr">
+        <is>
+          <t>アプリケーション・ゲートウェイ</t>
+        </is>
+      </c>
+      <c r="C48" s="21" t="inlineStr">
+        <is>
+          <t>Azure Application Gateway WAF にレート制限を追加します。レート制限は、クライアントが短期間に大量のトラフィックを誤ってまたは意図的に送信することをブロックします。</t>
+        </is>
+      </c>
       <c r="D48" s="21" t="n"/>
-      <c r="E48" s="21" t="n"/>
+      <c r="E48" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G48" s="21" t="n"/>
-      <c r="H48" s="15" t="n"/>
+      <c r="H48" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/rate-limiting-overview</t>
+        </is>
+      </c>
       <c r="J48" s="22" t="n"/>
       <c r="K48" s="22" t="n"/>
-      <c r="L48" s="25" t="n"/>
+      <c r="L48" s="25" t="inlineStr">
+        <is>
+          <t>43fae595-8a32-4299-a69e-0f32c454dcc9</t>
+        </is>
+      </c>
       <c r="M48" s="25" t="n"/>
       <c r="N48" s="25" t="n"/>
       <c r="O48" s="25" t="n"/>
       <c r="P48" s="25" t="n"/>
     </row>
     <row r="49" ht="16.5" customHeight="1">
-      <c r="A49" s="21" t="n"/>
-      <c r="B49" s="21" t="n"/>
-      <c r="C49" s="21" t="n"/>
+      <c r="A49" s="21" t="inlineStr">
+        <is>
+          <t>ネットワークトポロジと接続性</t>
+        </is>
+      </c>
+      <c r="B49" s="21" t="inlineStr">
+        <is>
+          <t>アプリケーション・ゲートウェイ</t>
+        </is>
+      </c>
+      <c r="C49" s="21" t="inlineStr">
+        <is>
+          <t>Azure Application Gateway の WAF レート制限には高いしきい値を使用します。高いレート制限しきい値は、正当なトラフィックのブロックを回避しながら、インフラストラクチャを圧倒する可能性のある非常に多数の要求に対する保護を提供します。</t>
+        </is>
+      </c>
       <c r="D49" s="21" t="n"/>
-      <c r="E49" s="21" t="n"/>
+      <c r="E49" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G49" s="21" t="n"/>
-      <c r="H49" s="15" t="n"/>
+      <c r="H49" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/rate-limiting-overview#rate-limiting-details</t>
+        </is>
+      </c>
       <c r="J49" s="22" t="n"/>
       <c r="K49" s="22" t="n"/>
-      <c r="L49" s="25" t="n"/>
+      <c r="L49" s="25" t="inlineStr">
+        <is>
+          <t>041e0ad8-7b12-4694-a0b7-a0e25ee2470f</t>
+        </is>
+      </c>
       <c r="M49" s="25" t="n"/>
       <c r="N49" s="25" t="n"/>
       <c r="O49" s="25" t="n"/>
       <c r="P49" s="25" t="n"/>
     </row>
     <row r="50" ht="16.5" customHeight="1">
-      <c r="A50" s="21" t="n"/>
-      <c r="B50" s="21" t="n"/>
-      <c r="C50" s="21" t="n"/>
+      <c r="A50" s="21" t="inlineStr">
+        <is>
+          <t>ネットワークトポロジと接続性</t>
+        </is>
+      </c>
+      <c r="B50" s="21" t="inlineStr">
+        <is>
+          <t>アプリケーション・ゲートウェイ</t>
+        </is>
+      </c>
+      <c r="C50" s="21" t="inlineStr">
+        <is>
+          <t>すべての地域からのトラフィックが想定されていない場合は、地域フィルタを使用して、想定外の国からのトラフィックをブロックします。</t>
+        </is>
+      </c>
       <c r="D50" s="21" t="n"/>
-      <c r="E50" s="21" t="n"/>
+      <c r="E50" s="21" t="inlineStr">
+        <is>
+          <t>低い</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G50" s="21" t="n"/>
-      <c r="H50" s="15" t="n"/>
+      <c r="H50" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/best-practices#geo-filtering-best-practices</t>
+        </is>
+      </c>
       <c r="I50" s="15" t="n"/>
       <c r="J50" s="22" t="n"/>
       <c r="K50" s="22" t="n"/>
-      <c r="L50" s="25" t="n"/>
+      <c r="L50" s="25" t="inlineStr">
+        <is>
+          <t>99937189-ff78-492a-b9ca-18d828d82b37</t>
+        </is>
+      </c>
       <c r="M50" s="25" t="n"/>
       <c r="N50" s="25" t="n"/>
       <c r="O50" s="25" t="n"/>
       <c r="P50" s="25" t="n"/>
     </row>
     <row r="51" ht="16.5" customHeight="1">
-      <c r="A51" s="21" t="n"/>
-      <c r="B51" s="21" t="n"/>
-      <c r="C51" s="21" t="n"/>
+      <c r="A51" s="21" t="inlineStr">
+        <is>
+          <t>ネットワークトポロジと接続性</t>
+        </is>
+      </c>
+      <c r="B51" s="21" t="inlineStr">
+        <is>
+          <t>アプリケーション・ゲートウェイ</t>
+        </is>
+      </c>
+      <c r="C51" s="21" t="inlineStr">
+        <is>
+          <t>Azure Application Gateway WAF でトラフィックを geo フィルタリングするときに、不明 (ZZ) の場所を指定します。IP アドレスを地理的に一致させることができない場合に、正当な要求を誤ってブロックしないようにします。</t>
+        </is>
+      </c>
       <c r="D51" s="21" t="n"/>
-      <c r="E51" s="21" t="n"/>
+      <c r="E51" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G51" s="21" t="n"/>
-      <c r="H51" s="15" t="n"/>
+      <c r="H51" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/geomatch-custom-rules</t>
+        </is>
+      </c>
       <c r="I51" s="15" t="n"/>
       <c r="J51" s="22" t="n"/>
       <c r="K51" s="22" t="n"/>
-      <c r="L51" s="25" t="n"/>
+      <c r="L51" s="25" t="inlineStr">
+        <is>
+          <t>349a15c1-52f4-4319-9078-3895d95ecafd</t>
+        </is>
+      </c>
       <c r="M51" s="25" t="n"/>
       <c r="N51" s="25" t="n"/>
       <c r="O51" s="25" t="n"/>
       <c r="P51" s="25" t="n"/>
     </row>
     <row r="52" ht="16.5" customHeight="1">
-      <c r="A52" s="21" t="n"/>
-      <c r="B52" s="21" t="n"/>
-      <c r="C52" s="21" t="n"/>
+      <c r="A52" s="21" t="inlineStr">
+        <is>
+          <t>ネットワークトポロジと接続性</t>
+        </is>
+      </c>
+      <c r="B52" s="21" t="inlineStr">
+        <is>
+          <t>アプリケーション・ゲートウェイ</t>
+        </is>
+      </c>
+      <c r="C52" s="21" t="inlineStr">
+        <is>
+          <t>最新バージョンの Azure Application Gateway WAF ルール セットを使用します。ルール セットの更新は、現在の脅威の状況を考慮して定期的に更新されます。</t>
+        </is>
+      </c>
       <c r="D52" s="21" t="n"/>
-      <c r="E52" s="21" t="n"/>
+      <c r="E52" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G52" s="21" t="n"/>
-      <c r="H52" s="15" t="n"/>
+      <c r="H52" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/best-practices#use-the-latest-ruleset-versions</t>
+        </is>
+      </c>
       <c r="I52" s="15" t="n"/>
       <c r="J52" s="22" t="n"/>
       <c r="K52" s="22" t="n"/>
-      <c r="L52" s="25" t="n"/>
+      <c r="L52" s="25" t="inlineStr">
+        <is>
+          <t>6c19dfd5-a61c-436c-9001-491b9b3d0228</t>
+        </is>
+      </c>
       <c r="M52" s="25" t="n"/>
       <c r="N52" s="25" t="n"/>
       <c r="O52" s="25" t="n"/>
       <c r="P52" s="25" t="n"/>
     </row>
     <row r="53" ht="16.5" customHeight="1">
-      <c r="A53" s="21" t="n"/>
-      <c r="B53" s="21" t="n"/>
-      <c r="C53" s="21" t="n"/>
+      <c r="A53" s="21" t="inlineStr">
+        <is>
+          <t>ネットワークトポロジと接続性</t>
+        </is>
+      </c>
+      <c r="B53" s="21" t="inlineStr">
+        <is>
+          <t>アプリケーション・ゲートウェイ</t>
+        </is>
+      </c>
+      <c r="C53" s="21" t="inlineStr">
+        <is>
+          <t>診断設定を追加して、Azure Application Gateway の WAF ログを保存します。</t>
+        </is>
+      </c>
       <c r="D53" s="21" t="n"/>
-      <c r="E53" s="21" t="n"/>
+      <c r="E53" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G53" s="21" t="n"/>
-      <c r="H53" s="15" t="n"/>
+      <c r="H53" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+        </is>
+      </c>
       <c r="J53" s="22" t="n"/>
       <c r="K53" s="22" t="n"/>
-      <c r="L53" s="25" t="n"/>
+      <c r="L53" s="25" t="inlineStr">
+        <is>
+          <t>f84106a2-2e9e-42ac-add6-d3416ecfed53</t>
+        </is>
+      </c>
       <c r="M53" s="25" t="n"/>
       <c r="N53" s="25" t="n"/>
       <c r="O53" s="25" t="n"/>
       <c r="P53" s="25" t="n"/>
     </row>
     <row r="54" ht="16.5" customHeight="1">
-      <c r="A54" s="21" t="n"/>
-      <c r="B54" s="21" t="n"/>
-      <c r="C54" s="21" t="n"/>
+      <c r="A54" s="21" t="inlineStr">
+        <is>
+          <t>ネットワークトポロジと接続性</t>
+        </is>
+      </c>
+      <c r="B54" s="21" t="inlineStr">
+        <is>
+          <t>フロントドア</t>
+        </is>
+      </c>
+      <c r="C54" s="21" t="inlineStr">
+        <is>
+          <t>診断設定を追加して、Azure Front Door WAF ログを保存します。</t>
+        </is>
+      </c>
       <c r="D54" s="21" t="n"/>
-      <c r="E54" s="21" t="n"/>
+      <c r="E54" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G54" s="21" t="n"/>
-      <c r="H54" s="15" t="n"/>
+      <c r="H54" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+        </is>
+      </c>
       <c r="I54" s="15" t="n"/>
       <c r="J54" s="22" t="n"/>
       <c r="K54" s="22" t="n"/>
-      <c r="L54" s="25" t="n"/>
+      <c r="L54" s="25" t="inlineStr">
+        <is>
+          <t>4cea4050-7946-4a7c-89e6-b021b73c352d</t>
+        </is>
+      </c>
       <c r="M54" s="25" t="n"/>
       <c r="N54" s="25" t="n"/>
       <c r="O54" s="25" t="n"/>
       <c r="P54" s="25" t="n"/>
     </row>
     <row r="55" ht="16.5" customHeight="1">
-      <c r="A55" s="21" t="n"/>
-      <c r="B55" s="21" t="n"/>
-      <c r="C55" s="21" t="n"/>
+      <c r="A55" s="21" t="inlineStr">
+        <is>
+          <t>ネットワークトポロジと接続性</t>
+        </is>
+      </c>
+      <c r="B55" s="21" t="inlineStr">
+        <is>
+          <t>アプリケーション・ゲートウェイ</t>
+        </is>
+      </c>
+      <c r="C55" s="21" t="inlineStr">
+        <is>
+          <t>Azure Application Gateway WAF ログを Microsoft Sentinel に送信します。</t>
+        </is>
+      </c>
       <c r="D55" s="21" t="n"/>
-      <c r="E55" s="21" t="n"/>
+      <c r="E55" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G55" s="21" t="n"/>
-      <c r="H55" s="15" t="n"/>
+      <c r="H55" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/best-practices#send-logs-to-microsoft-sentinel</t>
+        </is>
+      </c>
       <c r="J55" s="22" t="n"/>
       <c r="K55" s="22" t="n"/>
-      <c r="L55" s="25" t="n"/>
+      <c r="L55" s="25" t="inlineStr">
+        <is>
+          <t>92664c60-47e3-4591-8b1b-8d557656e686</t>
+        </is>
+      </c>
       <c r="M55" s="25" t="n"/>
       <c r="N55" s="25" t="n"/>
       <c r="O55" s="25" t="n"/>
       <c r="P55" s="25" t="n"/>
     </row>
     <row r="56" ht="16.5" customHeight="1">
-      <c r="A56" s="21" t="n"/>
-      <c r="B56" s="21" t="n"/>
-      <c r="C56" s="21" t="n"/>
+      <c r="A56" s="21" t="inlineStr">
+        <is>
+          <t>ネットワークトポロジと接続性</t>
+        </is>
+      </c>
+      <c r="B56" s="21" t="inlineStr">
+        <is>
+          <t>フロントドア</t>
+        </is>
+      </c>
+      <c r="C56" s="21" t="inlineStr">
+        <is>
+          <t>Azure Front Door WAF ログを Microsoft Sentinel に送信します。</t>
+        </is>
+      </c>
       <c r="D56" s="21" t="n"/>
-      <c r="E56" s="21" t="n"/>
+      <c r="E56" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G56" s="21" t="n"/>
-      <c r="H56" s="15" t="n"/>
+      <c r="H56" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+        </is>
+      </c>
       <c r="J56" s="22" t="n"/>
       <c r="K56" s="22" t="n"/>
-      <c r="L56" s="25" t="n"/>
+      <c r="L56" s="25" t="inlineStr">
+        <is>
+          <t>845f5f91-9c21-4674-a725-5ce890850e20</t>
+        </is>
+      </c>
       <c r="M56" s="25" t="n"/>
       <c r="N56" s="25" t="n"/>
       <c r="O56" s="25" t="n"/>
       <c r="P56" s="25" t="n"/>
     </row>
     <row r="57" ht="16.5" customHeight="1">
-      <c r="A57" s="21" t="n"/>
-      <c r="B57" s="21" t="n"/>
-      <c r="C57" s="21" t="n"/>
+      <c r="A57" s="21" t="inlineStr">
+        <is>
+          <t>ネットワークトポロジと接続性</t>
+        </is>
+      </c>
+      <c r="B57" s="21" t="inlineStr">
+        <is>
+          <t>アプリケーション・ゲートウェイ</t>
+        </is>
+      </c>
+      <c r="C57" s="21" t="inlineStr">
+        <is>
+          <t>Azure Application Gateway の WAF 構成をコードとして定義します。コードを使用すると、新しいルール セット バージョンをより簡単に採用し、追加の保護を得ることができます。</t>
+        </is>
+      </c>
       <c r="D57" s="21" t="n"/>
-      <c r="E57" s="21" t="n"/>
+      <c r="E57" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G57" s="21" t="n"/>
-      <c r="H57" s="15" t="n"/>
+      <c r="H57" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/best-practices#define-your-waf-configuration-as-code</t>
+        </is>
+      </c>
       <c r="J57" s="22" t="n"/>
       <c r="K57" s="22" t="n"/>
-      <c r="L57" s="25" t="n"/>
+      <c r="L57" s="25" t="inlineStr">
+        <is>
+          <t>ba0e9b26-6e0d-4ec8-8541-023c00afd5b7</t>
+        </is>
+      </c>
       <c r="M57" s="25" t="n"/>
       <c r="N57" s="25" t="n"/>
       <c r="O57" s="25" t="n"/>
       <c r="P57" s="25" t="n"/>
     </row>
     <row r="58" ht="16.5" customHeight="1">
-      <c r="A58" s="21" t="n"/>
-      <c r="B58" s="21" t="n"/>
-      <c r="C58" s="21" t="n"/>
+      <c r="A58" s="21" t="inlineStr">
+        <is>
+          <t>ネットワークトポロジと接続性</t>
+        </is>
+      </c>
+      <c r="B58" s="21" t="inlineStr">
+        <is>
+          <t>アプリケーション・ゲートウェイ</t>
+        </is>
+      </c>
+      <c r="C58" s="21" t="inlineStr">
+        <is>
+          <t>従来のWAF構成のかわりにWAFポリシーを使用します。</t>
+        </is>
+      </c>
       <c r="D58" s="21" t="n"/>
-      <c r="E58" s="21" t="n"/>
+      <c r="E58" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G58" s="21" t="n"/>
-      <c r="H58" s="15" t="n"/>
+      <c r="H58" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/policy-overview</t>
+        </is>
+      </c>
       <c r="J58" s="22" t="n"/>
       <c r="K58" s="22" t="n"/>
-      <c r="L58" s="25" t="n"/>
+      <c r="L58" s="25" t="inlineStr">
+        <is>
+          <t>f17ec301-8470-4afd-aabc-c1fdfe47dcc0</t>
+        </is>
+      </c>
       <c r="M58" s="25" t="n"/>
       <c r="N58" s="25" t="n"/>
       <c r="O58" s="25" t="n"/>
       <c r="P58" s="25" t="n"/>
     </row>
     <row r="59" ht="16.5" customHeight="1">
-      <c r="A59" s="21" t="n"/>
-      <c r="B59" s="21" t="n"/>
-      <c r="C59" s="21" t="n"/>
+      <c r="A59" s="21" t="inlineStr">
+        <is>
+          <t>ネットワークトポロジと接続性</t>
+        </is>
+      </c>
+      <c r="B59" s="21" t="inlineStr">
+        <is>
+          <t>アプリケーション・ゲートウェイ</t>
+        </is>
+      </c>
+      <c r="C59" s="21" t="inlineStr">
+        <is>
+          <t>バックエンドの受信トラフィックをフィルター処理して、Application Gateway サブネットからの接続 (NSG など) のみを受け入れるようにします。</t>
+        </is>
+      </c>
       <c r="D59" s="21" t="n"/>
-      <c r="E59" s="21" t="n"/>
+      <c r="E59" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G59" s="21" t="n"/>
-      <c r="H59" s="15" t="n"/>
+      <c r="H59" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-secured-hub-app-gateway</t>
+        </is>
+      </c>
       <c r="J59" s="22" t="n"/>
       <c r="K59" s="22" t="n"/>
-      <c r="L59" s="25" t="n"/>
+      <c r="L59" s="25" t="inlineStr">
+        <is>
+          <t>d4eb8667-f8cb-4cdd-94e6-2f967ba98f88</t>
+        </is>
+      </c>
       <c r="M59" s="25" t="n"/>
       <c r="N59" s="25" t="n"/>
       <c r="O59" s="25" t="n"/>
@@ -6903,7 +7367,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F44" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F60" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/network_appdelivery_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/network_appdelivery_checklist.ja.xlsx
@@ -3487,16 +3487,45 @@
       <c r="P59" s="25" t="n"/>
     </row>
     <row r="60" ht="16.5" customHeight="1">
-      <c r="A60" s="21" t="n"/>
-      <c r="B60" s="21" t="n"/>
-      <c r="C60" s="21" t="n"/>
+      <c r="A60" s="21" t="inlineStr">
+        <is>
+          <t>ネットワークトポロジと接続性</t>
+        </is>
+      </c>
+      <c r="B60" s="21" t="inlineStr">
+        <is>
+          <t>フロントドア</t>
+        </is>
+      </c>
+      <c r="C60" s="21" t="inlineStr">
+        <is>
+          <t>配信元が Azure Front Door インスタンスからのトラフィックのみを受け取るようにします。</t>
+        </is>
+      </c>
       <c r="D60" s="21" t="n"/>
-      <c r="E60" s="21" t="n"/>
+      <c r="E60" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G60" s="21" t="n"/>
-      <c r="H60" s="15" t="n"/>
+      <c r="H60" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/en-us/azure/frontdoor/origin-security?tabs=app-service-functions</t>
+        </is>
+      </c>
       <c r="J60" s="22" t="n"/>
       <c r="K60" s="22" t="n"/>
-      <c r="L60" s="25" t="n"/>
+      <c r="L60" s="25" t="inlineStr">
+        <is>
+          <t>7d3df025-59a3-447d-ac25-3f5750d35de1</t>
+        </is>
+      </c>
       <c r="M60" s="25" t="n"/>
       <c r="N60" s="25" t="n"/>
       <c r="O60" s="25" t="n"/>
@@ -7367,7 +7396,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F60" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F61" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/network_appdelivery_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/network_appdelivery_checklist.ja.xlsx
@@ -3487,65 +3487,181 @@
       <c r="P59" s="25" t="n"/>
     </row>
     <row r="60" ht="16.5" customHeight="1">
-      <c r="A60" s="21" t="n"/>
-      <c r="B60" s="21" t="n"/>
-      <c r="C60" s="21" t="n"/>
+      <c r="A60" s="21" t="inlineStr">
+        <is>
+          <t>ネットワークトポロジと接続性</t>
+        </is>
+      </c>
+      <c r="B60" s="21" t="inlineStr">
+        <is>
+          <t>フロントドア</t>
+        </is>
+      </c>
+      <c r="C60" s="21" t="inlineStr">
+        <is>
+          <t>配信元が Azure Front Door インスタンスからのトラフィックのみを受け取るようにします。</t>
+        </is>
+      </c>
       <c r="D60" s="21" t="n"/>
-      <c r="E60" s="21" t="n"/>
+      <c r="E60" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G60" s="21" t="n"/>
-      <c r="H60" s="15" t="n"/>
+      <c r="H60" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/origin-security?tabs=app-service-functions</t>
+        </is>
+      </c>
       <c r="J60" s="22" t="n"/>
       <c r="K60" s="22" t="n"/>
-      <c r="L60" s="25" t="n"/>
+      <c r="L60" s="25" t="inlineStr">
+        <is>
+          <t>7d3df025-59a3-447d-ac25-3f5750d35de1</t>
+        </is>
+      </c>
       <c r="M60" s="25" t="n"/>
       <c r="N60" s="25" t="n"/>
       <c r="O60" s="25" t="n"/>
       <c r="P60" s="25" t="n"/>
     </row>
     <row r="61" ht="16.5" customHeight="1">
-      <c r="A61" s="21" t="n"/>
-      <c r="B61" s="21" t="n"/>
-      <c r="C61" s="21" t="n"/>
+      <c r="A61" s="21" t="inlineStr">
+        <is>
+          <t>ネットワークトポロジと接続性</t>
+        </is>
+      </c>
+      <c r="B61" s="21" t="inlineStr">
+        <is>
+          <t>アプリケーション・ゲートウェイ</t>
+        </is>
+      </c>
+      <c r="C61" s="21" t="inlineStr">
+        <is>
+          <t>バックエンド・サーバーへのトラフィックを暗号化する必要があります。</t>
+        </is>
+      </c>
       <c r="D61" s="21" t="n"/>
-      <c r="E61" s="21" t="n"/>
+      <c r="E61" s="21" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G61" s="21" t="n"/>
-      <c r="H61" s="15" t="n"/>
+      <c r="H61" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/application-gateway/ssl-overview</t>
+        </is>
+      </c>
       <c r="J61" s="22" t="n"/>
       <c r="K61" s="22" t="n"/>
-      <c r="L61" s="25" t="n"/>
+      <c r="L61" s="25" t="inlineStr">
+        <is>
+          <t>a66f0fd8-2ca4-422e-8df3-235148127ca2</t>
+        </is>
+      </c>
       <c r="M61" s="25" t="n"/>
       <c r="N61" s="25" t="n"/>
       <c r="O61" s="25" t="n"/>
       <c r="P61" s="25" t="n"/>
     </row>
     <row r="62" ht="16.5" customHeight="1">
-      <c r="A62" s="21" t="n"/>
-      <c r="B62" s="21" t="n"/>
-      <c r="C62" s="21" t="n"/>
+      <c r="A62" s="21" t="inlineStr">
+        <is>
+          <t>ネットワークトポロジと接続性</t>
+        </is>
+      </c>
+      <c r="B62" s="21" t="inlineStr">
+        <is>
+          <t>アプリケーション・ゲートウェイ</t>
+        </is>
+      </c>
+      <c r="C62" s="21" t="inlineStr">
+        <is>
+          <t>Web アプリケーション ファイアウォールを使用する必要があります。</t>
+        </is>
+      </c>
       <c r="D62" s="21" t="n"/>
-      <c r="E62" s="21" t="n"/>
+      <c r="E62" s="21" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G62" s="21" t="n"/>
-      <c r="H62" s="15" t="n"/>
+      <c r="H62" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/overview</t>
+        </is>
+      </c>
       <c r="J62" s="22" t="n"/>
       <c r="K62" s="22" t="n"/>
-      <c r="L62" s="25" t="n"/>
+      <c r="L62" s="25" t="inlineStr">
+        <is>
+          <t>3dba65cb-834d-44d8-a3ca-a6aa2f1587be</t>
+        </is>
+      </c>
       <c r="M62" s="25" t="n"/>
       <c r="N62" s="25" t="n"/>
       <c r="O62" s="25" t="n"/>
       <c r="P62" s="25" t="n"/>
     </row>
     <row r="63" ht="16.5" customHeight="1">
-      <c r="A63" s="21" t="n"/>
-      <c r="B63" s="21" t="n"/>
-      <c r="C63" s="21" t="n"/>
+      <c r="A63" s="21" t="inlineStr">
+        <is>
+          <t>ネットワークトポロジと接続性</t>
+        </is>
+      </c>
+      <c r="B63" s="21" t="inlineStr">
+        <is>
+          <t>アプリケーション・ゲートウェイ</t>
+        </is>
+      </c>
+      <c r="C63" s="21" t="inlineStr">
+        <is>
+          <t>HTTPをHTTPSにリダイレクトする</t>
+        </is>
+      </c>
       <c r="D63" s="21" t="n"/>
-      <c r="E63" s="21" t="n"/>
+      <c r="E63" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G63" s="21" t="n"/>
-      <c r="H63" s="15" t="n"/>
+      <c r="H63" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/application-gateway/redirect-overview</t>
+        </is>
+      </c>
       <c r="I63" s="15" t="n"/>
       <c r="J63" s="22" t="n"/>
       <c r="K63" s="22" t="n"/>
-      <c r="L63" s="25" t="n"/>
+      <c r="L63" s="25" t="inlineStr">
+        <is>
+          <t>0158fcb6-0bc1-4687-832f-cc7c359c22d2</t>
+        </is>
+      </c>
       <c r="M63" s="25" t="n"/>
       <c r="N63" s="25" t="n"/>
       <c r="O63" s="25" t="n"/>
@@ -7367,7 +7483,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F60" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F64" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/network_appdelivery_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/network_appdelivery_checklist.ja.xlsx
@@ -3668,152 +3668,413 @@
       <c r="P63" s="25" t="n"/>
     </row>
     <row r="64" ht="16.5" customHeight="1">
-      <c r="A64" s="21" t="n"/>
-      <c r="B64" s="21" t="n"/>
-      <c r="C64" s="21" t="n"/>
+      <c r="A64" s="21" t="inlineStr">
+        <is>
+          <t>ネットワークトポロジと接続性</t>
+        </is>
+      </c>
+      <c r="B64" s="21" t="inlineStr">
+        <is>
+          <t>アプリケーション・ゲートウェイ</t>
+        </is>
+      </c>
+      <c r="C64" s="21" t="inlineStr">
+        <is>
+          <t>ゲートウェイ管理の Cookie を使用して、ユーザー セッションから同じサーバーにトラフィックを送信して処理する</t>
+        </is>
+      </c>
       <c r="D64" s="21" t="n"/>
-      <c r="E64" s="21" t="n"/>
+      <c r="E64" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G64" s="21" t="n"/>
-      <c r="H64" s="15" t="n"/>
+      <c r="H64" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/application-gateway/how-application-gateway-works#modifications-to-the-request</t>
+        </is>
+      </c>
       <c r="I64" s="15" t="n"/>
       <c r="J64" s="22" t="n"/>
       <c r="K64" s="22" t="n"/>
-      <c r="L64" s="25" t="n"/>
+      <c r="L64" s="25" t="inlineStr">
+        <is>
+          <t>bb697864-1b4c-43af-8667-90cc69aaed5f</t>
+        </is>
+      </c>
       <c r="M64" s="25" t="n"/>
       <c r="N64" s="25" t="n"/>
       <c r="O64" s="25" t="n"/>
       <c r="P64" s="25" t="n"/>
     </row>
     <row r="65" ht="16.5" customHeight="1">
-      <c r="A65" s="21" t="n"/>
-      <c r="B65" s="21" t="n"/>
-      <c r="C65" s="21" t="n"/>
+      <c r="A65" s="21" t="inlineStr">
+        <is>
+          <t>ネットワークトポロジと接続性</t>
+        </is>
+      </c>
+      <c r="B65" s="21" t="inlineStr">
+        <is>
+          <t>アプリケーション・ゲートウェイ</t>
+        </is>
+      </c>
+      <c r="C65" s="21" t="inlineStr">
+        <is>
+          <t>計画されたサービス更新中に接続ドレインを有効にして、バックエンド プールの既存のメンバーへの接続が失われないようにします</t>
+        </is>
+      </c>
       <c r="D65" s="21" t="n"/>
-      <c r="E65" s="21" t="n"/>
+      <c r="E65" s="21" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G65" s="21" t="n"/>
-      <c r="H65" s="15" t="n"/>
+      <c r="H65" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/application-gateway/configuration-http-settings</t>
+        </is>
+      </c>
       <c r="I65" s="15" t="n"/>
       <c r="J65" s="22" t="n"/>
       <c r="K65" s="22" t="n"/>
-      <c r="L65" s="25" t="n"/>
+      <c r="L65" s="25" t="inlineStr">
+        <is>
+          <t>ff353ad8-15fb-4ae8-9fc5-a85a36d36a35</t>
+        </is>
+      </c>
       <c r="M65" s="25" t="n"/>
       <c r="N65" s="25" t="n"/>
       <c r="O65" s="25" t="n"/>
       <c r="P65" s="25" t="n"/>
     </row>
     <row r="66" ht="16.5" customHeight="1">
-      <c r="A66" s="21" t="n"/>
-      <c r="B66" s="21" t="n"/>
-      <c r="C66" s="21" t="n"/>
+      <c r="A66" s="21" t="inlineStr">
+        <is>
+          <t>ネットワークトポロジと接続性</t>
+        </is>
+      </c>
+      <c r="B66" s="21" t="inlineStr">
+        <is>
+          <t>アプリケーション・ゲートウェイ</t>
+        </is>
+      </c>
+      <c r="C66" s="21" t="inlineStr">
+        <is>
+          <t>カスタムエラーページを作成して、パーソナライズされたユーザーエクスペリエンスを表示する</t>
+        </is>
+      </c>
       <c r="D66" s="21" t="n"/>
-      <c r="E66" s="21" t="n"/>
+      <c r="E66" s="21" t="inlineStr">
+        <is>
+          <t>低い</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G66" s="21" t="n"/>
-      <c r="H66" s="15" t="n"/>
+      <c r="H66" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/application-gateway/custom-error</t>
+        </is>
+      </c>
       <c r="J66" s="22" t="n"/>
       <c r="K66" s="22" t="n"/>
-      <c r="L66" s="25" t="n"/>
+      <c r="L66" s="25" t="inlineStr">
+        <is>
+          <t>c8741f03-45a4-4183-a6b8-139e0773b8b5</t>
+        </is>
+      </c>
       <c r="M66" s="25" t="n"/>
       <c r="N66" s="25" t="n"/>
       <c r="O66" s="25" t="n"/>
       <c r="P66" s="25" t="n"/>
     </row>
     <row r="67" ht="16.5" customHeight="1">
-      <c r="A67" s="21" t="n"/>
-      <c r="B67" s="21" t="n"/>
-      <c r="C67" s="21" t="n"/>
+      <c r="A67" s="21" t="inlineStr">
+        <is>
+          <t>ネットワークトポロジと接続性</t>
+        </is>
+      </c>
+      <c r="B67" s="21" t="inlineStr">
+        <is>
+          <t>アプリケーション・ゲートウェイ</t>
+        </is>
+      </c>
+      <c r="C67" s="21" t="inlineStr">
+        <is>
+          <t>HTTPリクエストとレスポンスヘッダーを編集して、クライアントとサーバー間のルーティングと情報交換を容易にします</t>
+        </is>
+      </c>
       <c r="D67" s="21" t="n"/>
-      <c r="E67" s="21" t="n"/>
+      <c r="E67" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G67" s="21" t="n"/>
-      <c r="H67" s="15" t="n"/>
+      <c r="H67" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/application-gateway/rewrite-http-headers-url</t>
+        </is>
+      </c>
       <c r="I67" s="15" t="n"/>
       <c r="J67" s="22" t="n"/>
       <c r="K67" s="22" t="n"/>
-      <c r="L67" s="25" t="n"/>
+      <c r="L67" s="25" t="inlineStr">
+        <is>
+          <t>f850d46f-f5d7-4b17-b48c-a780741402e1</t>
+        </is>
+      </c>
       <c r="M67" s="25" t="n"/>
       <c r="N67" s="25" t="n"/>
       <c r="O67" s="25" t="n"/>
       <c r="P67" s="25" t="n"/>
     </row>
     <row r="68" ht="16.5" customHeight="1">
-      <c r="A68" s="21" t="n"/>
-      <c r="B68" s="21" t="n"/>
-      <c r="C68" s="21" t="n"/>
+      <c r="A68" s="21" t="inlineStr">
+        <is>
+          <t>ネットワークトポロジと接続性</t>
+        </is>
+      </c>
+      <c r="B68" s="21" t="inlineStr">
+        <is>
+          <t>アプリケーション・ゲートウェイ</t>
+        </is>
+      </c>
+      <c r="C68" s="21" t="inlineStr">
+        <is>
+          <t>Front Door を構成して、グローバルな Web トラフィック ルーティングとトップレベルのエンド ユーザーのパフォーマンスを最適化し、迅速なグローバル フェールオーバーを通じて信頼性を確保します</t>
+        </is>
+      </c>
       <c r="D68" s="21" t="n"/>
-      <c r="E68" s="21" t="n"/>
+      <c r="E68" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G68" s="21" t="n"/>
-      <c r="H68" s="15" t="n"/>
+      <c r="H68" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/front-door-overview</t>
+        </is>
+      </c>
       <c r="I68" s="15" t="n"/>
       <c r="J68" s="22" t="n"/>
       <c r="K68" s="22" t="n"/>
-      <c r="L68" s="25" t="n"/>
+      <c r="L68" s="25" t="inlineStr">
+        <is>
+          <t>eadc3164-4a0f-461c-85f1-1a372c04dfd1</t>
+        </is>
+      </c>
       <c r="M68" s="25" t="n"/>
       <c r="N68" s="25" t="n"/>
       <c r="O68" s="25" t="n"/>
       <c r="P68" s="25" t="n"/>
     </row>
     <row r="69" ht="16.5" customHeight="1">
-      <c r="A69" s="21" t="n"/>
-      <c r="B69" s="21" t="n"/>
-      <c r="C69" s="21" t="n"/>
+      <c r="A69" s="21" t="inlineStr">
+        <is>
+          <t>ネットワークトポロジと接続性</t>
+        </is>
+      </c>
+      <c r="B69" s="21" t="inlineStr">
+        <is>
+          <t>アプリケーション・ゲートウェイ</t>
+        </is>
+      </c>
+      <c r="C69" s="21" t="inlineStr">
+        <is>
+          <t>トランスポート層の負荷分散を使用する</t>
+        </is>
+      </c>
       <c r="D69" s="21" t="n"/>
-      <c r="E69" s="21" t="n"/>
+      <c r="E69" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G69" s="21" t="n"/>
-      <c r="H69" s="15" t="n"/>
+      <c r="H69" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
+        </is>
+      </c>
       <c r="I69" s="15" t="n"/>
       <c r="J69" s="22" t="n"/>
       <c r="K69" s="22" t="n"/>
-      <c r="L69" s="25" t="n"/>
+      <c r="L69" s="25" t="inlineStr">
+        <is>
+          <t>29dcc19f-a8fa-4c35-8281-290577538793</t>
+        </is>
+      </c>
       <c r="M69" s="25" t="n"/>
       <c r="N69" s="25" t="n"/>
       <c r="O69" s="25" t="n"/>
       <c r="P69" s="25" t="n"/>
     </row>
     <row r="70" ht="16.5" customHeight="1">
-      <c r="A70" s="21" t="n"/>
-      <c r="B70" s="21" t="n"/>
-      <c r="C70" s="21" t="n"/>
+      <c r="A70" s="21" t="inlineStr">
+        <is>
+          <t>ネットワークトポロジと接続性</t>
+        </is>
+      </c>
+      <c r="B70" s="21" t="inlineStr">
+        <is>
+          <t>アプリケーション・ゲートウェイ</t>
+        </is>
+      </c>
+      <c r="C70" s="21" t="inlineStr">
+        <is>
+          <t>1 つのゲートウェイ上の複数の Web アプリケーションのホスト名またはドメイン名に基づいてルーティングを構成する</t>
+        </is>
+      </c>
       <c r="D70" s="21" t="n"/>
-      <c r="E70" s="21" t="n"/>
+      <c r="E70" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G70" s="21" t="n"/>
-      <c r="H70" s="15" t="n"/>
+      <c r="H70" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/application-gateway/multiple-site-overview</t>
+        </is>
+      </c>
       <c r="I70" s="15" t="n"/>
       <c r="J70" s="22" t="n"/>
       <c r="K70" s="23" t="n"/>
-      <c r="L70" s="25" t="n"/>
+      <c r="L70" s="25" t="inlineStr">
+        <is>
+          <t>276898c1-af5e-4819-9e8e-049c7801ab9d</t>
+        </is>
+      </c>
       <c r="M70" s="25" t="n"/>
       <c r="N70" s="25" t="n"/>
       <c r="O70" s="25" t="n"/>
       <c r="P70" s="25" t="n"/>
     </row>
     <row r="71" ht="16.5" customHeight="1">
-      <c r="A71" s="21" t="n"/>
-      <c r="B71" s="21" t="n"/>
-      <c r="C71" s="21" t="n"/>
+      <c r="A71" s="21" t="inlineStr">
+        <is>
+          <t>ネットワークトポロジと接続性</t>
+        </is>
+      </c>
+      <c r="B71" s="21" t="inlineStr">
+        <is>
+          <t>アプリケーション・ゲートウェイ</t>
+        </is>
+      </c>
+      <c r="C71" s="21" t="inlineStr">
+        <is>
+          <t>SSL証明書管理を一元化して、バックエンドサーバーファームからの暗号化と復号化のオーバーヘッドを削減</t>
+        </is>
+      </c>
       <c r="D71" s="21" t="n"/>
-      <c r="E71" s="21" t="n"/>
+      <c r="E71" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G71" s="21" t="n"/>
-      <c r="H71" s="15" t="n"/>
+      <c r="H71" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/application-gateway/create-ssl-portal</t>
+        </is>
+      </c>
       <c r="I71" s="15" t="n"/>
       <c r="J71" s="22" t="n"/>
       <c r="K71" s="22" t="n"/>
-      <c r="L71" s="25" t="n"/>
+      <c r="L71" s="25" t="inlineStr">
+        <is>
+          <t>5fe365b6-58e8-47ed-a8cf-5163850380a2</t>
+        </is>
+      </c>
       <c r="M71" s="25" t="n"/>
       <c r="N71" s="25" t="n"/>
       <c r="O71" s="25" t="n"/>
       <c r="P71" s="25" t="n"/>
     </row>
     <row r="72" ht="16.5" customHeight="1">
-      <c r="A72" s="21" t="n"/>
-      <c r="B72" s="21" t="n"/>
-      <c r="C72" s="21" t="n"/>
+      <c r="A72" s="21" t="inlineStr">
+        <is>
+          <t>ネットワークトポロジと接続性</t>
+        </is>
+      </c>
+      <c r="B72" s="21" t="inlineStr">
+        <is>
+          <t>アプリケーション・ゲートウェイ</t>
+        </is>
+      </c>
+      <c r="C72" s="21" t="inlineStr">
+        <is>
+          <t>Application Gateway を使用して WebSocket と HTTP/2 プロトコルをネイティブにサポートする</t>
+        </is>
+      </c>
       <c r="D72" s="21" t="n"/>
-      <c r="E72" s="21" t="n"/>
+      <c r="E72" s="21" t="inlineStr">
+        <is>
+          <t>低い</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G72" s="21" t="n"/>
-      <c r="H72" s="15" t="n"/>
+      <c r="H72" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/application-gateway/application-gateway-websocket</t>
+        </is>
+      </c>
       <c r="I72" s="15" t="n"/>
       <c r="J72" s="22" t="n"/>
       <c r="K72" s="22" t="n"/>
-      <c r="L72" s="25" t="n"/>
+      <c r="L72" s="25" t="inlineStr">
+        <is>
+          <t>fa64b4dd-35c2-4047-ac5c-45dfbf8b0db9</t>
+        </is>
+      </c>
       <c r="M72" s="25" t="n"/>
       <c r="N72" s="25" t="n"/>
       <c r="O72" s="25" t="n"/>
@@ -7483,7 +7744,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F64" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F73" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/network_appdelivery_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/network_appdelivery_checklist.ja.xlsx
@@ -1059,7 +1059,7 @@
     <row r="8" ht="16.5" customHeight="1">
       <c r="A8" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B8" s="21" t="inlineStr">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door でカスタマー マネージド TLS 証明書を使用する場合は、"最新" の証明書バージョンを使用します。証明書の手動更新によって引き起こされる停止のリスクを軽減</t>
+          <t>Azure Front Door でカスタマー マネージド TLS 証明書を使用する場合は、"最新" の証明書バージョンを使用します。証明書の手動更新による停止のリスクを軽減</t>
         </is>
       </c>
       <c r="D8" s="21" t="n"/>
@@ -1105,17 +1105,17 @@
     <row r="9" ht="16.5" customHeight="1">
       <c r="A9" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B9" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>アプリの配信</t>
         </is>
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>内部向けアプリ (corp) と外部向けアプリ (online) の両方のランディング ゾーン内でアプリ配信を実行します。</t>
+          <t>ランディング ゾーン内で、内部向けアプリ (corp) と外部向けアプリ (online) の両方のアプリ配信を実行します。</t>
         </is>
       </c>
       <c r="D9" s="21" t="n"/>
@@ -1155,7 +1155,7 @@
     <row r="10" ht="16.5" customHeight="1">
       <c r="A10" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B10" s="21" t="inlineStr">
@@ -1205,7 +1205,7 @@
     <row r="11" ht="16.5" customHeight="1">
       <c r="A11" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B11" s="21" t="inlineStr">
@@ -1215,7 +1215,7 @@
       </c>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>Azure Load Balancer に Standard SKU を使用していることを確認する</t>
+          <t>Azure Load Balancers に Standard SKU を使用していることを確認します</t>
         </is>
       </c>
       <c r="D11" s="21" t="n"/>
@@ -1251,7 +1251,7 @@
     <row r="12" ht="16.5" customHeight="1">
       <c r="A12" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B12" s="21" t="inlineStr">
@@ -1297,7 +1297,7 @@
     <row r="13" ht="16.5" customHeight="1">
       <c r="A13" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B13" s="21" t="inlineStr">
@@ -1307,7 +1307,7 @@
       </c>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>Application Gateway v2 は、IP プレフィックスが /24 以上のサブネットにデプロイする必要があります</t>
+          <t>Application Gateways v2 は、IP プレフィックスが /24 以上のサブネットにデプロイする必要があります</t>
         </is>
       </c>
       <c r="D13" s="21" t="n"/>
@@ -1347,7 +1347,7 @@
     <row r="14" ht="16.5" customHeight="1">
       <c r="A14" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B14" s="21" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>ランディング ゾーン仮想ネットワーク内およびそれらがセキュリティで保護しているアプリと共に、受信 HTTP(S) 接続のプロキシに使用される Azure Application Gateway v2 またはパートナーの NVA をデプロイします。</t>
+          <t>ランディング ゾーン仮想ネットワーク内の受信 HTTP(S) 接続のプロキシに使用される Azure Application Gateway v2 またはパートナー NVA と、それらがセキュリティ保護しているアプリをデプロイします。</t>
         </is>
       </c>
       <c r="D14" s="21" t="inlineStr">
         <is>
-          <t>リバースプロキシ全般、特にWAFの管理は、ネットワークよりもアプリケーションに近いため、アプリと同じサブスクリプションに属します。Application Gateway と WAF を接続サブスクリプションに一元化することは、1 つのチームによって管理されている場合は問題ない場合があります。</t>
+          <t>リバースプロキシの管理全般、特にWAFの管理は、ネットワーキングよりもアプリケーションに近いため、アプリと同じサブスクリプションに属します。Application Gateway と WAF を接続サブスクリプションに一元化することは、1 つのチームによって管理されている場合は問題ない可能性があります。</t>
         </is>
       </c>
       <c r="E14" s="21" t="inlineStr">
@@ -1401,7 +1401,7 @@
     <row r="15" ht="16.5" customHeight="1">
       <c r="A15" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B15" s="21" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>アプリケーション ランディング ゾーン内のすべてのパブリック IP アドレスに対して DDoS ネットワークまたは IP 保護プランを使用します。</t>
+          <t>アプリケーション ランディング ゾーン内のすべてのパブリック IP アドレスに対して、DDoS ネットワークまたは IP 保護プランを使用します。</t>
         </is>
       </c>
       <c r="D15" s="21" t="n"/>
@@ -1451,7 +1451,7 @@
     <row r="16" ht="16.5" customHeight="1">
       <c r="A16" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B16" s="21" t="inlineStr">
@@ -1461,7 +1461,7 @@
       </c>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>最小数のインスタンスが 2 つになる自動スケーリングを構成します。</t>
+          <t>自動スケールは、最小インスタンス数が 2 になるように構成します。</t>
         </is>
       </c>
       <c r="D16" s="21" t="n"/>
@@ -1501,7 +1501,7 @@
     <row r="17" ht="16.5" customHeight="1">
       <c r="A17" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B17" s="21" t="inlineStr">
@@ -1551,7 +1551,7 @@
     <row r="18" ht="16.5" customHeight="1">
       <c r="A18" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B18" s="21" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door と WAF ポリシーを使用して、複数の Azure リージョンにまたがるグローバル HTTP/S アプリを配信し、保護します。</t>
+          <t>Azure Front Door と WAF ポリシーを使用して、複数の Azure リージョンにまたがるグローバル HTTP/S アプリを提供し、保護します。</t>
         </is>
       </c>
       <c r="D18" s="21" t="n"/>
@@ -1601,12 +1601,12 @@
     <row r="19" ht="16.5" customHeight="1">
       <c r="A19" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B19" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>アプリの配信</t>
         </is>
       </c>
       <c r="C19" s="21" t="inlineStr">
@@ -1651,7 +1651,7 @@
     <row r="20" ht="16.5" customHeight="1">
       <c r="A20" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B20" s="21" t="inlineStr">
@@ -1701,17 +1701,17 @@
     <row r="21" ht="16.5" customHeight="1">
       <c r="A21" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B21" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>アプリの配信</t>
         </is>
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>ユーザーが内部アプリケーションへのアクセスのみを必要とする場合、Microsoft Entra ID アプリケーション プロキシは Azure Virtual Desktop (AVD) の代替として検討されていますか?</t>
+          <t>ユーザーが内部アプリケーションへのアクセスのみを必要とする場合、Microsoft Entra ID アプリケーション プロキシは Azure Virtual Desktop (AVD) の代替手段として検討されていますか?</t>
         </is>
       </c>
       <c r="D21" s="21" t="n"/>
@@ -1751,17 +1751,17 @@
     <row r="22" ht="16.5" customHeight="1">
       <c r="A22" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B22" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>アプリの配信</t>
         </is>
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク内の着信接続用に開かれているファイアウォール ポートの数を減らすには、Microsoft Entra ID アプリケーション プロキシを使用して、リモート ユーザーに内部アプリケーションへの安全で認証されたアクセスを提供することを検討してください。</t>
+          <t>ネットワーク内の着信接続用に開かれるファイアウォール ポートの数を減らすには、Microsoft Entra ID アプリケーション プロキシを使用して、リモート ユーザーに内部アプリケーションへの安全で認証されたアクセスを提供することを検討してください。</t>
         </is>
       </c>
       <c r="D22" s="21" t="n"/>
@@ -1801,7 +1801,7 @@
     <row r="23" ht="16.5" customHeight="1">
       <c r="A23" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B23" s="21" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>Front Door の WAF ポリシーを "防止" モードでデプロイします。</t>
+          <t>Front Door の WAF ポリシーを "防止" モードでデプロイし、Web アプリケーション ファイアウォールがトラフィックを許可または拒否するための適切なアクションを実行するようにします。</t>
         </is>
       </c>
       <c r="D23" s="21" t="n"/>
@@ -1847,7 +1847,7 @@
     <row r="24" ht="16.5" customHeight="1">
       <c r="A24" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B24" s="21" t="inlineStr">
@@ -1857,7 +1857,7 @@
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>Azure Traffic Manager と Azure Front Door の組み合わせは避けてください。</t>
+          <t>Azure Traffic Manager と Azure Front Door を組み合わせることは避けてください。</t>
         </is>
       </c>
       <c r="D24" s="21" t="n"/>
@@ -1893,7 +1893,7 @@
     <row r="25" ht="16.5" customHeight="1">
       <c r="A25" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B25" s="21" t="inlineStr">
@@ -1939,7 +1939,7 @@
     <row r="26" ht="16.5" customHeight="1">
       <c r="A26" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B26" s="21" t="inlineStr">
@@ -1949,7 +1949,7 @@
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door 配信元グループに配信元が 1 つしかない場合は、正常性プローブを無効にします。</t>
+          <t>Azure Front Door の配信元グループに配信元が 1 つしかない場合は、正常性プローブを無効にします。</t>
         </is>
       </c>
       <c r="D26" s="21" t="n"/>
@@ -1985,7 +1985,7 @@
     <row r="27" ht="16.5" customHeight="1">
       <c r="A27" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B27" s="21" t="inlineStr">
@@ -1995,7 +1995,7 @@
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door に適した正常性プローブ エンドポイントを選択します。アプリケーションのすべての依存関係をチェックする正常性エンドポイントを構築することを検討してください。</t>
+          <t>Azure Front Door の適切な正常性プローブ エンドポイントを選択します。アプリケーションのすべての依存関係をチェックする正常性エンドポイントの構築を検討してください。</t>
         </is>
       </c>
       <c r="D27" s="21" t="n"/>
@@ -2030,7 +2030,7 @@
     <row r="28" ht="16.5" customHeight="1">
       <c r="A28" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B28" s="21" t="inlineStr">
@@ -2075,7 +2075,7 @@
     <row r="29" ht="16.5" customHeight="1">
       <c r="A29" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B29" s="21" t="inlineStr">
@@ -2085,7 +2085,7 @@
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>Load Balancer の送信規則の代わりに Azure NAT Gateway を使用して、SNAT のスケーラビリティを向上させる</t>
+          <t>Load Balancer のアウトバウンド規則の代わりに Azure NAT Gateway を使用して SNAT のスケーラビリティを向上させる</t>
         </is>
       </c>
       <c r="D29" s="21" t="n"/>
@@ -2120,7 +2120,7 @@
     <row r="30" ht="16.5" customHeight="1">
       <c r="A30" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B30" s="21" t="inlineStr">
@@ -2165,7 +2165,7 @@
     <row r="31" ht="16.5" customHeight="1">
       <c r="A31" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B31" s="21" t="inlineStr">
@@ -2175,7 +2175,7 @@
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF の構成をコードとして定義します。コードを使用すると、新しいルール セット バージョンをより簡単に採用し、追加の保護を得ることができます。</t>
+          <t>Azure Front Door WAF 構成をコードとして定義します。コードを使用すると、新しいルール セット バージョンをより簡単に採用し、追加の保護を得ることができます。</t>
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
@@ -2210,7 +2210,7 @@
     <row r="32" ht="16.5" customHeight="1">
       <c r="A32" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B32" s="21" t="inlineStr">
@@ -2220,7 +2220,7 @@
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door でエンド ツー エンドの TLS を使用します。クライアントから Front Door への接続、および Front Door から配信元への接続には TLS を使用します。</t>
+          <t>Azure Front Door でエンド ツー エンド TLS を使用します。クライアントから Front Door への接続、および Front Door から配信元への接続には TLS を使用します。</t>
         </is>
       </c>
       <c r="D32" s="21" t="n"/>
@@ -2256,7 +2256,7 @@
     <row r="33" ht="16.5" customHeight="1">
       <c r="A33" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B33" s="21" t="inlineStr">
@@ -2266,7 +2266,7 @@
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door で HTTP から HTTPS へのリダイレクトを使用します。古いクライアントをHTTPSリクエストに自動的にリダイレクトすることでサポートします。</t>
+          <t>Azure Front Door で HTTP から HTTPS へのリダイレクトを使用します。古いクライアントを自動的に HTTPS リクエストにリダイレクトすることで、クライアントをサポートします。</t>
         </is>
       </c>
       <c r="D33" s="21" t="n"/>
@@ -2302,7 +2302,7 @@
     <row r="34" ht="16.5" customHeight="1">
       <c r="A34" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B34" s="21" t="inlineStr">
@@ -2348,7 +2348,7 @@
     <row r="35" ht="16.5" customHeight="1">
       <c r="A35" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B35" s="21" t="inlineStr">
@@ -2358,7 +2358,7 @@
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>ワークロードに合わせて Azure Front Door WAF を調整します。誤検知を減らします。</t>
+          <t>ワークロードに合わせて Azure Front Door WAF を調整するには、検出モードで WAF を構成して誤検知の検出を減らして修正します。</t>
         </is>
       </c>
       <c r="D35" s="21" t="n"/>
@@ -2394,7 +2394,7 @@
     <row r="36" ht="16.5" customHeight="1">
       <c r="A36" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B36" s="21" t="inlineStr">
@@ -2404,7 +2404,7 @@
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF ポリシーで要求本文検査機能を有効にします。</t>
+          <t>Azure Front Door WAF ポリシーで有効になっている要求本文の検査機能を有効にします。</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
@@ -2440,7 +2440,7 @@
     <row r="37" ht="16.5" customHeight="1">
       <c r="A37" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B37" s="21" t="inlineStr">
@@ -2450,7 +2450,7 @@
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF の既定の規則セットを有効にします。既定のルール セットは、一般的な攻撃を検出してブロックします。</t>
+          <t>Azure Front Door WAF の既定のルール セットを有効にします。デフォルトのルールセットは、一般的な攻撃を検出してブロックします。</t>
         </is>
       </c>
       <c r="D37" s="21" t="n"/>
@@ -2486,7 +2486,7 @@
     <row r="38" ht="16.5" customHeight="1">
       <c r="A38" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B38" s="21" t="inlineStr">
@@ -2496,7 +2496,7 @@
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF ボット保護ルール セットを有効にします。ボットルールは、良いボットと悪いボットを検出します。</t>
+          <t>Azure Front Door WAF ボット保護ルール セットを有効にします。ボット ルールは、良いボットと悪いボットを検出します。</t>
         </is>
       </c>
       <c r="D38" s="21" t="n"/>
@@ -2532,7 +2532,7 @@
     <row r="39" ht="16.5" customHeight="1">
       <c r="A39" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B39" s="21" t="inlineStr">
@@ -2542,7 +2542,7 @@
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>最新の Azure Front Door WAF ルール セット バージョンを使用します。ルール セットの更新は、現在の脅威の状況を考慮して定期的に更新されます。</t>
+          <t>最新の Azure Front Door WAF ルール セット バージョンを使用します。ルールセットの更新は、現在の脅威の状況を考慮して定期的に更新されます。</t>
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
@@ -2578,7 +2578,7 @@
     <row r="40" ht="16.5" customHeight="1">
       <c r="A40" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B40" s="21" t="inlineStr">
@@ -2588,7 +2588,7 @@
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF にレート制限を追加します。レート制限は、クライアントが短期間に大量のトラフィックを誤ってまたは意図的に送信することをブロックします。</t>
+          <t>Azure Front Door WAF にレート制限を追加します。レート制限は、クライアントが誤ってまたは意図的に短時間に大量のトラフィックを送信するのをブロックします。</t>
         </is>
       </c>
       <c r="D40" s="21" t="n"/>
@@ -2624,7 +2624,7 @@
     <row r="41" ht="16.5" customHeight="1">
       <c r="A41" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B41" s="21" t="inlineStr">
@@ -2634,7 +2634,7 @@
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF のレート制限には、高いしきい値を使用します。高いレート制限しきい値は、正当なトラフィックのブロックを回避しながら、インフラストラクチャを圧倒する可能性のある非常に多数の要求に対する保護を提供します。</t>
+          <t>Azure Front Door WAF のレート制限には高いしきい値を使用します。レート制限のしきい値を高くすると、正当なトラフィックのブロックを回避しながら、インフラストラクチャを圧倒する可能性のある非常に多くのリクエストに対する保護を提供します。</t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
@@ -2670,7 +2670,7 @@
     <row r="42" ht="16.5" customHeight="1">
       <c r="A42" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B42" s="21" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>すべての地域からのトラフィックが想定されていない場合は、地域フィルタを使用して、想定外の国からのトラフィックをブロックします。</t>
+          <t>すべての地理的地域からのトラフィックを想定していない場合は、geo フィルタを使用して、想定外の国からのトラフィックをブロックします。</t>
         </is>
       </c>
       <c r="D42" s="21" t="n"/>
@@ -2716,7 +2716,7 @@
     <row r="43" ht="16.5" customHeight="1">
       <c r="A43" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B43" s="21" t="inlineStr">
@@ -2726,7 +2726,7 @@
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF を使用してトラフィックをジオフィルター処理するときに、不明な (ZZ) 場所を指定します。IP アドレスを地理的に一致させることができない場合に、正当な要求を誤ってブロックしないようにします。</t>
+          <t>Azure Front Door WAF を使用してトラフィックを geo フィルタリングする場合は、不明な (ZZ) 場所を指定します。IP アドレスを地理的に一致できない場合に、正当な要求を誤ってブロックしないようにします。</t>
         </is>
       </c>
       <c r="D43" s="21" t="n"/>
@@ -2762,7 +2762,7 @@
     <row r="44" ht="16.5" customHeight="1">
       <c r="A44" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B44" s="21" t="inlineStr">
@@ -2772,7 +2772,7 @@
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>Azure Application Gateway WAF ボット保護ルール セットを有効にする ボット ルールは、良いボットと悪いボットを検出します。</t>
+          <t>Azure Application Gateway WAF ボット保護ルール セットを有効にします。ボット ルールは、良いボットと悪いボットを検出します。</t>
         </is>
       </c>
       <c r="D44" s="21" t="n"/>
@@ -2808,7 +2808,7 @@
     <row r="45" ht="16.5" customHeight="1">
       <c r="A45" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B45" s="21" t="inlineStr">
@@ -2818,7 +2818,7 @@
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>Azure Application Gateway WAF ポリシーで有効になっている要求本文検査機能を有効にします。</t>
+          <t>Azure Application Gateway WAF ポリシーで有効になっている要求本文の検査機能を有効にします。</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
@@ -2853,7 +2853,7 @@
     <row r="46" ht="16.5" customHeight="1">
       <c r="A46" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B46" s="21" t="inlineStr">
@@ -2863,7 +2863,7 @@
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>ワークロードに合わせて Azure Application Gateway WAF を調整します。誤検知を減らします。</t>
+          <t>ワークロードの検出モードで Azure Application Gateway WAF を調整します。誤検出を減らします。</t>
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
@@ -2899,7 +2899,7 @@
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B47" s="21" t="inlineStr">
@@ -2945,7 +2945,7 @@
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B48" s="21" t="inlineStr">
@@ -2955,7 +2955,7 @@
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>Azure Application Gateway WAF にレート制限を追加します。レート制限は、クライアントが短期間に大量のトラフィックを誤ってまたは意図的に送信することをブロックします。</t>
+          <t>Azure Application Gateway WAF にレート制限を追加します。レート制限は、クライアントが誤ってまたは意図的に短時間に大量のトラフィックを送信するのをブロックします。</t>
         </is>
       </c>
       <c r="D48" s="21" t="n"/>
@@ -2990,7 +2990,7 @@
     <row r="49" ht="16.5" customHeight="1">
       <c r="A49" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B49" s="21" t="inlineStr">
@@ -3000,7 +3000,7 @@
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>Azure Application Gateway の WAF レート制限には高いしきい値を使用します。高いレート制限しきい値は、正当なトラフィックのブロックを回避しながら、インフラストラクチャを圧倒する可能性のある非常に多数の要求に対する保護を提供します。</t>
+          <t>Azure Application Gateway WAF のレート制限には高いしきい値を使用します。レート制限のしきい値を高くすると、正当なトラフィックのブロックを回避しながら、インフラストラクチャを圧倒する可能性のある非常に多くのリクエストに対する保護を提供します。</t>
         </is>
       </c>
       <c r="D49" s="21" t="n"/>
@@ -3035,7 +3035,7 @@
     <row r="50" ht="16.5" customHeight="1">
       <c r="A50" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B50" s="21" t="inlineStr">
@@ -3045,7 +3045,7 @@
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>すべての地域からのトラフィックが想定されていない場合は、地域フィルタを使用して、想定外の国からのトラフィックをブロックします。</t>
+          <t>すべての地理的地域からのトラフィックを想定していない場合は、geo フィルタを使用して、想定外の国からのトラフィックをブロックします。</t>
         </is>
       </c>
       <c r="D50" s="21" t="n"/>
@@ -3081,7 +3081,7 @@
     <row r="51" ht="16.5" customHeight="1">
       <c r="A51" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B51" s="21" t="inlineStr">
@@ -3091,7 +3091,7 @@
       </c>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>Azure Application Gateway WAF でトラフィックを geo フィルタリングするときに、不明 (ZZ) の場所を指定します。IP アドレスを地理的に一致させることができない場合に、正当な要求を誤ってブロックしないようにします。</t>
+          <t>Azure Application Gateway WAF を使用してトラフィックを geo フィルタリングする場合は、不明な (ZZ) 場所を指定します。IP アドレスを地理的に一致できない場合に、正当な要求を誤ってブロックしないようにします。</t>
         </is>
       </c>
       <c r="D51" s="21" t="n"/>
@@ -3127,7 +3127,7 @@
     <row r="52" ht="16.5" customHeight="1">
       <c r="A52" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B52" s="21" t="inlineStr">
@@ -3137,7 +3137,7 @@
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>最新バージョンの Azure Application Gateway WAF ルール セットを使用します。ルール セットの更新は、現在の脅威の状況を考慮して定期的に更新されます。</t>
+          <t>最新の Azure Application Gateway WAF ルール セット バージョンを使用します。ルールセットの更新は、現在の脅威の状況を考慮して定期的に更新されます。</t>
         </is>
       </c>
       <c r="D52" s="21" t="n"/>
@@ -3173,7 +3173,7 @@
     <row r="53" ht="16.5" customHeight="1">
       <c r="A53" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B53" s="21" t="inlineStr">
@@ -3183,7 +3183,7 @@
       </c>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>診断設定を追加して、Azure Application Gateway の WAF ログを保存します。</t>
+          <t>診断設定を追加して、Azure Application Gateway WAF ログを保存します。</t>
         </is>
       </c>
       <c r="D53" s="21" t="n"/>
@@ -3218,7 +3218,7 @@
     <row r="54" ht="16.5" customHeight="1">
       <c r="A54" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B54" s="21" t="inlineStr">
@@ -3264,7 +3264,7 @@
     <row r="55" ht="16.5" customHeight="1">
       <c r="A55" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B55" s="21" t="inlineStr">
@@ -3309,7 +3309,7 @@
     <row r="56" ht="16.5" customHeight="1">
       <c r="A56" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B56" s="21" t="inlineStr">
@@ -3354,7 +3354,7 @@
     <row r="57" ht="16.5" customHeight="1">
       <c r="A57" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B57" s="21" t="inlineStr">
@@ -3364,7 +3364,7 @@
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>Azure Application Gateway の WAF 構成をコードとして定義します。コードを使用すると、新しいルール セット バージョンをより簡単に採用し、追加の保護を得ることができます。</t>
+          <t>Azure Application Gateway WAF 構成をコードとして定義します。コードを使用すると、新しいルール セット バージョンをより簡単に採用し、追加の保護を得ることができます。</t>
         </is>
       </c>
       <c r="D57" s="21" t="n"/>
@@ -3399,7 +3399,7 @@
     <row r="58" ht="16.5" customHeight="1">
       <c r="A58" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B58" s="21" t="inlineStr">
@@ -3444,7 +3444,7 @@
     <row r="59" ht="16.5" customHeight="1">
       <c r="A59" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B59" s="21" t="inlineStr">
@@ -3454,7 +3454,7 @@
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>バックエンドの受信トラフィックをフィルター処理して、Application Gateway サブネットからの接続 (NSG など) のみを受け入れるようにします。</t>
+          <t>バックエンドの受信トラフィックをフィルター処理して、Application Gateway サブネット (NSG など) からの接続のみを受け入れるようにします。</t>
         </is>
       </c>
       <c r="D59" s="21" t="n"/>
@@ -3489,7 +3489,7 @@
     <row r="60" ht="16.5" customHeight="1">
       <c r="A60" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B60" s="21" t="inlineStr">
@@ -3499,7 +3499,7 @@
       </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>配信元が Azure Front Door インスタンスからのトラフィックのみを受け取るようにします。</t>
+          <t>配信元が Azure Front Door インスタンスからのトラフィックのみを受け取ることを確認します。</t>
         </is>
       </c>
       <c r="D60" s="21" t="n"/>
@@ -3534,7 +3534,7 @@
     <row r="61" ht="16.5" customHeight="1">
       <c r="A61" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B61" s="21" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>バックエンド・サーバーへのトラフィックを暗号化する必要があります。</t>
+          <t>バックエンド サーバーへのトラフィックを暗号化する必要があります。</t>
         </is>
       </c>
       <c r="D61" s="21" t="n"/>
@@ -3579,7 +3579,7 @@
     <row r="62" ht="16.5" customHeight="1">
       <c r="A62" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B62" s="21" t="inlineStr">
@@ -3624,7 +3624,7 @@
     <row r="63" ht="16.5" customHeight="1">
       <c r="A63" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B63" s="21" t="inlineStr">
@@ -3634,7 +3634,7 @@
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t>HTTPをHTTPSにリダイレクトする</t>
+          <t>HTTP を HTTPS にリダイレクトする</t>
         </is>
       </c>
       <c r="D63" s="21" t="n"/>
@@ -3670,7 +3670,7 @@
     <row r="64" ht="16.5" customHeight="1">
       <c r="A64" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B64" s="21" t="inlineStr">
@@ -3680,7 +3680,7 @@
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t>ゲートウェイ管理の Cookie を使用して、ユーザー セッションから同じサーバーにトラフィックを送信して処理する</t>
+          <t>ゲートウェイで管理される Cookie を使用して、ユーザーセッションからのトラフィックを同じサーバーに転送して処理する</t>
         </is>
       </c>
       <c r="D64" s="21" t="n"/>
@@ -3716,7 +3716,7 @@
     <row r="65" ht="16.5" customHeight="1">
       <c r="A65" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B65" s="21" t="inlineStr">
@@ -3762,7 +3762,7 @@
     <row r="66" ht="16.5" customHeight="1">
       <c r="A66" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B66" s="21" t="inlineStr">
@@ -3807,7 +3807,7 @@
     <row r="67" ht="16.5" customHeight="1">
       <c r="A67" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B67" s="21" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>HTTPリクエストとレスポンスヘッダーを編集して、クライアントとサーバー間のルーティングと情報交換を容易にします</t>
+          <t>HTTP 要求と応答ヘッダーを編集して、クライアントとサーバー間のルーティングと情報交換を容易にします</t>
         </is>
       </c>
       <c r="D67" s="21" t="n"/>
@@ -3853,7 +3853,7 @@
     <row r="68" ht="16.5" customHeight="1">
       <c r="A68" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B68" s="21" t="inlineStr">
@@ -3863,7 +3863,7 @@
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>Front Door を構成して、グローバルな Web トラフィック ルーティングとトップレベルのエンド ユーザーのパフォーマンスを最適化し、迅速なグローバル フェールオーバーを通じて信頼性を確保します</t>
+          <t>Front Door を構成して、グローバル Web トラフィックのルーティングと最上位のエンドユーザーのパフォーマンス、および迅速なグローバル フェイルオーバーによる信頼性を最適化する</t>
         </is>
       </c>
       <c r="D68" s="21" t="n"/>
@@ -3899,7 +3899,7 @@
     <row r="69" ht="16.5" customHeight="1">
       <c r="A69" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B69" s="21" t="inlineStr">
@@ -3945,7 +3945,7 @@
     <row r="70" ht="16.5" customHeight="1">
       <c r="A70" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B70" s="21" t="inlineStr">
@@ -3991,7 +3991,7 @@
     <row r="71" ht="16.5" customHeight="1">
       <c r="A71" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B71" s="21" t="inlineStr">
@@ -4001,7 +4001,7 @@
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>SSL証明書管理を一元化して、バックエンドサーバーファームからの暗号化と復号化のオーバーヘッドを削減</t>
+          <t>SSL証明書管理を一元化して、バックエンドサーバーファームからの暗号化と復号化のオーバーヘッドを削減します</t>
         </is>
       </c>
       <c r="D71" s="21" t="n"/>
@@ -4037,7 +4037,7 @@
     <row r="72" ht="16.5" customHeight="1">
       <c r="A72" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B72" s="21" t="inlineStr">
@@ -4047,7 +4047,7 @@
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>Application Gateway を使用して WebSocket と HTTP/2 プロトコルをネイティブにサポートする</t>
+          <t>Application Gateway を使用して WebSocket プロトコルと HTTP/2 プロトコルをネイティブにサポートする</t>
         </is>
       </c>
       <c r="D72" s="21" t="n"/>
@@ -7835,7 +7835,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -7850,7 +7850,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>このチェックはまだ検討されていません</t>
+          <t>このチェックはまだ見ていません</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -7894,7 +7894,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>このチェックは検証済みで、これ以上のアクションアイテムは関連付けられていません</t>
+          <t>このチェックは検証済みであり、これ以上のアクション アイテムは関連付けられていません</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -7906,12 +7906,12 @@
     <row r="5">
       <c r="B5" s="9" t="inlineStr">
         <is>
-          <t>必要なし</t>
+          <t>必須ではありません</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>推奨事項は理解されているが、現在の要件では不要</t>
+          <t>推奨事項は理解されているが、現在の要件では必要ではない</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">

--- a/spreadsheet/macrofree/network_appdelivery_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/network_appdelivery_checklist.ja.xlsx
@@ -1064,12 +1064,12 @@
       </c>
       <c r="B8" s="21" t="inlineStr">
         <is>
-          <t>フロントドア</t>
+          <t>アプリの配信</t>
         </is>
       </c>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door でカスタマー マネージド TLS 証明書を使用する場合は、"最新" の証明書バージョンを使用します。証明書の手動更新による停止のリスクを軽減</t>
+          <t>ランディング ゾーン内で、内部向けアプリ (corp) と外部向けアプリ (online) の両方のアプリ配信を実行します。</t>
         </is>
       </c>
       <c r="D8" s="21" t="n"/>
@@ -1086,15 +1086,19 @@
       <c r="G8" s="21" t="n"/>
       <c r="H8" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
-        </is>
-      </c>
-      <c r="I8" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
+        </is>
+      </c>
+      <c r="I8" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
       <c r="J8" s="22" t="n"/>
       <c r="K8" s="22" t="n"/>
       <c r="L8" s="25" t="inlineStr">
         <is>
-          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
+          <t>b71ca41b-3a80-48f3-a6cd-22cdf197c1cf</t>
         </is>
       </c>
       <c r="M8" s="25" t="n"/>
@@ -1110,12 +1114,12 @@
       </c>
       <c r="B9" s="21" t="inlineStr">
         <is>
-          <t>アプリの配信</t>
+          <t>アプリケーション・ゲートウェイ</t>
         </is>
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>ランディング ゾーン内で、内部向けアプリ (corp) と外部向けアプリ (online) の両方のアプリ配信を実行します。</t>
+          <t>Application Gateway v2 SKU を使用していることを確認する</t>
         </is>
       </c>
       <c r="D9" s="21" t="n"/>
@@ -1132,7 +1136,7 @@
       <c r="G9" s="21" t="n"/>
       <c r="H9" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
+          <t>https://learn.microsoft.com/azure/application-gateway/overview-v2</t>
         </is>
       </c>
       <c r="I9" s="15" t="inlineStr">
@@ -1144,7 +1148,7 @@
       <c r="K9" s="22" t="n"/>
       <c r="L9" s="25" t="inlineStr">
         <is>
-          <t>b71ca41b-3a80-48f3-a6cd-22cdf197c1cf</t>
+          <t>553585a6-abe0-11ed-afa1-0242ac120002</t>
         </is>
       </c>
       <c r="M9" s="25" t="n"/>
@@ -1160,12 +1164,12 @@
       </c>
       <c r="B10" s="21" t="inlineStr">
         <is>
-          <t>アプリケーション・ゲートウェイ</t>
+          <t>ロードバランサー</t>
         </is>
       </c>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>Application Gateway v2 SKU を使用していることを確認する</t>
+          <t>Azure Load Balancers に Standard SKU を使用していることを確認します</t>
         </is>
       </c>
       <c r="D10" s="21" t="n"/>
@@ -1182,19 +1186,15 @@
       <c r="G10" s="21" t="n"/>
       <c r="H10" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/application-gateway/overview-v2</t>
-        </is>
-      </c>
-      <c r="I10" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
+        </is>
+      </c>
+      <c r="I10" s="15" t="n"/>
       <c r="J10" s="22" t="n"/>
       <c r="K10" s="23" t="n"/>
       <c r="L10" s="25" t="inlineStr">
         <is>
-          <t>553585a6-abe0-11ed-afa1-0242ac120002</t>
+          <t>4e35fbf5-0ae2-48b2-97ce-753353edbd1a</t>
         </is>
       </c>
       <c r="M10" s="25" t="n"/>
@@ -1215,7 +1215,7 @@
       </c>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>Azure Load Balancers に Standard SKU を使用していることを確認します</t>
+          <t>Load Balancer フロントエンドの IP アドレスがゾーン冗長であることを確認します (ゾーン フロントエンドが必要な場合を除く)。</t>
         </is>
       </c>
       <c r="D11" s="21" t="n"/>
@@ -1232,7 +1232,7 @@
       <c r="G11" s="21" t="n"/>
       <c r="H11" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-standard-availability-zones</t>
         </is>
       </c>
       <c r="I11" s="15" t="n"/>
@@ -1240,7 +1240,7 @@
       <c r="K11" s="22" t="n"/>
       <c r="L11" s="25" t="inlineStr">
         <is>
-          <t>4e35fbf5-0ae2-48b2-97ce-753353edbd1a</t>
+          <t>9432621a-8397-4654-a882-5bc856b7ef83</t>
         </is>
       </c>
       <c r="M11" s="25" t="n"/>
@@ -1256,12 +1256,12 @@
       </c>
       <c r="B12" s="21" t="inlineStr">
         <is>
-          <t>ロードバランサー</t>
+          <t>アプリケーション・ゲートウェイ</t>
         </is>
       </c>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>Load Balancer フロントエンドの IP アドレスがゾーン冗長であることを確認します (ゾーン フロントエンドが必要な場合を除く)。</t>
+          <t>Application Gateways v2 は、IP プレフィックスが /24 以上のサブネットにデプロイする必要があります</t>
         </is>
       </c>
       <c r="D12" s="21" t="n"/>
@@ -1278,15 +1278,19 @@
       <c r="G12" s="21" t="n"/>
       <c r="H12" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-standard-availability-zones</t>
-        </is>
-      </c>
-      <c r="I12" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/application-gateway/configuration-infrastructure#size-of-the-subnet</t>
+        </is>
+      </c>
+      <c r="I12" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
       <c r="J12" s="22" t="n"/>
       <c r="K12" s="22" t="n"/>
       <c r="L12" s="25" t="inlineStr">
         <is>
-          <t>9432621a-8397-4654-a882-5bc856b7ef83</t>
+          <t>dfc50f87-3800-424c-937b-ed5f186e7c15</t>
         </is>
       </c>
       <c r="M12" s="25" t="n"/>
@@ -1307,10 +1311,14 @@
       </c>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>Application Gateways v2 は、IP プレフィックスが /24 以上のサブネットにデプロイする必要があります</t>
-        </is>
-      </c>
-      <c r="D13" s="21" t="n"/>
+          <t>ランディング ゾーン仮想ネットワーク内の受信 HTTP(S) 接続のプロキシに使用される Azure Application Gateway v2 またはパートナー NVA と、それらがセキュリティ保護しているアプリをデプロイします。</t>
+        </is>
+      </c>
+      <c r="D13" s="21" t="inlineStr">
+        <is>
+          <t>リバースプロキシの管理全般、特にWAFの管理は、ネットワーキングよりもアプリケーションに近いため、アプリと同じサブスクリプションに属します。Application Gateway と WAF を接続サブスクリプションに一元化することは、1 つのチームによって管理されている場合は問題ない可能性があります。</t>
+        </is>
+      </c>
       <c r="E13" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -1324,7 +1332,7 @@
       <c r="G13" s="21" t="n"/>
       <c r="H13" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/application-gateway/configuration-infrastructure#size-of-the-subnet</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I13" s="15" t="inlineStr">
@@ -1336,7 +1344,7 @@
       <c r="K13" s="22" t="n"/>
       <c r="L13" s="25" t="inlineStr">
         <is>
-          <t>dfc50f87-3800-424c-937b-ed5f186e7c15</t>
+          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
         </is>
       </c>
       <c r="M13" s="25" t="n"/>
@@ -1357,14 +1365,10 @@
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>ランディング ゾーン仮想ネットワーク内の受信 HTTP(S) 接続のプロキシに使用される Azure Application Gateway v2 またはパートナー NVA と、それらがセキュリティ保護しているアプリをデプロイします。</t>
-        </is>
-      </c>
-      <c r="D14" s="21" t="inlineStr">
-        <is>
-          <t>リバースプロキシの管理全般、特にWAFの管理は、ネットワーキングよりもアプリケーションに近いため、アプリと同じサブスクリプションに属します。Application Gateway と WAF を接続サブスクリプションに一元化することは、1 つのチームによって管理されている場合は問題ない可能性があります。</t>
-        </is>
-      </c>
+          <t>アプリケーション ランディング ゾーン内のすべてのパブリック IP アドレスに対して、DDoS ネットワークまたは IP 保護プランを使用します。</t>
+        </is>
+      </c>
+      <c r="D14" s="21" t="n"/>
       <c r="E14" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -1383,14 +1387,14 @@
       </c>
       <c r="I14" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J14" s="22" t="n"/>
       <c r="K14" s="22" t="n"/>
       <c r="L14" s="25" t="inlineStr">
         <is>
-          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
+          <t>f109e1f3-c79b-4f14-82de-6b5c22314d08</t>
         </is>
       </c>
       <c r="M14" s="25" t="n"/>
@@ -1411,7 +1415,7 @@
       </c>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>アプリケーション ランディング ゾーン内のすべてのパブリック IP アドレスに対して、DDoS ネットワークまたは IP 保護プランを使用します。</t>
+          <t>自動スケールは、最小インスタンス数が 2 になるように構成します。</t>
         </is>
       </c>
       <c r="D15" s="21" t="n"/>
@@ -1428,19 +1432,19 @@
       <c r="G15" s="21" t="n"/>
       <c r="H15" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/application-gateway/application-gateway-autoscaling-zone-redundant</t>
         </is>
       </c>
       <c r="I15" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J15" s="22" t="n"/>
       <c r="K15" s="22" t="n"/>
       <c r="L15" s="25" t="inlineStr">
         <is>
-          <t>f109e1f3-c79b-4f14-82de-6b5c22314d08</t>
+          <t>135bf4ac-f9db-461f-b76b-2ee9e30b12c0</t>
         </is>
       </c>
       <c r="M15" s="25" t="n"/>
@@ -1461,7 +1465,7 @@
       </c>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>自動スケールは、最小インスタンス数が 2 になるように構成します。</t>
+          <t>Application Gateway を複数の可用性ゾーンにデプロイする</t>
         </is>
       </c>
       <c r="D16" s="21" t="n"/>
@@ -1478,7 +1482,7 @@
       <c r="G16" s="21" t="n"/>
       <c r="H16" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/application-gateway/application-gateway-autoscaling-zone-redundant</t>
+          <t>https://learn.microsoft.com/azure/reliability/migrate-app-gateway-v2</t>
         </is>
       </c>
       <c r="I16" s="15" t="inlineStr">
@@ -1490,7 +1494,7 @@
       <c r="K16" s="22" t="n"/>
       <c r="L16" s="25" t="inlineStr">
         <is>
-          <t>135bf4ac-f9db-461f-b76b-2ee9e30b12c0</t>
+          <t>060c6964-52b5-48db-af8b-83e4b2d85349</t>
         </is>
       </c>
       <c r="M16" s="25" t="n"/>
@@ -1506,12 +1510,12 @@
       </c>
       <c r="B17" s="21" t="inlineStr">
         <is>
-          <t>アプリケーション・ゲートウェイ</t>
+          <t>アプリの配信</t>
         </is>
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>Application Gateway を複数の可用性ゾーンにデプロイする</t>
+          <t>Front Door と Application Gateway を使用して HTTP/S アプリを保護する場合は、Front Door で WAF ポリシーを使用します。Application Gateway をロックダウンして、Front Door からのトラフィックのみを受信します。</t>
         </is>
       </c>
       <c r="D17" s="21" t="n"/>
@@ -1528,19 +1532,19 @@
       <c r="G17" s="21" t="n"/>
       <c r="H17" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/migrate-app-gateway-v2</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I17" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J17" s="22" t="n"/>
       <c r="K17" s="22" t="n"/>
       <c r="L17" s="25" t="inlineStr">
         <is>
-          <t>060c6964-52b5-48db-af8b-83e4b2d85349</t>
+          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
         </is>
       </c>
       <c r="M17" s="25" t="n"/>
@@ -1556,18 +1560,18 @@
       </c>
       <c r="B18" s="21" t="inlineStr">
         <is>
-          <t>フロントドア</t>
+          <t>トラフィック マネージャー</t>
         </is>
       </c>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door と WAF ポリシーを使用して、複数の Azure リージョンにまたがるグローバル HTTP/S アプリを提供し、保護します。</t>
+          <t>Traffic Manager を使用して、HTTP/S 以外のプロトコルにまたがるグローバル アプリを配信します。</t>
         </is>
       </c>
       <c r="D18" s="21" t="n"/>
       <c r="E18" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1590,7 +1594,7 @@
       <c r="K18" s="22" t="n"/>
       <c r="L18" s="25" t="inlineStr">
         <is>
-          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
+          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
         </is>
       </c>
       <c r="M18" s="25" t="n"/>
@@ -1611,13 +1615,13 @@
       </c>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t>Front Door と Application Gateway を使用して HTTP/S アプリを保護する場合は、Front Door で WAF ポリシーを使用します。Application Gateway をロックダウンして、Front Door からのトラフィックのみを受信します。</t>
+          <t>ユーザーが内部アプリケーションへのアクセスのみを必要とする場合、Microsoft Entra ID アプリケーション プロキシは Azure Virtual Desktop (AVD) の代替手段として検討されていますか?</t>
         </is>
       </c>
       <c r="D19" s="21" t="n"/>
       <c r="E19" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1628,19 +1632,19 @@
       <c r="G19" s="21" t="n"/>
       <c r="H19" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
         </is>
       </c>
       <c r="I19" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
         </is>
       </c>
       <c r="J19" s="22" t="n"/>
       <c r="K19" s="22" t="n"/>
       <c r="L19" s="25" t="inlineStr">
         <is>
-          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
+          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
         </is>
       </c>
       <c r="M19" s="25" t="n"/>
@@ -1656,18 +1660,18 @@
       </c>
       <c r="B20" s="21" t="inlineStr">
         <is>
-          <t>トラフィック マネージャー</t>
+          <t>アプリの配信</t>
         </is>
       </c>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>Traffic Manager を使用して、HTTP/S 以外のプロトコルにまたがるグローバル アプリを配信します。</t>
+          <t>ネットワーク内の着信接続用に開かれるファイアウォール ポートの数を減らすには、Microsoft Entra ID アプリケーション プロキシを使用して、リモート ユーザーに内部アプリケーションへの安全で認証されたアクセスを提供することを検討してください。</t>
         </is>
       </c>
       <c r="D20" s="21" t="n"/>
       <c r="E20" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1678,19 +1682,19 @@
       <c r="G20" s="21" t="n"/>
       <c r="H20" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
         </is>
       </c>
       <c r="I20" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
         </is>
       </c>
       <c r="J20" s="22" t="n"/>
       <c r="K20" s="22" t="n"/>
       <c r="L20" s="25" t="inlineStr">
         <is>
-          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
+          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
         </is>
       </c>
       <c r="M20" s="25" t="n"/>
@@ -1706,18 +1710,18 @@
       </c>
       <c r="B21" s="21" t="inlineStr">
         <is>
-          <t>アプリの配信</t>
+          <t>ロードバランサー</t>
         </is>
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>ユーザーが内部アプリケーションへのアクセスのみを必要とする場合、Microsoft Entra ID アプリケーション プロキシは Azure Virtual Desktop (AVD) の代替手段として検討されていますか?</t>
+          <t>Load Balancer のアウトバウンド規則の代わりに Azure NAT Gateway を使用して SNAT のスケーラビリティを向上させる</t>
         </is>
       </c>
       <c r="D21" s="21" t="n"/>
       <c r="E21" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1728,19 +1732,15 @@
       <c r="G21" s="21" t="n"/>
       <c r="H21" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
-        </is>
-      </c>
-      <c r="I21" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/nat-gateway/nat-overview#outbound-connectivity</t>
+        </is>
+      </c>
+      <c r="I21" s="15" t="n"/>
       <c r="J21" s="22" t="n"/>
       <c r="K21" s="22" t="n"/>
       <c r="L21" s="25" t="inlineStr">
         <is>
-          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
+          <t>97a2fd46-64b0-1dfa-b72d-9c8869496d75</t>
         </is>
       </c>
       <c r="M21" s="25" t="n"/>
@@ -1756,18 +1756,18 @@
       </c>
       <c r="B22" s="21" t="inlineStr">
         <is>
-          <t>アプリの配信</t>
+          <t>アプリケーション・ゲートウェイ</t>
         </is>
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク内の着信接続用に開かれるファイアウォール ポートの数を減らすには、Microsoft Entra ID アプリケーション プロキシを使用して、リモート ユーザーに内部アプリケーションへの安全で認証されたアクセスを提供することを検討してください。</t>
+          <t>Azure Application Gateway WAF ボット保護ルール セットを有効にします。ボット ルールは、良いボットと悪いボットを検出します。</t>
         </is>
       </c>
       <c r="D22" s="21" t="n"/>
       <c r="E22" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1778,19 +1778,15 @@
       <c r="G22" s="21" t="n"/>
       <c r="H22" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
-        </is>
-      </c>
-      <c r="I22" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/bot-protection</t>
+        </is>
+      </c>
+      <c r="I22" s="15" t="n"/>
       <c r="J22" s="22" t="n"/>
       <c r="K22" s="22" t="n"/>
       <c r="L22" s="25" t="inlineStr">
         <is>
-          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
+          <t>2f8e81eb-8e68-4026-8b1f-70f9b05f7cf9</t>
         </is>
       </c>
       <c r="M22" s="25" t="n"/>
@@ -1806,12 +1802,12 @@
       </c>
       <c r="B23" s="21" t="inlineStr">
         <is>
-          <t>フロントドア</t>
+          <t>アプリケーション・ゲートウェイ</t>
         </is>
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>Front Door の WAF ポリシーを "防止" モードでデプロイし、Web アプリケーション ファイアウォールがトラフィックを許可または拒否するための適切なアクションを実行するようにします。</t>
+          <t>Azure Application Gateway WAF ポリシーで要求本文の検査機能が有効になっているかどうかを確認します。</t>
         </is>
       </c>
       <c r="D23" s="21" t="n"/>
@@ -1828,7 +1824,7 @@
       <c r="G23" s="21" t="n"/>
       <c r="H23" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-policy-settings</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/application-gateway-waf-request-size-limits#request-body-inspection</t>
         </is>
       </c>
       <c r="I23" s="15" t="n"/>
@@ -1836,7 +1832,7 @@
       <c r="K23" s="22" t="n"/>
       <c r="L23" s="25" t="inlineStr">
         <is>
-          <t>ae248989-b306-4591-9186-de482e3f0f0e</t>
+          <t>8ea8e0d4-84e8-4b33-aeab-493f6391b4d6</t>
         </is>
       </c>
       <c r="M23" s="25" t="n"/>
@@ -1852,12 +1848,12 @@
       </c>
       <c r="B24" s="21" t="inlineStr">
         <is>
-          <t>フロントドア</t>
+          <t>アプリケーション・ゲートウェイ</t>
         </is>
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>Azure Traffic Manager と Azure Front Door を組み合わせることは避けてください。</t>
+          <t>ワークロードの検出モードで Azure Application Gateway WAF を調整します。誤検出を減らします。</t>
         </is>
       </c>
       <c r="D24" s="21" t="n"/>
@@ -1874,7 +1870,7 @@
       <c r="G24" s="21" t="n"/>
       <c r="H24" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/best-practices#tune-your-waf</t>
         </is>
       </c>
       <c r="I24" s="15" t="n"/>
@@ -1882,7 +1878,7 @@
       <c r="K24" s="22" t="n"/>
       <c r="L24" s="25" t="inlineStr">
         <is>
-          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+          <t>a4dd86d3-5ffa-408c-b660-cce073d085b8</t>
         </is>
       </c>
       <c r="M24" s="25" t="n"/>
@@ -1898,12 +1894,12 @@
       </c>
       <c r="B25" s="21" t="inlineStr">
         <is>
-          <t>フロントドア</t>
+          <t>アプリケーション・ゲートウェイ</t>
         </is>
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door と配信元で同じドメイン名を使用します。ホスト名が一致しないと、微妙なバグが発生する可能性があります。</t>
+          <t>Application Gateway の WAF ポリシーを "防止" モードでデプロイします。</t>
         </is>
       </c>
       <c r="D25" s="21" t="n"/>
@@ -1920,7 +1916,7 @@
       <c r="G25" s="21" t="n"/>
       <c r="H25" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/policy-overview?source=recommendations</t>
         </is>
       </c>
       <c r="I25" s="15" t="n"/>
@@ -1928,7 +1924,7 @@
       <c r="K25" s="22" t="n"/>
       <c r="L25" s="25" t="inlineStr">
         <is>
-          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+          <t>baf8e317-2397-4d49-b3d1-0dcc16d8778d</t>
         </is>
       </c>
       <c r="M25" s="25" t="n"/>
@@ -1944,18 +1940,18 @@
       </c>
       <c r="B26" s="21" t="inlineStr">
         <is>
-          <t>フロントドア</t>
+          <t>アプリケーション・ゲートウェイ</t>
         </is>
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door の配信元グループに配信元が 1 つしかない場合は、正常性プローブを無効にします。</t>
+          <t>Azure Application Gateway WAF にレート制限を追加します。レート制限は、クライアントが誤ってまたは意図的に短時間に大量のトラフィックを送信するのをブロックします。</t>
         </is>
       </c>
       <c r="D26" s="21" t="n"/>
       <c r="E26" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1966,7 +1962,7 @@
       <c r="G26" s="21" t="n"/>
       <c r="H26" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/rate-limiting-overview</t>
         </is>
       </c>
       <c r="I26" s="15" t="n"/>
@@ -1974,7 +1970,7 @@
       <c r="K26" s="22" t="n"/>
       <c r="L26" s="25" t="inlineStr">
         <is>
-          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+          <t>43fae595-8a32-4299-a69e-0f32c454dcc9</t>
         </is>
       </c>
       <c r="M26" s="25" t="n"/>
@@ -1990,12 +1986,12 @@
       </c>
       <c r="B27" s="21" t="inlineStr">
         <is>
-          <t>フロントドア</t>
+          <t>アプリケーション・ゲートウェイ</t>
         </is>
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door の適切な正常性プローブ エンドポイントを選択します。アプリケーションのすべての依存関係をチェックする正常性エンドポイントの構築を検討してください。</t>
+          <t>Azure Application Gateway WAF のレート制限には高いしきい値を使用します。レート制限のしきい値を高くすると、正当なトラフィックのブロックを回避しながら、インフラストラクチャを圧倒する可能性のある非常に多くのリクエストに対する保護を提供します。</t>
         </is>
       </c>
       <c r="D27" s="21" t="n"/>
@@ -2012,14 +2008,14 @@
       <c r="G27" s="21" t="n"/>
       <c r="H27" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/rate-limiting-overview#rate-limiting-details</t>
         </is>
       </c>
       <c r="J27" s="22" t="n"/>
       <c r="K27" s="22" t="n"/>
       <c r="L27" s="25" t="inlineStr">
         <is>
-          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+          <t>041e0ad8-7b12-4694-a0b7-a0e25ee2470f</t>
         </is>
       </c>
       <c r="M27" s="25" t="n"/>
@@ -2035,12 +2031,12 @@
       </c>
       <c r="B28" s="21" t="inlineStr">
         <is>
-          <t>フロントドア</t>
+          <t>アプリケーション・ゲートウェイ</t>
         </is>
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door で HEAD 正常性プローブを使用して、Front Door がアプリケーションに送信するトラフィックを減らします。</t>
+          <t>すべての地理的地域からのトラフィックを想定していない場合は、geo フィルタを使用して、想定外の国からのトラフィックをブロックします。</t>
         </is>
       </c>
       <c r="D28" s="21" t="n"/>
@@ -2057,14 +2053,14 @@
       <c r="G28" s="21" t="n"/>
       <c r="H28" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/best-practices#geo-filtering-best-practices</t>
         </is>
       </c>
       <c r="J28" s="22" t="n"/>
       <c r="K28" s="22" t="n"/>
       <c r="L28" s="25" t="inlineStr">
         <is>
-          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+          <t>99937189-ff78-492a-b9ca-18d828d82b37</t>
         </is>
       </c>
       <c r="M28" s="25" t="n"/>
@@ -2080,18 +2076,18 @@
       </c>
       <c r="B29" s="21" t="inlineStr">
         <is>
-          <t>ロードバランサー</t>
+          <t>アプリケーション・ゲートウェイ</t>
         </is>
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>Load Balancer のアウトバウンド規則の代わりに Azure NAT Gateway を使用して SNAT のスケーラビリティを向上させる</t>
+          <t>Azure Application Gateway WAF を使用してトラフィックを geo フィルタリングする場合は、不明な (ZZ) 場所を指定します。IP アドレスを地理的に一致できない場合に、正当な要求を誤ってブロックしないようにします。</t>
         </is>
       </c>
       <c r="D29" s="21" t="n"/>
       <c r="E29" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2102,14 +2098,14 @@
       <c r="G29" s="21" t="n"/>
       <c r="H29" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/nat-gateway/nat-overview#outbound-connectivity</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/geomatch-custom-rules</t>
         </is>
       </c>
       <c r="J29" s="22" t="n"/>
       <c r="K29" s="22" t="n"/>
       <c r="L29" s="25" t="inlineStr">
         <is>
-          <t>97a2fd46-64b0-1dfa-b72d-9c8869496d75</t>
+          <t>349a15c1-52f4-4319-9078-3895d95ecafd</t>
         </is>
       </c>
       <c r="M29" s="25" t="n"/>
@@ -2125,18 +2121,18 @@
       </c>
       <c r="B30" s="21" t="inlineStr">
         <is>
-          <t>フロントドア</t>
+          <t>アプリケーション・ゲートウェイ</t>
         </is>
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door でマネージド TLS 証明書を使用します。運用コストと、証明書の更新による停止のリスクを軽減します。</t>
+          <t>最新の Azure Application Gateway WAF ルール セット バージョンを使用します。ルールセットの更新は、現在の脅威の状況を考慮して定期的に更新されます。</t>
         </is>
       </c>
       <c r="D30" s="21" t="n"/>
       <c r="E30" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2147,14 +2143,14 @@
       <c r="G30" s="21" t="n"/>
       <c r="H30" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/best-practices#use-the-latest-ruleset-versions</t>
         </is>
       </c>
       <c r="J30" s="22" t="n"/>
       <c r="K30" s="22" t="n"/>
       <c r="L30" s="25" t="inlineStr">
         <is>
-          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+          <t>6c19dfd5-a61c-436c-9001-491b9b3d0228</t>
         </is>
       </c>
       <c r="M30" s="25" t="n"/>
@@ -2170,12 +2166,12 @@
       </c>
       <c r="B31" s="21" t="inlineStr">
         <is>
-          <t>フロントドア</t>
+          <t>アプリケーション・ゲートウェイ</t>
         </is>
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF 構成をコードとして定義します。コードを使用すると、新しいルール セット バージョンをより簡単に採用し、追加の保護を得ることができます。</t>
+          <t>診断設定を追加して、Azure Application Gateway WAF ログを保存します。</t>
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
@@ -2192,14 +2188,14 @@
       <c r="G31" s="21" t="n"/>
       <c r="H31" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
         </is>
       </c>
       <c r="J31" s="22" t="n"/>
       <c r="K31" s="22" t="n"/>
       <c r="L31" s="25" t="inlineStr">
         <is>
-          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+          <t>f84106a2-2e9e-42ac-add6-d3416ecfed53</t>
         </is>
       </c>
       <c r="M31" s="25" t="n"/>
@@ -2215,18 +2211,18 @@
       </c>
       <c r="B32" s="21" t="inlineStr">
         <is>
-          <t>フロントドア</t>
+          <t>アプリケーション・ゲートウェイ</t>
         </is>
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door でエンド ツー エンド TLS を使用します。クライアントから Front Door への接続、および Front Door から配信元への接続には TLS を使用します。</t>
+          <t>Azure Application Gateway WAF ログを Microsoft Sentinel に送信します。</t>
         </is>
       </c>
       <c r="D32" s="21" t="n"/>
       <c r="E32" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2237,7 +2233,7 @@
       <c r="G32" s="21" t="n"/>
       <c r="H32" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/best-practices#send-logs-to-microsoft-sentinel</t>
         </is>
       </c>
       <c r="I32" s="15" t="n"/>
@@ -2245,7 +2241,7 @@
       <c r="K32" s="22" t="n"/>
       <c r="L32" s="25" t="inlineStr">
         <is>
-          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+          <t>92664c60-47e3-4591-8b1b-8d557656e686</t>
         </is>
       </c>
       <c r="M32" s="25" t="n"/>
@@ -2261,12 +2257,12 @@
       </c>
       <c r="B33" s="21" t="inlineStr">
         <is>
-          <t>フロントドア</t>
+          <t>アプリケーション・ゲートウェイ</t>
         </is>
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door で HTTP から HTTPS へのリダイレクトを使用します。古いクライアントを自動的に HTTPS リクエストにリダイレクトすることで、クライアントをサポートします。</t>
+          <t>Azure Application Gateway WAF 構成をコードとして定義します。コードを使用すると、新しいルール セット バージョンをより簡単に採用し、追加の保護を得ることができます。</t>
         </is>
       </c>
       <c r="D33" s="21" t="n"/>
@@ -2283,7 +2279,7 @@
       <c r="G33" s="21" t="n"/>
       <c r="H33" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/best-practices#define-your-waf-configuration-as-code</t>
         </is>
       </c>
       <c r="I33" s="15" t="n"/>
@@ -2291,7 +2287,7 @@
       <c r="K33" s="23" t="n"/>
       <c r="L33" s="25" t="inlineStr">
         <is>
-          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+          <t>ba0e9b26-6e0d-4ec8-8541-023c00afd5b7</t>
         </is>
       </c>
       <c r="M33" s="25" t="n"/>
@@ -2307,18 +2303,18 @@
       </c>
       <c r="B34" s="21" t="inlineStr">
         <is>
-          <t>フロントドア</t>
+          <t>アプリケーション・ゲートウェイ</t>
         </is>
       </c>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF を有効にします。さまざまな攻撃からアプリケーションを保護します。</t>
+          <t>従来のWAF構成のかわりにWAFポリシーを使用します。</t>
         </is>
       </c>
       <c r="D34" s="21" t="n"/>
       <c r="E34" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2329,7 +2325,7 @@
       <c r="G34" s="21" t="n"/>
       <c r="H34" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/policy-overview</t>
         </is>
       </c>
       <c r="I34" s="15" t="n"/>
@@ -2337,7 +2333,7 @@
       <c r="K34" s="22" t="n"/>
       <c r="L34" s="25" t="inlineStr">
         <is>
-          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+          <t>f17ec301-8470-4afd-aabc-c1fdfe47dcc0</t>
         </is>
       </c>
       <c r="M34" s="25" t="n"/>
@@ -2353,18 +2349,18 @@
       </c>
       <c r="B35" s="21" t="inlineStr">
         <is>
-          <t>フロントドア</t>
+          <t>アプリケーション・ゲートウェイ</t>
         </is>
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>ワークロードに合わせて Azure Front Door WAF を調整するには、検出モードで WAF を構成して誤検知の検出を減らして修正します。</t>
+          <t>バックエンドの受信トラフィックをフィルター処理して、Application Gateway サブネット (NSG など) からの接続のみを受け入れるようにします。</t>
         </is>
       </c>
       <c r="D35" s="21" t="n"/>
       <c r="E35" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2375,7 +2371,7 @@
       <c r="G35" s="21" t="n"/>
       <c r="H35" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-secured-hub-app-gateway</t>
         </is>
       </c>
       <c r="I35" s="15" t="n"/>
@@ -2383,7 +2379,7 @@
       <c r="K35" s="22" t="n"/>
       <c r="L35" s="25" t="inlineStr">
         <is>
-          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+          <t>d4eb8667-f8cb-4cdd-94e6-2f967ba98f88</t>
         </is>
       </c>
       <c r="M35" s="25" t="n"/>
@@ -2399,12 +2395,12 @@
       </c>
       <c r="B36" s="21" t="inlineStr">
         <is>
-          <t>フロントドア</t>
+          <t>アプリケーション・ゲートウェイ</t>
         </is>
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF ポリシーで有効になっている要求本文の検査機能を有効にします。</t>
+          <t>バックエンド サーバーへのトラフィックを暗号化する必要があります。</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
@@ -2421,7 +2417,7 @@
       <c r="G36" s="21" t="n"/>
       <c r="H36" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/application-gateway-waf-request-size-limits#request-body-inspection</t>
+          <t>https://learn.microsoft.com/azure/application-gateway/ssl-overview</t>
         </is>
       </c>
       <c r="I36" s="15" t="n"/>
@@ -2429,7 +2425,7 @@
       <c r="K36" s="22" t="n"/>
       <c r="L36" s="25" t="inlineStr">
         <is>
-          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+          <t>a66f0fd8-2ca4-422e-8df3-235148127ca2</t>
         </is>
       </c>
       <c r="M36" s="25" t="n"/>
@@ -2445,12 +2441,12 @@
       </c>
       <c r="B37" s="21" t="inlineStr">
         <is>
-          <t>フロントドア</t>
+          <t>アプリケーション・ゲートウェイ</t>
         </is>
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF の既定のルール セットを有効にします。デフォルトのルールセットは、一般的な攻撃を検出してブロックします。</t>
+          <t>Web アプリケーション ファイアウォールを使用する必要があります。</t>
         </is>
       </c>
       <c r="D37" s="21" t="n"/>
@@ -2467,7 +2463,7 @@
       <c r="G37" s="21" t="n"/>
       <c r="H37" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/overview</t>
         </is>
       </c>
       <c r="I37" s="15" t="n"/>
@@ -2475,7 +2471,7 @@
       <c r="K37" s="22" t="n"/>
       <c r="L37" s="25" t="inlineStr">
         <is>
-          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+          <t>3dba65cb-834d-44d8-a3ca-a6aa2f1587be</t>
         </is>
       </c>
       <c r="M37" s="25" t="n"/>
@@ -2491,18 +2487,18 @@
       </c>
       <c r="B38" s="21" t="inlineStr">
         <is>
-          <t>フロントドア</t>
+          <t>アプリケーション・ゲートウェイ</t>
         </is>
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF ボット保護ルール セットを有効にします。ボット ルールは、良いボットと悪いボットを検出します。</t>
+          <t>HTTP を HTTPS にリダイレクトする</t>
         </is>
       </c>
       <c r="D38" s="21" t="n"/>
       <c r="E38" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2513,7 +2509,7 @@
       <c r="G38" s="21" t="n"/>
       <c r="H38" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+          <t>https://learn.microsoft.com/azure/application-gateway/redirect-overview</t>
         </is>
       </c>
       <c r="I38" s="15" t="n"/>
@@ -2521,7 +2517,7 @@
       <c r="K38" s="22" t="n"/>
       <c r="L38" s="25" t="inlineStr">
         <is>
-          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+          <t>0158fcb6-0bc1-4687-832f-cc7c359c22d2</t>
         </is>
       </c>
       <c r="M38" s="25" t="n"/>
@@ -2537,12 +2533,12 @@
       </c>
       <c r="B39" s="21" t="inlineStr">
         <is>
-          <t>フロントドア</t>
+          <t>アプリケーション・ゲートウェイ</t>
         </is>
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>最新の Azure Front Door WAF ルール セット バージョンを使用します。ルールセットの更新は、現在の脅威の状況を考慮して定期的に更新されます。</t>
+          <t>ゲートウェイで管理される Cookie を使用して、ユーザーセッションからのトラフィックを同じサーバーに転送して処理する</t>
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
@@ -2559,7 +2555,7 @@
       <c r="G39" s="21" t="n"/>
       <c r="H39" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+          <t>https://learn.microsoft.com/azure/application-gateway/how-application-gateway-works#modifications-to-the-request</t>
         </is>
       </c>
       <c r="I39" s="15" t="n"/>
@@ -2567,7 +2563,7 @@
       <c r="K39" s="22" t="n"/>
       <c r="L39" s="25" t="inlineStr">
         <is>
-          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+          <t>bb697864-1b4c-43af-8667-90cc69aaed5f</t>
         </is>
       </c>
       <c r="M39" s="25" t="n"/>
@@ -2583,18 +2579,18 @@
       </c>
       <c r="B40" s="21" t="inlineStr">
         <is>
-          <t>フロントドア</t>
+          <t>アプリケーション・ゲートウェイ</t>
         </is>
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF にレート制限を追加します。レート制限は、クライアントが誤ってまたは意図的に短時間に大量のトラフィックを送信するのをブロックします。</t>
+          <t>計画されたサービス更新中に接続ドレインを有効にして、バックエンド プールの既存のメンバーへの接続が失われないようにします</t>
         </is>
       </c>
       <c r="D40" s="21" t="n"/>
       <c r="E40" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2605,7 +2601,7 @@
       <c r="G40" s="21" t="n"/>
       <c r="H40" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+          <t>https://learn.microsoft.com/azure/application-gateway/configuration-http-settings</t>
         </is>
       </c>
       <c r="I40" s="15" t="n"/>
@@ -2613,7 +2609,7 @@
       <c r="K40" s="22" t="n"/>
       <c r="L40" s="25" t="inlineStr">
         <is>
-          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+          <t>ff353ad8-15fb-4ae8-9fc5-a85a36d36a35</t>
         </is>
       </c>
       <c r="M40" s="25" t="n"/>
@@ -2629,18 +2625,18 @@
       </c>
       <c r="B41" s="21" t="inlineStr">
         <is>
-          <t>フロントドア</t>
+          <t>アプリケーション・ゲートウェイ</t>
         </is>
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF のレート制限には高いしきい値を使用します。レート制限のしきい値を高くすると、正当なトラフィックのブロックを回避しながら、インフラストラクチャを圧倒する可能性のある非常に多くのリクエストに対する保護を提供します。</t>
+          <t>カスタムエラーページを作成して、パーソナライズされたユーザーエクスペリエンスを表示する</t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
       <c r="E41" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2651,7 +2647,7 @@
       <c r="G41" s="21" t="n"/>
       <c r="H41" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+          <t>https://learn.microsoft.com/azure/application-gateway/custom-error</t>
         </is>
       </c>
       <c r="I41" s="15" t="n"/>
@@ -2659,7 +2655,7 @@
       <c r="K41" s="22" t="n"/>
       <c r="L41" s="25" t="inlineStr">
         <is>
-          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+          <t>c8741f03-45a4-4183-a6b8-139e0773b8b5</t>
         </is>
       </c>
       <c r="M41" s="25" t="n"/>
@@ -2675,18 +2671,18 @@
       </c>
       <c r="B42" s="21" t="inlineStr">
         <is>
-          <t>フロントドア</t>
+          <t>アプリケーション・ゲートウェイ</t>
         </is>
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>すべての地理的地域からのトラフィックを想定していない場合は、geo フィルタを使用して、想定外の国からのトラフィックをブロックします。</t>
+          <t>HTTP 要求と応答ヘッダーを編集して、クライアントとサーバー間のルーティングと情報交換を容易にします</t>
         </is>
       </c>
       <c r="D42" s="21" t="n"/>
       <c r="E42" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2697,7 +2693,7 @@
       <c r="G42" s="21" t="n"/>
       <c r="H42" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+          <t>https://learn.microsoft.com/azure/application-gateway/rewrite-http-headers-url</t>
         </is>
       </c>
       <c r="I42" s="15" t="n"/>
@@ -2705,7 +2701,7 @@
       <c r="K42" s="22" t="n"/>
       <c r="L42" s="25" t="inlineStr">
         <is>
-          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+          <t>f850d46f-f5d7-4b17-b48c-a780741402e1</t>
         </is>
       </c>
       <c r="M42" s="25" t="n"/>
@@ -2721,12 +2717,12 @@
       </c>
       <c r="B43" s="21" t="inlineStr">
         <is>
-          <t>フロントドア</t>
+          <t>アプリケーション・ゲートウェイ</t>
         </is>
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF を使用してトラフィックを geo フィルタリングする場合は、不明な (ZZ) 場所を指定します。IP アドレスを地理的に一致できない場合に、正当な要求を誤ってブロックしないようにします。</t>
+          <t>Front Door を構成して、グローバル Web トラフィックのルーティングと最上位のエンドユーザーのパフォーマンス、および迅速なグローバル フェイルオーバーによる信頼性を最適化する</t>
         </is>
       </c>
       <c r="D43" s="21" t="n"/>
@@ -2743,7 +2739,7 @@
       <c r="G43" s="21" t="n"/>
       <c r="H43" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/front-door-overview</t>
         </is>
       </c>
       <c r="I43" s="15" t="n"/>
@@ -2751,7 +2747,7 @@
       <c r="K43" s="23" t="n"/>
       <c r="L43" s="25" t="inlineStr">
         <is>
-          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+          <t>eadc3164-4a0f-461c-85f1-1a372c04dfd1</t>
         </is>
       </c>
       <c r="M43" s="25" t="n"/>
@@ -2772,13 +2768,13 @@
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>Azure Application Gateway WAF ボット保護ルール セットを有効にします。ボット ルールは、良いボットと悪いボットを検出します。</t>
+          <t>トランスポート層の負荷分散を使用する</t>
         </is>
       </c>
       <c r="D44" s="21" t="n"/>
       <c r="E44" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2789,7 +2785,7 @@
       <c r="G44" s="21" t="n"/>
       <c r="H44" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/bot-protection</t>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
         </is>
       </c>
       <c r="I44" s="15" t="n"/>
@@ -2797,7 +2793,7 @@
       <c r="K44" s="22" t="n"/>
       <c r="L44" s="25" t="inlineStr">
         <is>
-          <t>2f8e81eb-8e68-4026-8b1f-70f9b05f7cf9</t>
+          <t>29dcc19f-a8fa-4c35-8281-290577538793</t>
         </is>
       </c>
       <c r="M44" s="25" t="n"/>
@@ -2818,13 +2814,13 @@
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>Azure Application Gateway WAF ポリシーで有効になっている要求本文の検査機能を有効にします。</t>
+          <t>1 つのゲートウェイ上の複数の Web アプリケーションのホスト名またはドメイン名に基づいてルーティングを構成する</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
       <c r="E45" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2835,14 +2831,14 @@
       <c r="G45" s="21" t="n"/>
       <c r="H45" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/application-gateway-waf-request-size-limits#request-body-inspection</t>
+          <t>https://learn.microsoft.com/azure/application-gateway/multiple-site-overview</t>
         </is>
       </c>
       <c r="J45" s="22" t="n"/>
       <c r="K45" s="22" t="n"/>
       <c r="L45" s="25" t="inlineStr">
         <is>
-          <t>8ea8e0d4-84e8-4b33-aeab-493f6391b4d6</t>
+          <t>276898c1-af5e-4819-9e8e-049c7801ab9d</t>
         </is>
       </c>
       <c r="M45" s="25" t="n"/>
@@ -2863,13 +2859,13 @@
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>ワークロードの検出モードで Azure Application Gateway WAF を調整します。誤検出を減らします。</t>
+          <t>SSL証明書管理を一元化して、バックエンドサーバーファームからの暗号化と復号化のオーバーヘッドを削減します</t>
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
       <c r="E46" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2880,7 +2876,7 @@
       <c r="G46" s="21" t="n"/>
       <c r="H46" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/best-practices#tune-your-waf</t>
+          <t>https://learn.microsoft.com/azure/application-gateway/create-ssl-portal</t>
         </is>
       </c>
       <c r="I46" s="15" t="n"/>
@@ -2888,7 +2884,7 @@
       <c r="K46" s="22" t="n"/>
       <c r="L46" s="25" t="inlineStr">
         <is>
-          <t>a4dd86d3-5ffa-408c-b660-cce073d085b8</t>
+          <t>5fe365b6-58e8-47ed-a8cf-5163850380a2</t>
         </is>
       </c>
       <c r="M46" s="25" t="n"/>
@@ -2909,13 +2905,13 @@
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>Application Gateway の WAF ポリシーを "防止" モードでデプロイします。</t>
+          <t>Application Gateway を使用して WebSocket プロトコルと HTTP/2 プロトコルをネイティブにサポートする</t>
         </is>
       </c>
       <c r="D47" s="21" t="n"/>
       <c r="E47" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2926,7 +2922,7 @@
       <c r="G47" s="21" t="n"/>
       <c r="H47" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-policy-settings</t>
+          <t>https://learn.microsoft.com/azure/application-gateway/application-gateway-websocket</t>
         </is>
       </c>
       <c r="I47" s="15" t="n"/>
@@ -2934,7 +2930,7 @@
       <c r="K47" s="22" t="n"/>
       <c r="L47" s="25" t="inlineStr">
         <is>
-          <t>baf8e317-2397-4d49-b3d1-0dcc16d8778d</t>
+          <t>fa64b4dd-35c2-4047-ac5c-45dfbf8b0db9</t>
         </is>
       </c>
       <c r="M47" s="25" t="n"/>
@@ -2943,1138 +2939,413 @@
       <c r="P47" s="25" t="n"/>
     </row>
     <row r="48" ht="16.5" customHeight="1">
-      <c r="A48" s="21" t="inlineStr">
-        <is>
-          <t>ネットワーク トポロジと接続性</t>
-        </is>
-      </c>
-      <c r="B48" s="21" t="inlineStr">
-        <is>
-          <t>アプリケーション・ゲートウェイ</t>
-        </is>
-      </c>
-      <c r="C48" s="21" t="inlineStr">
-        <is>
-          <t>Azure Application Gateway WAF にレート制限を追加します。レート制限は、クライアントが誤ってまたは意図的に短時間に大量のトラフィックを送信するのをブロックします。</t>
-        </is>
-      </c>
+      <c r="A48" s="21" t="n"/>
+      <c r="B48" s="21" t="n"/>
+      <c r="C48" s="21" t="n"/>
       <c r="D48" s="21" t="n"/>
-      <c r="E48" s="21" t="inlineStr">
-        <is>
-          <t>中程度</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="E48" s="21" t="n"/>
       <c r="G48" s="21" t="n"/>
-      <c r="H48" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/rate-limiting-overview</t>
-        </is>
-      </c>
+      <c r="H48" s="15" t="n"/>
       <c r="J48" s="22" t="n"/>
       <c r="K48" s="22" t="n"/>
-      <c r="L48" s="25" t="inlineStr">
-        <is>
-          <t>43fae595-8a32-4299-a69e-0f32c454dcc9</t>
-        </is>
-      </c>
+      <c r="L48" s="25" t="n"/>
       <c r="M48" s="25" t="n"/>
       <c r="N48" s="25" t="n"/>
       <c r="O48" s="25" t="n"/>
       <c r="P48" s="25" t="n"/>
     </row>
     <row r="49" ht="16.5" customHeight="1">
-      <c r="A49" s="21" t="inlineStr">
-        <is>
-          <t>ネットワーク トポロジと接続性</t>
-        </is>
-      </c>
-      <c r="B49" s="21" t="inlineStr">
-        <is>
-          <t>アプリケーション・ゲートウェイ</t>
-        </is>
-      </c>
-      <c r="C49" s="21" t="inlineStr">
-        <is>
-          <t>Azure Application Gateway WAF のレート制限には高いしきい値を使用します。レート制限のしきい値を高くすると、正当なトラフィックのブロックを回避しながら、インフラストラクチャを圧倒する可能性のある非常に多くのリクエストに対する保護を提供します。</t>
-        </is>
-      </c>
+      <c r="A49" s="21" t="n"/>
+      <c r="B49" s="21" t="n"/>
+      <c r="C49" s="21" t="n"/>
       <c r="D49" s="21" t="n"/>
-      <c r="E49" s="21" t="inlineStr">
-        <is>
-          <t>中程度</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="E49" s="21" t="n"/>
       <c r="G49" s="21" t="n"/>
-      <c r="H49" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/rate-limiting-overview#rate-limiting-details</t>
-        </is>
-      </c>
+      <c r="H49" s="15" t="n"/>
       <c r="J49" s="22" t="n"/>
       <c r="K49" s="22" t="n"/>
-      <c r="L49" s="25" t="inlineStr">
-        <is>
-          <t>041e0ad8-7b12-4694-a0b7-a0e25ee2470f</t>
-        </is>
-      </c>
+      <c r="L49" s="25" t="n"/>
       <c r="M49" s="25" t="n"/>
       <c r="N49" s="25" t="n"/>
       <c r="O49" s="25" t="n"/>
       <c r="P49" s="25" t="n"/>
     </row>
     <row r="50" ht="16.5" customHeight="1">
-      <c r="A50" s="21" t="inlineStr">
-        <is>
-          <t>ネットワーク トポロジと接続性</t>
-        </is>
-      </c>
-      <c r="B50" s="21" t="inlineStr">
-        <is>
-          <t>アプリケーション・ゲートウェイ</t>
-        </is>
-      </c>
-      <c r="C50" s="21" t="inlineStr">
-        <is>
-          <t>すべての地理的地域からのトラフィックを想定していない場合は、geo フィルタを使用して、想定外の国からのトラフィックをブロックします。</t>
-        </is>
-      </c>
+      <c r="A50" s="21" t="n"/>
+      <c r="B50" s="21" t="n"/>
+      <c r="C50" s="21" t="n"/>
       <c r="D50" s="21" t="n"/>
-      <c r="E50" s="21" t="inlineStr">
-        <is>
-          <t>低い</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="E50" s="21" t="n"/>
       <c r="G50" s="21" t="n"/>
-      <c r="H50" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/best-practices#geo-filtering-best-practices</t>
-        </is>
-      </c>
+      <c r="H50" s="15" t="n"/>
       <c r="I50" s="15" t="n"/>
       <c r="J50" s="22" t="n"/>
       <c r="K50" s="22" t="n"/>
-      <c r="L50" s="25" t="inlineStr">
-        <is>
-          <t>99937189-ff78-492a-b9ca-18d828d82b37</t>
-        </is>
-      </c>
+      <c r="L50" s="25" t="n"/>
       <c r="M50" s="25" t="n"/>
       <c r="N50" s="25" t="n"/>
       <c r="O50" s="25" t="n"/>
       <c r="P50" s="25" t="n"/>
     </row>
     <row r="51" ht="16.5" customHeight="1">
-      <c r="A51" s="21" t="inlineStr">
-        <is>
-          <t>ネットワーク トポロジと接続性</t>
-        </is>
-      </c>
-      <c r="B51" s="21" t="inlineStr">
-        <is>
-          <t>アプリケーション・ゲートウェイ</t>
-        </is>
-      </c>
-      <c r="C51" s="21" t="inlineStr">
-        <is>
-          <t>Azure Application Gateway WAF を使用してトラフィックを geo フィルタリングする場合は、不明な (ZZ) 場所を指定します。IP アドレスを地理的に一致できない場合に、正当な要求を誤ってブロックしないようにします。</t>
-        </is>
-      </c>
+      <c r="A51" s="21" t="n"/>
+      <c r="B51" s="21" t="n"/>
+      <c r="C51" s="21" t="n"/>
       <c r="D51" s="21" t="n"/>
-      <c r="E51" s="21" t="inlineStr">
-        <is>
-          <t>中程度</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="E51" s="21" t="n"/>
       <c r="G51" s="21" t="n"/>
-      <c r="H51" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/geomatch-custom-rules</t>
-        </is>
-      </c>
+      <c r="H51" s="15" t="n"/>
       <c r="I51" s="15" t="n"/>
       <c r="J51" s="22" t="n"/>
       <c r="K51" s="22" t="n"/>
-      <c r="L51" s="25" t="inlineStr">
-        <is>
-          <t>349a15c1-52f4-4319-9078-3895d95ecafd</t>
-        </is>
-      </c>
+      <c r="L51" s="25" t="n"/>
       <c r="M51" s="25" t="n"/>
       <c r="N51" s="25" t="n"/>
       <c r="O51" s="25" t="n"/>
       <c r="P51" s="25" t="n"/>
     </row>
     <row r="52" ht="16.5" customHeight="1">
-      <c r="A52" s="21" t="inlineStr">
-        <is>
-          <t>ネットワーク トポロジと接続性</t>
-        </is>
-      </c>
-      <c r="B52" s="21" t="inlineStr">
-        <is>
-          <t>アプリケーション・ゲートウェイ</t>
-        </is>
-      </c>
-      <c r="C52" s="21" t="inlineStr">
-        <is>
-          <t>最新の Azure Application Gateway WAF ルール セット バージョンを使用します。ルールセットの更新は、現在の脅威の状況を考慮して定期的に更新されます。</t>
-        </is>
-      </c>
+      <c r="A52" s="21" t="n"/>
+      <c r="B52" s="21" t="n"/>
+      <c r="C52" s="21" t="n"/>
       <c r="D52" s="21" t="n"/>
-      <c r="E52" s="21" t="inlineStr">
-        <is>
-          <t>中程度</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="E52" s="21" t="n"/>
       <c r="G52" s="21" t="n"/>
-      <c r="H52" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/best-practices#use-the-latest-ruleset-versions</t>
-        </is>
-      </c>
+      <c r="H52" s="15" t="n"/>
       <c r="I52" s="15" t="n"/>
       <c r="J52" s="22" t="n"/>
       <c r="K52" s="22" t="n"/>
-      <c r="L52" s="25" t="inlineStr">
-        <is>
-          <t>6c19dfd5-a61c-436c-9001-491b9b3d0228</t>
-        </is>
-      </c>
+      <c r="L52" s="25" t="n"/>
       <c r="M52" s="25" t="n"/>
       <c r="N52" s="25" t="n"/>
       <c r="O52" s="25" t="n"/>
       <c r="P52" s="25" t="n"/>
     </row>
     <row r="53" ht="16.5" customHeight="1">
-      <c r="A53" s="21" t="inlineStr">
-        <is>
-          <t>ネットワーク トポロジと接続性</t>
-        </is>
-      </c>
-      <c r="B53" s="21" t="inlineStr">
-        <is>
-          <t>アプリケーション・ゲートウェイ</t>
-        </is>
-      </c>
-      <c r="C53" s="21" t="inlineStr">
-        <is>
-          <t>診断設定を追加して、Azure Application Gateway WAF ログを保存します。</t>
-        </is>
-      </c>
+      <c r="A53" s="21" t="n"/>
+      <c r="B53" s="21" t="n"/>
+      <c r="C53" s="21" t="n"/>
       <c r="D53" s="21" t="n"/>
-      <c r="E53" s="21" t="inlineStr">
-        <is>
-          <t>中程度</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="E53" s="21" t="n"/>
       <c r="G53" s="21" t="n"/>
-      <c r="H53" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
-        </is>
-      </c>
+      <c r="H53" s="15" t="n"/>
       <c r="J53" s="22" t="n"/>
       <c r="K53" s="22" t="n"/>
-      <c r="L53" s="25" t="inlineStr">
-        <is>
-          <t>f84106a2-2e9e-42ac-add6-d3416ecfed53</t>
-        </is>
-      </c>
+      <c r="L53" s="25" t="n"/>
       <c r="M53" s="25" t="n"/>
       <c r="N53" s="25" t="n"/>
       <c r="O53" s="25" t="n"/>
       <c r="P53" s="25" t="n"/>
     </row>
     <row r="54" ht="16.5" customHeight="1">
-      <c r="A54" s="21" t="inlineStr">
-        <is>
-          <t>ネットワーク トポロジと接続性</t>
-        </is>
-      </c>
-      <c r="B54" s="21" t="inlineStr">
-        <is>
-          <t>フロントドア</t>
-        </is>
-      </c>
-      <c r="C54" s="21" t="inlineStr">
-        <is>
-          <t>診断設定を追加して、Azure Front Door WAF ログを保存します。</t>
-        </is>
-      </c>
+      <c r="A54" s="21" t="n"/>
+      <c r="B54" s="21" t="n"/>
+      <c r="C54" s="21" t="n"/>
       <c r="D54" s="21" t="n"/>
-      <c r="E54" s="21" t="inlineStr">
-        <is>
-          <t>中程度</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="E54" s="21" t="n"/>
       <c r="G54" s="21" t="n"/>
-      <c r="H54" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
-        </is>
-      </c>
+      <c r="H54" s="15" t="n"/>
       <c r="I54" s="15" t="n"/>
       <c r="J54" s="22" t="n"/>
       <c r="K54" s="22" t="n"/>
-      <c r="L54" s="25" t="inlineStr">
-        <is>
-          <t>4cea4050-7946-4a7c-89e6-b021b73c352d</t>
-        </is>
-      </c>
+      <c r="L54" s="25" t="n"/>
       <c r="M54" s="25" t="n"/>
       <c r="N54" s="25" t="n"/>
       <c r="O54" s="25" t="n"/>
       <c r="P54" s="25" t="n"/>
     </row>
     <row r="55" ht="16.5" customHeight="1">
-      <c r="A55" s="21" t="inlineStr">
-        <is>
-          <t>ネットワーク トポロジと接続性</t>
-        </is>
-      </c>
-      <c r="B55" s="21" t="inlineStr">
-        <is>
-          <t>アプリケーション・ゲートウェイ</t>
-        </is>
-      </c>
-      <c r="C55" s="21" t="inlineStr">
-        <is>
-          <t>Azure Application Gateway WAF ログを Microsoft Sentinel に送信します。</t>
-        </is>
-      </c>
+      <c r="A55" s="21" t="n"/>
+      <c r="B55" s="21" t="n"/>
+      <c r="C55" s="21" t="n"/>
       <c r="D55" s="21" t="n"/>
-      <c r="E55" s="21" t="inlineStr">
-        <is>
-          <t>中程度</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="E55" s="21" t="n"/>
       <c r="G55" s="21" t="n"/>
-      <c r="H55" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/best-practices#send-logs-to-microsoft-sentinel</t>
-        </is>
-      </c>
+      <c r="H55" s="15" t="n"/>
       <c r="J55" s="22" t="n"/>
       <c r="K55" s="22" t="n"/>
-      <c r="L55" s="25" t="inlineStr">
-        <is>
-          <t>92664c60-47e3-4591-8b1b-8d557656e686</t>
-        </is>
-      </c>
+      <c r="L55" s="25" t="n"/>
       <c r="M55" s="25" t="n"/>
       <c r="N55" s="25" t="n"/>
       <c r="O55" s="25" t="n"/>
       <c r="P55" s="25" t="n"/>
     </row>
     <row r="56" ht="16.5" customHeight="1">
-      <c r="A56" s="21" t="inlineStr">
-        <is>
-          <t>ネットワーク トポロジと接続性</t>
-        </is>
-      </c>
-      <c r="B56" s="21" t="inlineStr">
-        <is>
-          <t>フロントドア</t>
-        </is>
-      </c>
-      <c r="C56" s="21" t="inlineStr">
-        <is>
-          <t>Azure Front Door WAF ログを Microsoft Sentinel に送信します。</t>
-        </is>
-      </c>
+      <c r="A56" s="21" t="n"/>
+      <c r="B56" s="21" t="n"/>
+      <c r="C56" s="21" t="n"/>
       <c r="D56" s="21" t="n"/>
-      <c r="E56" s="21" t="inlineStr">
-        <is>
-          <t>中程度</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="E56" s="21" t="n"/>
       <c r="G56" s="21" t="n"/>
-      <c r="H56" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
-        </is>
-      </c>
+      <c r="H56" s="15" t="n"/>
       <c r="J56" s="22" t="n"/>
       <c r="K56" s="22" t="n"/>
-      <c r="L56" s="25" t="inlineStr">
-        <is>
-          <t>845f5f91-9c21-4674-a725-5ce890850e20</t>
-        </is>
-      </c>
+      <c r="L56" s="25" t="n"/>
       <c r="M56" s="25" t="n"/>
       <c r="N56" s="25" t="n"/>
       <c r="O56" s="25" t="n"/>
       <c r="P56" s="25" t="n"/>
     </row>
     <row r="57" ht="16.5" customHeight="1">
-      <c r="A57" s="21" t="inlineStr">
-        <is>
-          <t>ネットワーク トポロジと接続性</t>
-        </is>
-      </c>
-      <c r="B57" s="21" t="inlineStr">
-        <is>
-          <t>アプリケーション・ゲートウェイ</t>
-        </is>
-      </c>
-      <c r="C57" s="21" t="inlineStr">
-        <is>
-          <t>Azure Application Gateway WAF 構成をコードとして定義します。コードを使用すると、新しいルール セット バージョンをより簡単に採用し、追加の保護を得ることができます。</t>
-        </is>
-      </c>
+      <c r="A57" s="21" t="n"/>
+      <c r="B57" s="21" t="n"/>
+      <c r="C57" s="21" t="n"/>
       <c r="D57" s="21" t="n"/>
-      <c r="E57" s="21" t="inlineStr">
-        <is>
-          <t>中程度</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="E57" s="21" t="n"/>
       <c r="G57" s="21" t="n"/>
-      <c r="H57" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/best-practices#define-your-waf-configuration-as-code</t>
-        </is>
-      </c>
+      <c r="H57" s="15" t="n"/>
       <c r="J57" s="22" t="n"/>
       <c r="K57" s="22" t="n"/>
-      <c r="L57" s="25" t="inlineStr">
-        <is>
-          <t>ba0e9b26-6e0d-4ec8-8541-023c00afd5b7</t>
-        </is>
-      </c>
+      <c r="L57" s="25" t="n"/>
       <c r="M57" s="25" t="n"/>
       <c r="N57" s="25" t="n"/>
       <c r="O57" s="25" t="n"/>
       <c r="P57" s="25" t="n"/>
     </row>
     <row r="58" ht="16.5" customHeight="1">
-      <c r="A58" s="21" t="inlineStr">
-        <is>
-          <t>ネットワーク トポロジと接続性</t>
-        </is>
-      </c>
-      <c r="B58" s="21" t="inlineStr">
-        <is>
-          <t>アプリケーション・ゲートウェイ</t>
-        </is>
-      </c>
-      <c r="C58" s="21" t="inlineStr">
-        <is>
-          <t>従来のWAF構成のかわりにWAFポリシーを使用します。</t>
-        </is>
-      </c>
+      <c r="A58" s="21" t="n"/>
+      <c r="B58" s="21" t="n"/>
+      <c r="C58" s="21" t="n"/>
       <c r="D58" s="21" t="n"/>
-      <c r="E58" s="21" t="inlineStr">
-        <is>
-          <t>中程度</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="E58" s="21" t="n"/>
       <c r="G58" s="21" t="n"/>
-      <c r="H58" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/policy-overview</t>
-        </is>
-      </c>
+      <c r="H58" s="15" t="n"/>
       <c r="J58" s="22" t="n"/>
       <c r="K58" s="22" t="n"/>
-      <c r="L58" s="25" t="inlineStr">
-        <is>
-          <t>f17ec301-8470-4afd-aabc-c1fdfe47dcc0</t>
-        </is>
-      </c>
+      <c r="L58" s="25" t="n"/>
       <c r="M58" s="25" t="n"/>
       <c r="N58" s="25" t="n"/>
       <c r="O58" s="25" t="n"/>
       <c r="P58" s="25" t="n"/>
     </row>
     <row r="59" ht="16.5" customHeight="1">
-      <c r="A59" s="21" t="inlineStr">
-        <is>
-          <t>ネットワーク トポロジと接続性</t>
-        </is>
-      </c>
-      <c r="B59" s="21" t="inlineStr">
-        <is>
-          <t>アプリケーション・ゲートウェイ</t>
-        </is>
-      </c>
-      <c r="C59" s="21" t="inlineStr">
-        <is>
-          <t>バックエンドの受信トラフィックをフィルター処理して、Application Gateway サブネット (NSG など) からの接続のみを受け入れるようにします。</t>
-        </is>
-      </c>
+      <c r="A59" s="21" t="n"/>
+      <c r="B59" s="21" t="n"/>
+      <c r="C59" s="21" t="n"/>
       <c r="D59" s="21" t="n"/>
-      <c r="E59" s="21" t="inlineStr">
-        <is>
-          <t>中程度</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="E59" s="21" t="n"/>
       <c r="G59" s="21" t="n"/>
-      <c r="H59" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-secured-hub-app-gateway</t>
-        </is>
-      </c>
+      <c r="H59" s="15" t="n"/>
       <c r="J59" s="22" t="n"/>
       <c r="K59" s="22" t="n"/>
-      <c r="L59" s="25" t="inlineStr">
-        <is>
-          <t>d4eb8667-f8cb-4cdd-94e6-2f967ba98f88</t>
-        </is>
-      </c>
+      <c r="L59" s="25" t="n"/>
       <c r="M59" s="25" t="n"/>
       <c r="N59" s="25" t="n"/>
       <c r="O59" s="25" t="n"/>
       <c r="P59" s="25" t="n"/>
     </row>
     <row r="60" ht="16.5" customHeight="1">
-      <c r="A60" s="21" t="inlineStr">
-        <is>
-          <t>ネットワーク トポロジと接続性</t>
-        </is>
-      </c>
-      <c r="B60" s="21" t="inlineStr">
-        <is>
-          <t>フロントドア</t>
-        </is>
-      </c>
-      <c r="C60" s="21" t="inlineStr">
-        <is>
-          <t>配信元が Azure Front Door インスタンスからのトラフィックのみを受け取ることを確認します。</t>
-        </is>
-      </c>
+      <c r="A60" s="21" t="n"/>
+      <c r="B60" s="21" t="n"/>
+      <c r="C60" s="21" t="n"/>
       <c r="D60" s="21" t="n"/>
-      <c r="E60" s="21" t="inlineStr">
-        <is>
-          <t>中程度</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="E60" s="21" t="n"/>
       <c r="G60" s="21" t="n"/>
-      <c r="H60" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/origin-security?tabs=app-service-functions</t>
-        </is>
-      </c>
+      <c r="H60" s="15" t="n"/>
       <c r="J60" s="22" t="n"/>
       <c r="K60" s="22" t="n"/>
-      <c r="L60" s="25" t="inlineStr">
-        <is>
-          <t>7d3df025-59a3-447d-ac25-3f5750d35de1</t>
-        </is>
-      </c>
+      <c r="L60" s="25" t="n"/>
       <c r="M60" s="25" t="n"/>
       <c r="N60" s="25" t="n"/>
       <c r="O60" s="25" t="n"/>
       <c r="P60" s="25" t="n"/>
     </row>
     <row r="61" ht="16.5" customHeight="1">
-      <c r="A61" s="21" t="inlineStr">
-        <is>
-          <t>ネットワーク トポロジと接続性</t>
-        </is>
-      </c>
-      <c r="B61" s="21" t="inlineStr">
-        <is>
-          <t>アプリケーション・ゲートウェイ</t>
-        </is>
-      </c>
-      <c r="C61" s="21" t="inlineStr">
-        <is>
-          <t>バックエンド サーバーへのトラフィックを暗号化する必要があります。</t>
-        </is>
-      </c>
+      <c r="A61" s="21" t="n"/>
+      <c r="B61" s="21" t="n"/>
+      <c r="C61" s="21" t="n"/>
       <c r="D61" s="21" t="n"/>
-      <c r="E61" s="21" t="inlineStr">
-        <is>
-          <t>高い</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="E61" s="21" t="n"/>
       <c r="G61" s="21" t="n"/>
-      <c r="H61" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/application-gateway/ssl-overview</t>
-        </is>
-      </c>
+      <c r="H61" s="15" t="n"/>
       <c r="J61" s="22" t="n"/>
       <c r="K61" s="22" t="n"/>
-      <c r="L61" s="25" t="inlineStr">
-        <is>
-          <t>a66f0fd8-2ca4-422e-8df3-235148127ca2</t>
-        </is>
-      </c>
+      <c r="L61" s="25" t="n"/>
       <c r="M61" s="25" t="n"/>
       <c r="N61" s="25" t="n"/>
       <c r="O61" s="25" t="n"/>
       <c r="P61" s="25" t="n"/>
     </row>
     <row r="62" ht="16.5" customHeight="1">
-      <c r="A62" s="21" t="inlineStr">
-        <is>
-          <t>ネットワーク トポロジと接続性</t>
-        </is>
-      </c>
-      <c r="B62" s="21" t="inlineStr">
-        <is>
-          <t>アプリケーション・ゲートウェイ</t>
-        </is>
-      </c>
-      <c r="C62" s="21" t="inlineStr">
-        <is>
-          <t>Web アプリケーション ファイアウォールを使用する必要があります。</t>
-        </is>
-      </c>
+      <c r="A62" s="21" t="n"/>
+      <c r="B62" s="21" t="n"/>
+      <c r="C62" s="21" t="n"/>
       <c r="D62" s="21" t="n"/>
-      <c r="E62" s="21" t="inlineStr">
-        <is>
-          <t>高い</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="E62" s="21" t="n"/>
       <c r="G62" s="21" t="n"/>
-      <c r="H62" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/overview</t>
-        </is>
-      </c>
+      <c r="H62" s="15" t="n"/>
       <c r="J62" s="22" t="n"/>
       <c r="K62" s="22" t="n"/>
-      <c r="L62" s="25" t="inlineStr">
-        <is>
-          <t>3dba65cb-834d-44d8-a3ca-a6aa2f1587be</t>
-        </is>
-      </c>
+      <c r="L62" s="25" t="n"/>
       <c r="M62" s="25" t="n"/>
       <c r="N62" s="25" t="n"/>
       <c r="O62" s="25" t="n"/>
       <c r="P62" s="25" t="n"/>
     </row>
     <row r="63" ht="16.5" customHeight="1">
-      <c r="A63" s="21" t="inlineStr">
-        <is>
-          <t>ネットワーク トポロジと接続性</t>
-        </is>
-      </c>
-      <c r="B63" s="21" t="inlineStr">
-        <is>
-          <t>アプリケーション・ゲートウェイ</t>
-        </is>
-      </c>
-      <c r="C63" s="21" t="inlineStr">
-        <is>
-          <t>HTTP を HTTPS にリダイレクトする</t>
-        </is>
-      </c>
+      <c r="A63" s="21" t="n"/>
+      <c r="B63" s="21" t="n"/>
+      <c r="C63" s="21" t="n"/>
       <c r="D63" s="21" t="n"/>
-      <c r="E63" s="21" t="inlineStr">
-        <is>
-          <t>中程度</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="E63" s="21" t="n"/>
       <c r="G63" s="21" t="n"/>
-      <c r="H63" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/application-gateway/redirect-overview</t>
-        </is>
-      </c>
+      <c r="H63" s="15" t="n"/>
       <c r="I63" s="15" t="n"/>
       <c r="J63" s="22" t="n"/>
       <c r="K63" s="22" t="n"/>
-      <c r="L63" s="25" t="inlineStr">
-        <is>
-          <t>0158fcb6-0bc1-4687-832f-cc7c359c22d2</t>
-        </is>
-      </c>
+      <c r="L63" s="25" t="n"/>
       <c r="M63" s="25" t="n"/>
       <c r="N63" s="25" t="n"/>
       <c r="O63" s="25" t="n"/>
       <c r="P63" s="25" t="n"/>
     </row>
     <row r="64" ht="16.5" customHeight="1">
-      <c r="A64" s="21" t="inlineStr">
-        <is>
-          <t>ネットワーク トポロジと接続性</t>
-        </is>
-      </c>
-      <c r="B64" s="21" t="inlineStr">
-        <is>
-          <t>アプリケーション・ゲートウェイ</t>
-        </is>
-      </c>
-      <c r="C64" s="21" t="inlineStr">
-        <is>
-          <t>ゲートウェイで管理される Cookie を使用して、ユーザーセッションからのトラフィックを同じサーバーに転送して処理する</t>
-        </is>
-      </c>
+      <c r="A64" s="21" t="n"/>
+      <c r="B64" s="21" t="n"/>
+      <c r="C64" s="21" t="n"/>
       <c r="D64" s="21" t="n"/>
-      <c r="E64" s="21" t="inlineStr">
-        <is>
-          <t>中程度</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="E64" s="21" t="n"/>
       <c r="G64" s="21" t="n"/>
-      <c r="H64" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/application-gateway/how-application-gateway-works#modifications-to-the-request</t>
-        </is>
-      </c>
+      <c r="H64" s="15" t="n"/>
       <c r="I64" s="15" t="n"/>
       <c r="J64" s="22" t="n"/>
       <c r="K64" s="22" t="n"/>
-      <c r="L64" s="25" t="inlineStr">
-        <is>
-          <t>bb697864-1b4c-43af-8667-90cc69aaed5f</t>
-        </is>
-      </c>
+      <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
       <c r="N64" s="25" t="n"/>
       <c r="O64" s="25" t="n"/>
       <c r="P64" s="25" t="n"/>
     </row>
     <row r="65" ht="16.5" customHeight="1">
-      <c r="A65" s="21" t="inlineStr">
-        <is>
-          <t>ネットワーク トポロジと接続性</t>
-        </is>
-      </c>
-      <c r="B65" s="21" t="inlineStr">
-        <is>
-          <t>アプリケーション・ゲートウェイ</t>
-        </is>
-      </c>
-      <c r="C65" s="21" t="inlineStr">
-        <is>
-          <t>計画されたサービス更新中に接続ドレインを有効にして、バックエンド プールの既存のメンバーへの接続が失われないようにします</t>
-        </is>
-      </c>
+      <c r="A65" s="21" t="n"/>
+      <c r="B65" s="21" t="n"/>
+      <c r="C65" s="21" t="n"/>
       <c r="D65" s="21" t="n"/>
-      <c r="E65" s="21" t="inlineStr">
-        <is>
-          <t>高い</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="E65" s="21" t="n"/>
       <c r="G65" s="21" t="n"/>
-      <c r="H65" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/application-gateway/configuration-http-settings</t>
-        </is>
-      </c>
+      <c r="H65" s="15" t="n"/>
       <c r="I65" s="15" t="n"/>
       <c r="J65" s="22" t="n"/>
       <c r="K65" s="22" t="n"/>
-      <c r="L65" s="25" t="inlineStr">
-        <is>
-          <t>ff353ad8-15fb-4ae8-9fc5-a85a36d36a35</t>
-        </is>
-      </c>
+      <c r="L65" s="25" t="n"/>
       <c r="M65" s="25" t="n"/>
       <c r="N65" s="25" t="n"/>
       <c r="O65" s="25" t="n"/>
       <c r="P65" s="25" t="n"/>
     </row>
     <row r="66" ht="16.5" customHeight="1">
-      <c r="A66" s="21" t="inlineStr">
-        <is>
-          <t>ネットワーク トポロジと接続性</t>
-        </is>
-      </c>
-      <c r="B66" s="21" t="inlineStr">
-        <is>
-          <t>アプリケーション・ゲートウェイ</t>
-        </is>
-      </c>
-      <c r="C66" s="21" t="inlineStr">
-        <is>
-          <t>カスタムエラーページを作成して、パーソナライズされたユーザーエクスペリエンスを表示する</t>
-        </is>
-      </c>
+      <c r="A66" s="21" t="n"/>
+      <c r="B66" s="21" t="n"/>
+      <c r="C66" s="21" t="n"/>
       <c r="D66" s="21" t="n"/>
-      <c r="E66" s="21" t="inlineStr">
-        <is>
-          <t>低い</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="E66" s="21" t="n"/>
       <c r="G66" s="21" t="n"/>
-      <c r="H66" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/application-gateway/custom-error</t>
-        </is>
-      </c>
+      <c r="H66" s="15" t="n"/>
       <c r="J66" s="22" t="n"/>
       <c r="K66" s="22" t="n"/>
-      <c r="L66" s="25" t="inlineStr">
-        <is>
-          <t>c8741f03-45a4-4183-a6b8-139e0773b8b5</t>
-        </is>
-      </c>
+      <c r="L66" s="25" t="n"/>
       <c r="M66" s="25" t="n"/>
       <c r="N66" s="25" t="n"/>
       <c r="O66" s="25" t="n"/>
       <c r="P66" s="25" t="n"/>
     </row>
     <row r="67" ht="16.5" customHeight="1">
-      <c r="A67" s="21" t="inlineStr">
-        <is>
-          <t>ネットワーク トポロジと接続性</t>
-        </is>
-      </c>
-      <c r="B67" s="21" t="inlineStr">
-        <is>
-          <t>アプリケーション・ゲートウェイ</t>
-        </is>
-      </c>
-      <c r="C67" s="21" t="inlineStr">
-        <is>
-          <t>HTTP 要求と応答ヘッダーを編集して、クライアントとサーバー間のルーティングと情報交換を容易にします</t>
-        </is>
-      </c>
+      <c r="A67" s="21" t="n"/>
+      <c r="B67" s="21" t="n"/>
+      <c r="C67" s="21" t="n"/>
       <c r="D67" s="21" t="n"/>
-      <c r="E67" s="21" t="inlineStr">
-        <is>
-          <t>中程度</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="E67" s="21" t="n"/>
       <c r="G67" s="21" t="n"/>
-      <c r="H67" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/application-gateway/rewrite-http-headers-url</t>
-        </is>
-      </c>
+      <c r="H67" s="15" t="n"/>
       <c r="I67" s="15" t="n"/>
       <c r="J67" s="22" t="n"/>
       <c r="K67" s="22" t="n"/>
-      <c r="L67" s="25" t="inlineStr">
-        <is>
-          <t>f850d46f-f5d7-4b17-b48c-a780741402e1</t>
-        </is>
-      </c>
+      <c r="L67" s="25" t="n"/>
       <c r="M67" s="25" t="n"/>
       <c r="N67" s="25" t="n"/>
       <c r="O67" s="25" t="n"/>
       <c r="P67" s="25" t="n"/>
     </row>
     <row r="68" ht="16.5" customHeight="1">
-      <c r="A68" s="21" t="inlineStr">
-        <is>
-          <t>ネットワーク トポロジと接続性</t>
-        </is>
-      </c>
-      <c r="B68" s="21" t="inlineStr">
-        <is>
-          <t>アプリケーション・ゲートウェイ</t>
-        </is>
-      </c>
-      <c r="C68" s="21" t="inlineStr">
-        <is>
-          <t>Front Door を構成して、グローバル Web トラフィックのルーティングと最上位のエンドユーザーのパフォーマンス、および迅速なグローバル フェイルオーバーによる信頼性を最適化する</t>
-        </is>
-      </c>
+      <c r="A68" s="21" t="n"/>
+      <c r="B68" s="21" t="n"/>
+      <c r="C68" s="21" t="n"/>
       <c r="D68" s="21" t="n"/>
-      <c r="E68" s="21" t="inlineStr">
-        <is>
-          <t>中程度</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="E68" s="21" t="n"/>
       <c r="G68" s="21" t="n"/>
-      <c r="H68" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/front-door-overview</t>
-        </is>
-      </c>
+      <c r="H68" s="15" t="n"/>
       <c r="I68" s="15" t="n"/>
       <c r="J68" s="22" t="n"/>
       <c r="K68" s="22" t="n"/>
-      <c r="L68" s="25" t="inlineStr">
-        <is>
-          <t>eadc3164-4a0f-461c-85f1-1a372c04dfd1</t>
-        </is>
-      </c>
+      <c r="L68" s="25" t="n"/>
       <c r="M68" s="25" t="n"/>
       <c r="N68" s="25" t="n"/>
       <c r="O68" s="25" t="n"/>
       <c r="P68" s="25" t="n"/>
     </row>
     <row r="69" ht="16.5" customHeight="1">
-      <c r="A69" s="21" t="inlineStr">
-        <is>
-          <t>ネットワーク トポロジと接続性</t>
-        </is>
-      </c>
-      <c r="B69" s="21" t="inlineStr">
-        <is>
-          <t>アプリケーション・ゲートウェイ</t>
-        </is>
-      </c>
-      <c r="C69" s="21" t="inlineStr">
-        <is>
-          <t>トランスポート層の負荷分散を使用する</t>
-        </is>
-      </c>
+      <c r="A69" s="21" t="n"/>
+      <c r="B69" s="21" t="n"/>
+      <c r="C69" s="21" t="n"/>
       <c r="D69" s="21" t="n"/>
-      <c r="E69" s="21" t="inlineStr">
-        <is>
-          <t>中程度</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="E69" s="21" t="n"/>
       <c r="G69" s="21" t="n"/>
-      <c r="H69" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
-        </is>
-      </c>
+      <c r="H69" s="15" t="n"/>
       <c r="I69" s="15" t="n"/>
       <c r="J69" s="22" t="n"/>
       <c r="K69" s="22" t="n"/>
-      <c r="L69" s="25" t="inlineStr">
-        <is>
-          <t>29dcc19f-a8fa-4c35-8281-290577538793</t>
-        </is>
-      </c>
+      <c r="L69" s="25" t="n"/>
       <c r="M69" s="25" t="n"/>
       <c r="N69" s="25" t="n"/>
       <c r="O69" s="25" t="n"/>
       <c r="P69" s="25" t="n"/>
     </row>
     <row r="70" ht="16.5" customHeight="1">
-      <c r="A70" s="21" t="inlineStr">
-        <is>
-          <t>ネットワーク トポロジと接続性</t>
-        </is>
-      </c>
-      <c r="B70" s="21" t="inlineStr">
-        <is>
-          <t>アプリケーション・ゲートウェイ</t>
-        </is>
-      </c>
-      <c r="C70" s="21" t="inlineStr">
-        <is>
-          <t>1 つのゲートウェイ上の複数の Web アプリケーションのホスト名またはドメイン名に基づいてルーティングを構成する</t>
-        </is>
-      </c>
+      <c r="A70" s="21" t="n"/>
+      <c r="B70" s="21" t="n"/>
+      <c r="C70" s="21" t="n"/>
       <c r="D70" s="21" t="n"/>
-      <c r="E70" s="21" t="inlineStr">
-        <is>
-          <t>中程度</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="E70" s="21" t="n"/>
       <c r="G70" s="21" t="n"/>
-      <c r="H70" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/application-gateway/multiple-site-overview</t>
-        </is>
-      </c>
+      <c r="H70" s="15" t="n"/>
       <c r="I70" s="15" t="n"/>
       <c r="J70" s="22" t="n"/>
       <c r="K70" s="23" t="n"/>
-      <c r="L70" s="25" t="inlineStr">
-        <is>
-          <t>276898c1-af5e-4819-9e8e-049c7801ab9d</t>
-        </is>
-      </c>
+      <c r="L70" s="25" t="n"/>
       <c r="M70" s="25" t="n"/>
       <c r="N70" s="25" t="n"/>
       <c r="O70" s="25" t="n"/>
       <c r="P70" s="25" t="n"/>
     </row>
     <row r="71" ht="16.5" customHeight="1">
-      <c r="A71" s="21" t="inlineStr">
-        <is>
-          <t>ネットワーク トポロジと接続性</t>
-        </is>
-      </c>
-      <c r="B71" s="21" t="inlineStr">
-        <is>
-          <t>アプリケーション・ゲートウェイ</t>
-        </is>
-      </c>
-      <c r="C71" s="21" t="inlineStr">
-        <is>
-          <t>SSL証明書管理を一元化して、バックエンドサーバーファームからの暗号化と復号化のオーバーヘッドを削減します</t>
-        </is>
-      </c>
+      <c r="A71" s="21" t="n"/>
+      <c r="B71" s="21" t="n"/>
+      <c r="C71" s="21" t="n"/>
       <c r="D71" s="21" t="n"/>
-      <c r="E71" s="21" t="inlineStr">
-        <is>
-          <t>中程度</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="E71" s="21" t="n"/>
       <c r="G71" s="21" t="n"/>
-      <c r="H71" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/application-gateway/create-ssl-portal</t>
-        </is>
-      </c>
+      <c r="H71" s="15" t="n"/>
       <c r="I71" s="15" t="n"/>
       <c r="J71" s="22" t="n"/>
       <c r="K71" s="22" t="n"/>
-      <c r="L71" s="25" t="inlineStr">
-        <is>
-          <t>5fe365b6-58e8-47ed-a8cf-5163850380a2</t>
-        </is>
-      </c>
+      <c r="L71" s="25" t="n"/>
       <c r="M71" s="25" t="n"/>
       <c r="N71" s="25" t="n"/>
       <c r="O71" s="25" t="n"/>
       <c r="P71" s="25" t="n"/>
     </row>
     <row r="72" ht="16.5" customHeight="1">
-      <c r="A72" s="21" t="inlineStr">
-        <is>
-          <t>ネットワーク トポロジと接続性</t>
-        </is>
-      </c>
-      <c r="B72" s="21" t="inlineStr">
-        <is>
-          <t>アプリケーション・ゲートウェイ</t>
-        </is>
-      </c>
-      <c r="C72" s="21" t="inlineStr">
-        <is>
-          <t>Application Gateway を使用して WebSocket プロトコルと HTTP/2 プロトコルをネイティブにサポートする</t>
-        </is>
-      </c>
+      <c r="A72" s="21" t="n"/>
+      <c r="B72" s="21" t="n"/>
+      <c r="C72" s="21" t="n"/>
       <c r="D72" s="21" t="n"/>
-      <c r="E72" s="21" t="inlineStr">
-        <is>
-          <t>低い</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="E72" s="21" t="n"/>
       <c r="G72" s="21" t="n"/>
-      <c r="H72" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/application-gateway/application-gateway-websocket</t>
-        </is>
-      </c>
+      <c r="H72" s="15" t="n"/>
       <c r="I72" s="15" t="n"/>
       <c r="J72" s="22" t="n"/>
       <c r="K72" s="22" t="n"/>
-      <c r="L72" s="25" t="inlineStr">
-        <is>
-          <t>fa64b4dd-35c2-4047-ac5c-45dfbf8b0db9</t>
-        </is>
-      </c>
+      <c r="L72" s="25" t="n"/>
       <c r="M72" s="25" t="n"/>
       <c r="N72" s="25" t="n"/>
       <c r="O72" s="25" t="n"/>
@@ -7744,7 +7015,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F73" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F48" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/network_appdelivery_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/network_appdelivery_checklist.ja.xlsx
@@ -1382,7 +1382,7 @@
       <c r="G14" s="21" t="n"/>
       <c r="H14" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/application-gateway/tutorial-protect-application-gateway-ddos</t>
         </is>
       </c>
       <c r="I14" s="15" t="inlineStr">
